--- a/server/Final_Prepped_Data.xlsx
+++ b/server/Final_Prepped_Data.xlsx
@@ -28,7 +28,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Categories</t>
+    <t>Cat</t>
   </si>
   <si>
     <t>Sentiment</t>

--- a/server/Final_Prepped_Data.xlsx
+++ b/server/Final_Prepped_Data.xlsx
@@ -253,64 +253,64 @@
     <t>Science</t>
   </si>
   <si>
-    <t>[0.1376546323299408, 0.1027262732386589, 0.7596191763877869]</t>
-  </si>
-  <si>
-    <t>[0.04124028608202934, 0.40151292085647583, 0.5572468042373657]</t>
-  </si>
-  <si>
-    <t>[0.10941077023744583, 0.1655218005180359, 0.7250674366950989]</t>
-  </si>
-  <si>
-    <t>[0.08000293374061584, 0.1779858022928238, 0.7420112490653992]</t>
-  </si>
-  <si>
-    <t>[0.10338839143514633, 0.3028891980648041, 0.593722403049469]</t>
-  </si>
-  <si>
-    <t>[0.0859128087759018, 0.12073731422424316, 0.7933498620986938]</t>
-  </si>
-  <si>
-    <t>[0.02934599295258522, 0.5369570851325989, 0.4336968660354614]</t>
-  </si>
-  <si>
-    <t>[0.04898820072412491, 0.3236561417579651, 0.6273556351661682]</t>
-  </si>
-  <si>
-    <t>[0.06662314385175705, 0.2989164888858795, 0.6344602704048157]</t>
-  </si>
-  <si>
-    <t>[0.3630487322807312, 0.035865668207407, 0.6010856032371521]</t>
-  </si>
-  <si>
-    <t>[0.0583500899374485, 0.21063271164894104, 0.7310171723365784]</t>
-  </si>
-  <si>
-    <t>[0.16013966500759125, 0.08679008483886719, 0.7530702948570251]</t>
-  </si>
-  <si>
-    <t>[0.06751169264316559, 0.17324356734752655, 0.7592447996139526]</t>
-  </si>
-  <si>
-    <t>[0.11920846253633499, 0.19383063912391663, 0.6869608759880066]</t>
-  </si>
-  <si>
-    <t>[0.02105344645678997, 0.5400921106338501, 0.438854455947876]</t>
-  </si>
-  <si>
-    <t>[0.036992426961660385, 0.31804198026657104, 0.644965648651123]</t>
-  </si>
-  <si>
-    <t>[0.08505087345838547, 0.20256900787353516, 0.712380051612854]</t>
-  </si>
-  <si>
-    <t>[0.28694072365760803, 0.03797123581171036, 0.675088107585907]</t>
-  </si>
-  <si>
-    <t>[0.04956474527716637, 0.31198057532310486, 0.6384546160697937]</t>
-  </si>
-  <si>
-    <t>[0.03896082192659378, 0.1711225062608719, 0.7899166345596313]</t>
+    <t>[0.1376548558473587, 0.10272633284330368, 0.759618878364563]</t>
+  </si>
+  <si>
+    <t>[0.04124024137854576, 0.40151315927505493, 0.5572465658187866]</t>
+  </si>
+  <si>
+    <t>[0.10941050201654434, 0.16552220284938812, 0.7250673174858093]</t>
+  </si>
+  <si>
+    <t>[0.0800030380487442, 0.1779855191707611, 0.742011547088623]</t>
+  </si>
+  <si>
+    <t>[0.1033884808421135, 0.3028889000415802, 0.5937225818634033]</t>
+  </si>
+  <si>
+    <t>[0.08591282367706299, 0.12073728442192078, 0.7933499813079834]</t>
+  </si>
+  <si>
+    <t>[0.029346054419875145, 0.5369566679000854, 0.43369734287261963]</t>
+  </si>
+  <si>
+    <t>[0.04898812994360924, 0.3236560821533203, 0.6273558139801025]</t>
+  </si>
+  <si>
+    <t>[0.06662315875291824, 0.29891687631607056, 0.6344599723815918]</t>
+  </si>
+  <si>
+    <t>[0.3630485534667969, 0.035865720361471176, 0.6010857820510864]</t>
+  </si>
+  <si>
+    <t>[0.05835014209151268, 0.21063290536403656, 0.7310169339179993]</t>
+  </si>
+  <si>
+    <t>[0.16013967990875244, 0.08679009974002838, 0.7530702352523804]</t>
+  </si>
+  <si>
+    <t>[0.0675116553902626, 0.17324359714984894, 0.7592447400093079]</t>
+  </si>
+  <si>
+    <t>[0.11920846998691559, 0.19383084774017334, 0.686960756778717]</t>
+  </si>
+  <si>
+    <t>[0.021053435280919075, 0.5400918126106262, 0.43885472416877747]</t>
+  </si>
+  <si>
+    <t>[0.036992397159338, 0.318042129278183, 0.644965410232544]</t>
+  </si>
+  <si>
+    <t>[0.08505072444677353, 0.2025691717863083, 0.7123801112174988]</t>
+  </si>
+  <si>
+    <t>[0.2869396507740021, 0.03797134757041931, 0.6750890016555786]</t>
+  </si>
+  <si>
+    <t>[0.049564771354198456, 0.31198084354400635, 0.6384544372558594]</t>
+  </si>
+  <si>
+    <t>[0.03896079957485199, 0.17112259566783905, 0.7899165153503418]</t>
   </si>
 </sst>
 </file>

--- a/server/Final_Prepped_Data.xlsx
+++ b/server/Final_Prepped_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
   <si>
     <t>Heading</t>
   </si>
@@ -34,283 +34,295 @@
     <t>Sentiment</t>
   </si>
   <si>
-    <t>Women's Reservation Bill cleared in key Cabinet meet chaired by PM Modi: Sources</t>
-  </si>
-  <si>
-    <t>'Have to eliminate Sanatana': Udhayanidhi on Tamil Nadu Governor's caste remark</t>
-  </si>
-  <si>
-    <t>Congress leader shot dead in Punjab, Khalistani terrorist takes responsibility</t>
-  </si>
-  <si>
-    <t>IND vs AUS: KL Rahul to captain side in first two ODIs, R Ashwin to play entire series</t>
-  </si>
-  <si>
-    <t>It would be suffocating, to hell with them: Owaisi on joining INDIA bloc</t>
-  </si>
-  <si>
-    <t>No alliance with BJP, matter will be decided during elections: AIADMK leader</t>
-  </si>
-  <si>
-    <t>Sena vs Sena: Supreme Court's 1-week deadline for Maharashtra Speaker</t>
-  </si>
-  <si>
-    <t>Women's reservation bill cleared by Cabinet? All you need to know</t>
-  </si>
-  <si>
-    <t>Welcome Union Cabinet's decision but...: Congress on women's reservation bill</t>
-  </si>
-  <si>
-    <t>'Carry on, bolne do': How Sonia Gandhi guided Adhir Ranjan in Lok Sabha</t>
-  </si>
-  <si>
-    <t>Another student dies by suicide in Kota, 26th case this year</t>
-  </si>
-  <si>
-    <t>Karnataka's Hoysala temples make it to Unesco's World Heritage List</t>
-  </si>
-  <si>
-    <t>DMK MP TR Baalu advises Udhayanidhi to be cautious, says 'Entire country...'</t>
-  </si>
-  <si>
-    <t>Sonia Gandhi shown as goddess in Telangana posters, BJP calls it 'shameful'</t>
-  </si>
-  <si>
-    <t>Telangana minister KTR to move censor board over 'Razakar' movie teaser</t>
-  </si>
-  <si>
-    <t>New Kia Sonet launch in India in first half of 2024</t>
-  </si>
-  <si>
-    <t>‘You can’t be super LoP’: Rajya Sabha Chairman scolds Congress’s Jairam Ramesh</t>
-  </si>
-  <si>
-    <t>Constitution copy, coin for MPs on special session in new Parliament building</t>
-  </si>
-  <si>
-    <t>Thiruvananthapuram Mayor brings her baby to work, sparks debate</t>
-  </si>
-  <si>
-    <t>Is this Covid-19 cure worse than the virus?</t>
-  </si>
-  <si>
-    <t>propose legislation ensure per cent reservation woman lok sabha state assembly clear union cabinet source tell india today tv monday government yet make official statement believe women reservation bill bring discussion ongoing special session parliamentthe meeting call pm first sitting special parliament session bill guarantee per cent quota woman lok sabha state assembly across political line several leader demand introduction key bill speculation around muchdebate women reservation bill round ever since special parliament session announce meanwhile congress claim bill longstanding demand party congress leader jairam ramesh welcome union cabinet decision also tweet could well discuss allparty meeting special session consensus could build instead operate veil secrecythe cabinet meeting chair pm modi attend union minister rajnath singh amit shah piyush goyal pralhad joshi jaishankar nirmala sitharaman dharmendra pradhan nitin gadkari arjun ram meghwal among</t>
-  </si>
-  <si>
-    <t>tamil nadu youth affairs sport minister udhayanidhi stalin monday respond tamil nadu governor right ravis remark social castebased discrimination state say need eliminate sanatana dharma birth equal event thanjavur sunday right ravi say social discrimination still problem tamil nadu ask udhayanidhi say also say governor say say eliminate sanatana also speak caste discrimination say birth equalwherever caste discrimination wrong raise voice news agency ani quote say sunday tamil nadu governor say exist social discrimination society unacceptable untouchability social discrimination large section brother sister not treat equally painful unacceptable not hindu dharma say hindu dharma talk equality news agency pti quote sayingclaime social discrimination still persist tamil nadu say every day read newspaper get report hear story brother sister schedule caste not allow access temple strange surprised shocked nowhere india bharat young people caste band wristsreacting ravis remark dmk spokesperson saravanan annadurai allege governor indulge false propagandahe not able stomach growth dravidian model governance achieve dravidian ideology propagate sanatan ideology wherever go speak virtue sanatana dharma sanatana dharma responsible caste systemif division society sanatana dharma saida udhayanidhi call elimination sanatana monday reiterate early stance subject spark controversy september udhayanidhi assert sanatana dharma like dengue malaria need eradicate however later clarify not call genocide follow sanatana dharma allege bjp</t>
-  </si>
-  <si>
-    <t>local congress leader shoot dead residence punjab moga district monday accord police unknown assailant barge house local leader identify baljinder singh balli open firethe incident capture cctv instal outside ballis residence dala village balli congress block president ajitwalhour later canadabased khalistani terrorist arsh dalla take responsibility murder detailed facebook post post dalla allege baljinder singh balli ruin future force gangster culture also mention congress leader behind mother police custody motivate seek revengearsh dalla list terrorist want national investigative agency nia operate canada last three four year involve many terrorist killing punjabbaljinder singh balli get haircut house get call unknown person allegedly request sign document assume routine matter balli leave house meet caller two bikeborne assailant fire upon balli flee scene cctv show assailant flee scene immediately attack leave singh critically injure rush nearby hospital succumb injury treatmentlocal authority alert incident police launch investigation</t>
-  </si>
-  <si>
-    <t>india release two set squad series australia kl rahul lead team first two odis r ashwin make return odi side first time since part squad entirety seriesindia use world cup squad final odi rohit sharma return side captain washington sundar pick asia cup final sri lanka follow axar patel injury squad first two match ravindra jadeja deputy rahul first two match like virat kohli hardik pandya rest ishan kishan tremendous form look carry form series aussie recently lose odi series south africa kishan flourish late middleorder play three match australia kuldeep yadav player series asia cup rest first two game squad st two odi kl rahul c wk ravindra jadeja vicecaptain ruturaj gaikwad shubman gill shreyas iyer suryakumar yadav tilak varma ishan kishan wicketkeeper shardul thakur washington sundar r ashwin jasprit bumrah mohd shami mohd siraj prasidh bcci bcci september india high confidence beat sri lanka asia cup final wicket mohammed siraj become player match rip opposition sixwicket haul back spell india bowl host chase target ball sparesquad st two odi kl rahul c wk ravindra jadeja vicecaptain ruturaj gaikwad shubman gill shreyas iyer suryakumar yadav tilak varma ishan kishan wicketkeeper shardul thakur washington sundar r ashwin jasprit bumrah mohd shami mohd siraj prasidh bcci bcci september india high confidence beat sri lanka asia cup final wicket mohammed siraj become player match rip opposition sixwicket haul back spell india bowl host chase target ball sparethe three odi india australia take place september mohali indore rajkot respectivelyindia squad first two odiskl rahul c wk ravindra jadeja vicecaptain ruturaj gaikwad shubman gill shreyas iyer suryakumar yadav tilak varma ishan kishan wicketkeeper shardul thakur washington sundar r ashwin jasprit bumrah mohd shami mohd siraj prasidh krishnasquad rd final odirohit sharma c hardik pandya vicecaptain shubman gill virat kohli shreyas iyer suryakumar yadav kl rahul wicketkeeper ishan kishan wicketkeeper ravindra jadeja shardul thakur axar patel washington sundar kuldeep yadav r ashwin jasprit bumrah mohd shami mohd siraj</t>
-  </si>
-  <si>
-    <t>india majliseittehadul muslimeen aimim chief hyderabad mp asaduddin owaisi monday lash oppositionle india bloc say would suffocate join alliancespeaking public gathering delhi owaisi say not part alliance bluntly remark hell iton not invite join india alliance say not care itwe not india alliance not care would suffocate not stand bjp ideology tell give ticket not get hindu vote owaisi saidi say openly say behind close wall hyderabad mp allegedfurther speech owaisi also train gun former congress president rahul gandhi say muslim league save drown wayanad lose amethi seat lok sabha election rahul gandhi lose amethi win wayanad asaduddin owaisi not contest election not deal bjp win wayanad muslim league muslim league save drown owaisi say owaisis barb rahul gandhi come day latter say opposition leader attack government agency case aimim leader prime minister narendra modi consider ownaddresse rally tukkuguda near ahead telangana assembly polls rahul gandhi say congress not fight bharat rashtra samithi br bjp aimimthere case kcr k chandrashekar rao case aimim opposition attack modi ji never attack people regard cm aimim leader therefore case rahul gandhi say</t>
-  </si>
-  <si>
-    <t>strain aiadmk bjp seem reach flashpoint monday senior leader dravidian party say alliance latter decision tieup would decide election lash tamil nadu bjp chief k annamalai criticism dravidian stalwart cn annadurai senior aiadmk leader jayakumar say party worker would not tolerate insult direct late chief minister far say annamalai make critical remark aiadmk leader include late j jayalalithaa party seek bjp leader restrain annamalai not desire alliance aiadmk although bjp worker want tolerate criticism leader carry bjp not set foot vote bank know know former minister tell reporter lash bjp state unit president not tolerate anymore criticism leader far alliance concern not bjp not aiadmk matter decide election stand said ask personal opinion jayakumar say ever speak capacity talk party decide</t>
-  </si>
-  <si>
-    <t>supreme court monday ask speaker maharashtra assembly set timeline hearing disqualification petition mla include chief minister eknath shinde within week chief justice india dy chandrachud give stern direction speaker rahul narwekar say top court ask decide matter four month disqualification petition file faction shiv sena eknath shinde faction uddhav thackeray camp bench observe total petition file side seek disqualification mlasthe shiv sena break two eknath shinde along several mla stage coup june maha vikas aghadi government lead uddhav thackeray thackeray resign maharashtra cm shinde take spot bjps devendra fadnavis deputy supreme court saidon monday supreme court bench comprise cji dy chandrachud justice jb pardiwala justice manoj misra hear plea file shiv sena ubt mla sunil prabhu seek expedite speaker decision disqualification plea side court say speaker ask may decide matter disqualification plea within reasonable period since not much apart issue notice mla july expect deference dignity direction issue supreme court bench say far say speaker tribunal tenth schedule constitution antidefection law tribunal amenable court jurisdiction sunil prabhus petition allege speaker rahul narwekar deliberately delay adjudication despite verdict supreme court may hand case disqualification speaker may supreme court refuse use special power article request uddhav thackeray camp say extraordinary circumstance instant case warrant exercise jurisdiction court adjudicate disqualification petition</t>
-  </si>
-  <si>
-    <t>propose women reservation bill clear key meeting union cabinet chair prime minister narendra modi source tell india today tv monday propose bill pende nearly year seek reserve onethird seat woman lok sabha state legislative assemblieswomen reservation billthe propose legislation seek per cent reservation woman lok sabha state assembly government yet confirm news give detail propose legislation structure bill last introduce parliament constitution one hundred eighth amendment bill seek reserve onethird seat woman lok sabha state legislative assembly reserve seat woman parliamentarian may allot rotation different constituency state union territorythe system reserve seat woman would cease exist year put place bill statedonethird total number seat reserve schedule caste schedule tribe shall reserve woman group lok sabha state assemblie history women reservation billthe bill first introduce lok sabha st amendment bill september prime minister deve gowdale united front government bill fail get approval house refer joint parliamentary committee submit report lok sabha december however bill lapse dissolution lok sabhain prime minister atal bihari vajpayeeled national democratic alliance nda government reintroduce bill th lok sabha law minister thambidurai introduce rashtriya janata dal rjd mp go well house grab bill tear bit bill fail get support lapse againit reintroduce even though support within congress bjp left party bill fail receive majority votesin prime minister manmohan singhle united progressive alliance upa government table bill rajya sabha pass vote march however bill never take consideration lok sabha lapse dissolution th lok sabhaat time rjd janata dal unite samajwadi party sp vocal opponent demand per cent reservation backward group within per cent quota womencurrent statusthe last concrete development issue rajya sabha pass bill amid ruckus marshal escort mp oppose move however bill lapse could not pass lok sabhaon monday first day parliament special session prime minister narendra modi hold cabinet meeting bill clear accord source several political party demand bill clear include congress bharat rashtra samithi biju janata dal government need twothird support house parliament bill take consideration passingargument billone key argument favour bill affirmative action need better condition woman indian society per stat reveal central government woman make per cent seat lok sabha number fall per cent rajya sabha percentage even low often fall single digit state assembly another key argument women representation need decisionmake process address issue high percentage crime woman low participation woman workforce low nutrition level skewed sex ratioargument billone key argument bill woman not homogeneous community caste group another argument state reserve seat woman would violate constitution guarantee equality make argument state reservation put place woman would not compete meritmany also argue not possible reserve seat rajya sabha due exist system election upper house rajya sabha mp elect single transferable vote mean vote first allocate preferred candidate next preferred candidate onthis system not accommodate principle reserve certain number seat particular group even scs st</t>
-  </si>
-  <si>
-    <t>congress monday welcome report union cabinet clear women reservation bill introduce lok sabha however party maintain would await detail propose billtaking x formerly twitter congress leader jairam ramesh say longstanding demand congress party implement women reservation welcome report decision union cabinet await detail billthe congress leader far say could well discuss allparty meeting parliament special session consensus could build instead operate veil secrecyhe also share detailed post make sunday underline congress support moveemphasising ongoing speculation regard clearance bill bharat rashtra samithi br leader k kavitha say every tv channel say women reservation approve however not officially announce cabinet yetthere could slip lip cup say brs leader add worry government work towards bring consensusthe bill guarantee per cent reservation woman lok sabha state assembly across political line several leader demand introduction key billhowever official announcement regard bill await government skip customary press briefing post cabinet meeting</t>
-  </si>
-  <si>
-    <t>leader opposition lok sabha adhir ranjan chowdhury monday give speech low house special session parliament say apprehension people mind country run oneparty dictatorship adhir ranjan chowdhury address house follow prime minister narendra modis opening remark first day fiveday special sitting notably sonia gandhi seat next actively assist guide deliver speech especially face frequent objection raise member ruling dispensationcarry carry carry true bolne let speak good end chowdhurys speech verbal interjection make sonia gandhi leader opposition speech lok saha minute long speech adhir ranjan chowdhury touch upon various issue include lack inclusivity parliament equal opportunity mp plurality even list achievement previous upa government throughout chowdhurys speech sonia gandhi actively see thump bench ask object speech stay quiet time even prompt senior congress leader say next prompt sonia gandhi speak information technology adhir ranjan chowdhury say information technology revolution bring tenure former prime minister rajiv gandhi also instrumental bring panchayati raj act establish democracy grassrootsspeaking inclusivity adhir ranjan chowdhury end speech quote popular dialogue yesteryears bollywood hit jindagi lambi nahi badi honi chahiye life big instead long</t>
-  </si>
-  <si>
-    <t>student allegedly die suicide rajasthans kota police say monday second case past two week th year coach hub rajasthanas per initial inquiry police say girl minor consume poison reason action yet knownaccorde police student resident uttar pradeshs mau areaadditional superintendent police bhagwat singh hinger say girl consume poison body send postmortemfurther investigation underwaytwo day ago yearold student prepare national eligibility cum entrance test neet die suicide hang rajasthan kotaaround two lakh student flock kota annually hope qualify competitive exam like joint entrance exam jee national eligibilitycumentrance test neeta per information total student die suicide kota eight month yearwith input jay kishan</t>
-  </si>
-  <si>
-    <t>hoysala temple karnataka locate belur halebidu somananthpura region make way unesco world heritage list announcement make unescos official handle x formerly twitter monday temple call sacred ensemble hoysala unescos tentative list since april finalise indias nomination consideration world heritage site january temple build th th century stand symbol creativity skill artist architect hoysala era hoysala empire rule large portion modern day state karnataka th th century capital empire initially locate belur later move halebiduthe hoysala temple basic traditional darvidian morphology show strong influence bhumija mode widely use central india nagara tradition northern western india karnata dravida mode favour kalyani chalukyas architect draw inspiration different type temple architecture result birth completely new hoysala temple formthe official website unesco say shrine temple characterise hyperreal sculpture stone carving cover entire architectural surface circumambulatory platform largescale sculptural gallery multitiered frieze sculpture sala legendprime minister narendra modi react news temple recognise world heritage site say timeless beauty intricate detail hoysala temple testament indias rich cultural heritage exceptional craftsmanship ancestor sunday announce west bengal santiniketan inscribe unesco world heritage list santiniketan landmark site know place rabindranath tagore build visvabharati century ago</t>
-  </si>
-  <si>
-    <t>dravida munnetra kazhagam dmk treasurer mp tr baalu issue cautionary note tamil nadu minister udhayanidhi stalin advise take careful step political career baalus remark come wake controversy stir udhayanidhi early compare sanatana dharma disease like dengue malaria call eradication address event mupperum vizha monday baalu say entire country scared dmk youth wing head wonder nextadvertisementudhayanidhi scared father emphasise udhayanidhi scared father dmk treasurer say speak anything think manage later caution remember duty make sure object hold hand not fall break emphasise udhayanidhi scared father dmk treasurer say speak anything think manage later caution remember duty make sure object hold hand not fall break baalu also point leader opposition india bloc initially react twist report udhayanidhis comment calm show accurate medium report far caution udhayanidhi mindful statement twist jealousydmks tr baalus statement come day party worker organise event celebrate birth anniversary revere figure kalaignar karunanidhi perarignar anna periyarudhayanidhi stalin remarksearlier month udhayanidhi son tamil nadu chief minister mk stalin liken sanatana dharma malaria dengue call eradication dmk minister argue sanatana dharma base caste system discriminationrather oppose sanatana eradicate name sanatana sanskrit social justice equality minister say udhayanidhi even post picture mosquito coil social medium add flame fireeven lead huge political controversy national level udhayanidhi say stand word clarify comment falsely portray call genocide</t>
-  </si>
-  <si>
-    <t>bharatiya janata party bjp slam congress poster portray former party chief sonia gandhi goddess put telangana poster show sonia gandhi dress goddess sport jeweled crown poster also depict map telangana emerge right palm term congress worker move shameful bjp spokesperson shehzad poonawala say grand old party always see parivar big country people poster put congress working committee cwc meeting hold hyderabad conclude sunday meeting hold discuss matter relate upcoming assembly poll state meeting attend senior congress leader include sonia gandhi rahul gandhi priyanka gandhi party chief mallikarjun kharge bjps reactiontake microblogge website x poonawala accuse congress make habit insult bharat say first congress leader like aradhna mishra say bharat mata ki jai party discipline past bd kalla say say sonia mata ki jai not bmkj congress equate sonia gandhi bharat mata like equate indira india utterly shamefulmeanwhile follow cwc meeting sonia gandhi address rally telanganas tukkuguda say dream see partys government telangana work section society along colleague opportunity part birth great state telangana duty elevate state new height say rallywith input apoorva jayachandran</t>
-  </si>
-  <si>
-    <t>teaser release razakar movie periodic drama depict event nizam hyderabad accession indian union ignite storm controversy social medium political landscape teaser claim base true story portray allege atrocity hindu commit razakar pursuit promote islam establish turkistanraising strong objection movie even teaser release telangana minister kt rama rao ktr say intellectually bankrupt joker bjp good instigate communal violence polarisation minister also say would take matter censor board telangana police intellectually bankrupt joker bjp good instigate communal violence polarisation political propaganda telangana take matter censor board also telangana police ensure law order situation telangana not affect ktr write x formerly know twitter ktrs response come reply social medium user urge minister prevent release describe fake propaganda movie maintain peace harmony hyderabad telangana teaser razakar movie back bjp leader gudur narayana reddy unveil sunday evening launch event suspend bjp leader goshamahal mla raja singh praise film draw comparison kashmir file kerala storyan excellent film title razakar soon release focus tragic event hyderabad massacre indias struggle independence specifically target hindus urge people help promote awareness movie nationwide contribute success raja singh tweet hindi even former telangana bjp chief karimnagar mp bandi sanjay kumar share teaser movie x literally get goosebump watch trailer movie razakar current generation know struggle hyderabad liberation let engage history even pseudointellectual try erase wrotewatch razakar teaser razakar meansthe term razakar refer volunteer part private militia lead qasim razvi president majliseittehadul muslimeen found razakar employ strongarm tactic maintain hyderabad independence tumultuous period follow indias independence reportedly enjoy support nizam government influential landlord seek suppress peasant uprising</t>
-  </si>
-  <si>
-    <t>kia india launch new sonet country first half would first major update sub metre compact suv get since initial introduction september kia sonet rival like maruti suzuki brezza tata nexon hyundai venue mahindra xuvwhile sonet volume driver kia along selto wholesale take hit past two monthsfor reference sonet record wholesale unit unit july august respectively much vehicle average monthly volume unit fy unit entire fiscalin face stiff competition compact suvs update kia sonet must enter market soonwe launch new sonet source tell india today add vehicle could possibly enter market first halfthe sonet one featureloade model compact suv segment boasting several segmentfirst segmentb feature offer multiple powertrain optionsdiligently price rs lakh rs exshowroom present sonet doubt one valueformoney model compact suv segmentin avatar expect sonet get even bell whistle price witness movement towards north well</t>
-  </si>
-  <si>
-    <t>rajya sabha chairman jagdeep dhankhar monday pull congress leader jairam ramesh intervention behalf leader opposition mallikarjun kharge not good habit victim habit not super lop not need assistance say dhankhar scold ramesh discussion parliamentary journey year start samvidhan sabha achievement experience memory learningsdhankhar remark come jairam ramesh congress leader ask let kharge speak commentate speech allow speak constantly interrupt say rameshchairman dhankhar go attack congress say party absent opportunity participate problem issue debated discuss deliberate walk house say tell ramesh not super lop chairman raise question congress disrupt parliament proceeding kharge say party follow step late bjp leader arun jaitley sushma swaraj opposition job parliament discuss whenever issue ignore create obstacle interest public system therefore parliamentary obstruction not call undemocratic kharge say quote remark make jaitely upper house proceeding january chairman respond remark say think carefully tell long continue disturb house base past precedent long continue justify disturbancethis kharge remark chairman allow speak participation could take place people not dhankhar say response ramesh urge chair expunge statement dhankar say not stakeholder politic certainly stakeholder upper house house elder conduct manner earn respect othershe also ask mallikarjun kharge put member discipline another opposition member urge chair not cast aspersion partiesin argument support disruption house proceeding kharge say congress attack follow footstep late bjp leader sushma swaraj say not allow parliament function also form democracy wordswith pti input</t>
-  </si>
-  <si>
-    <t>member parliament receive copy constitution india book relate parliament commemorative coin stamp opening day new parliament building tuesday giftbag contain present mp new parliament complex inaugurate prime minister narendra modi may day special parliament session take place new buildinga look gift mp commemorative coin gift bag contain copy constitution indiawhile rajya sabha meet pm upper house chamber new parliament build lok sabha meet pm low house chamber newly construct complexon monday mps hold discussion house parliamentary journey year start samvidhan sabha achievement experience memory learning</t>
-  </si>
-  <si>
-    <t>thiruvananthapuram mayor arya rajendran gain national attention young mayor country spark debate photograph work office onemonthold baby go viral social mediathe image mayor arya rajendran review file carry infant garner mixed reaction public commend trailblaze example woman effortlessly manage professional personal responsibility emphasise potential achieve perfect worklife balance many see action testament idea motherhood need not hinder woman career ambitionsbeside plaudit photo also draw criticism online trolling critic question authenticity image deem mere photo opportunity comment highlight privilege woman highranke position enjoy contrast challenge face daily wage laborer lack privilegesthe photograph spark important discussion regard need childcare facility include creche center within workplace simultaneously previous government directive discourage children presence government office resurface topic debatearya rajendran secure position young mayor country assume office age married cpim mla sachin dev young mla current kerala assembly couple welcome baby girl august far stoke discussion among netizen challenge opportunity face woman public office juggle motherhood</t>
-  </si>
-  <si>
-    <t>molnupiravir antiviral drug use treat covid subject extensive research debate due unique mechanism action drug work induce mutation sarscov virus lead viruss destruction however approach raise concern potential creation new treatmentresistant strain virusa team researcher include harvard professor mathematics biology martin nowak investigate concern study publish plos biology suggest molnupiravir marginally evolutionarily safe mean use correctly drug reduce viruss ability create surviving mutant team use math answer question whether molnupiravir could lead harmful mutation virus cause covidthe researcher develop mathematical rule describe increase decrease viral load infection compare total amount original mutant virus produce patient infection finding suggest patient receive molnupiravir produce mutant time patient not receive drug process know lethal mutagenesis occur virus reach error threshold point mutation make survival impossible researcher propose drug cause lethal mutagenesis pursue far evolutionary safety carefully evaluate drug work induce mutation sarscov virus photo gettymolnupiravir belong class drug call nucleoside analog also include drug use treat hiv researcher suggest drug even well ability cause lethal mutagenesis might evolutionarily safe molnupiravir however study also indicate molnupiravir may effective patient difficulty clear virus healthy patient clear virus quickly total number mutant remain low regardless whether receive drug</t>
+    <t>Asian Games 2023, hockey: India men's team wins Gold, secures Paris Olympics quota after hammering Japan</t>
+  </si>
+  <si>
+    <t>Canada evacuates many diplomats from India amid 'deadline' from New Delhi: Report</t>
+  </si>
+  <si>
+    <t>No high court can deny access to virtual hearings, says CJI DY Chandrachud</t>
+  </si>
+  <si>
+    <t>For Sikkim lake that burst, early warning system was in the works: Report</t>
+  </si>
+  <si>
+    <t>To BJP’s Rahul Gandhi as ‘Ravan’ poster, Congress’s ‘Adani puppet’ barb</t>
+  </si>
+  <si>
+    <t>Explosion-like sound near atomic commission office in Pakistan: Reports</t>
+  </si>
+  <si>
+    <t>Supreme Court won’t stop Bihar from publishing caste survey data, issues notice</t>
+  </si>
+  <si>
+    <t>NewsClick FIR: Foreign funds illegally infused into India, siphoned off by...</t>
+  </si>
+  <si>
+    <t>Drunk man urinates on elderly couple onboard train in Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>8 Sikhs in Canada arrested over firearms-related offences</t>
+  </si>
+  <si>
+    <t>How Ambedkar and Gandhi's contrasting views paved way for caste reservation</t>
+  </si>
+  <si>
+    <t>Indian-origin couple, 2 children found dead in New Jersey home</t>
+  </si>
+  <si>
+    <t>Nobel Peace Prize awarded to Iranian human rights activist Narges Mohammadi</t>
+  </si>
+  <si>
+    <t>How Bihar caste survey could be Nitish Kumar’s last roll of the dice</t>
+  </si>
+  <si>
+    <t>Sikkim flash floods: Explained in graphics how catastrophe unfolded</t>
+  </si>
+  <si>
+    <t>Viral video: Student's slipper attack stuns in Physics Wallah live class</t>
+  </si>
+  <si>
+    <t>'Will pump 39 more bullets,' 2 Agra students brag after shooting at teacher</t>
+  </si>
+  <si>
+    <t>Disney in talks with Adani, Sun TV to sell India assets: Report</t>
+  </si>
+  <si>
+    <t>‘Thank You For Coming’ Review: Bhumi’s film excels at foreplay but misses G-spot</t>
+  </si>
+  <si>
+    <t>Sikkim flash flood: Disaster relief team fails to land, death toll rises to 30 | 10 points</t>
+  </si>
+  <si>
+    <t>india asian champion men hockey win bronze tokyo olympics india make sure trajectory go upwards sensational show asian game hangzhou harmanpreet singh man hammer champion japan men hockey final friday october win gold medal importantly india also book place next year paris olympic avoid long route game gold medal winner men women hockey asian game assure olympic berth indian side make sure get job dominant show something new coach craig fulton proud india vs japan mens hockey final highlightsit also indias th gold medal asian game men hockey india india finish bronze jakarta asian game year ago india become joint secondmost successful men team hockey asian game tie south koreas tally gold medal pakistan successful men team asian game gold medal discipline show vs japanindia head final japan defend champion lot confidence beat group stage india survive stiff test korea semifinal confidence evident composure displayjapan focus park bus not allow india take early lead successful tactic remain end first quarter surjeet tap one goal th minute referee not give advantage foul inside give india penalty corner not able convert japan continue defensively discipline second quarter well however manpreet singh make sure india take lead via field goal head halftime lead manpreet reverse strike fly goal give india muchneede cushion test japanese expect japan push make thing happen rd quarter become vulnerable india penalty corner trot rd quarter manpreet singh thunder strike come rd attempt give india lead amit rohida soon strike penalty corner give india lead look like japan dust end rd quarter india take lead start fourth quarter goal abhishek however japan reward persistent midfielder seren tanaka pull one back holder however harmanpreet skipper double tally another sensational penalty corner goal make india end final quarter dominant show hangzhouindia force reckon asian game showcase impressive performance lead final match team leadership captain harmanpreet singh demonstrate exceptional form throughout tournament maintain perfect record pool stage emerge victorious semifinalsin semifinal india face republic korea match fan edge seat despite pressure indian team remain steadfast secure victory opponent win testament team consistency determination quality evident throughout journey tournamentindias performance pool stage nothing short spectacular start campaign resounding victory uzbekistan follow win singapore prowess continue shine defeat japan far solidify position top pool victory not win display team skill strategy strengththe team success attribute stellar performance player particularly top scorer forward mandeep singh goal indias top scorer asian game closely follow harmanpreet singh make strike contribution instrumental lead team finalsanother notable performance come harmanpreet singh mandeep singh match bangladesh player score hattrick lead india victory secure position pool topper performance clear demonstration skill significant role play teamas india prepare battle japan gold medal team carry hope expectation nation journey far asian game mark determination skill teamwork regardless outcome final match indian men hockey team already make mark showcase strength indian hockey international platform</t>
+  </si>
+  <si>
+    <t>canadian government reportedly evacuate majority diplomat india india reportedly ask country reduce reit diplomatic staffaccorde report canadas ctv news diplomat station outside new delhi relocate either kuala lumpur singapore amid diplomatic dispute surround killing khalistani terrorist hardeep singh nijjarearlier week india ask canada withdraw approximately diplomat october londonbased newspaper financial time report state indian government also threaten strip diplomatic immunity canadian diplomat remain country deadlineon thursday ministry external affairs spokesperson arindam bagchi state india ask canada reduce diplomatic staff bring paritygiven much high diplomatic presence india continue interference internal affair seek parity respective diplomatic presence bagchi saidthe exact number diplomat relocate india remain unclear early report peg number diplomat would leave source ctv news speak say ask specific one parity majority canadian diplomat work india outside delhi evacuate either kuala lumpur singapore report private broadcaster canada say however neither indian official canadian counterpart officially respond development fardiplomatic relation india canada deteriorate recently trudeau september allege potential involvement indian agent killing khalistani terrorist hardeep singh nijjar nijjar canadian citizen shoot dead two mask gunman june british columbiahowever dismiss allegation india respond strongly call charge absurd motivate titfortat response canadas expulsion indian official new delhi also expel senior canadian diplomat</t>
+  </si>
+  <si>
+    <t>supreme court bench lead chief justice india dy chandrachud friday direct high court ensure not deny access video conference facility hearing hybrid facility member barthe direction issue bench hear plea claim punjab haryana high court completely stop use video conferencing hearing last hearing supreme court issue notice high court tribunal issuethe court also say high court ensure internet facility include wifi make available free charge advocate litigant appear far link available video conferencing must make available list concerned court requirement make separate application virtual hearing say court top court also express concern high court away virtual hearing say central government sanction rs crore ensure video conferencing facility make availablethe supreme court bench direct union ministry ensure internet connectivity provide court north east region virtual hearing take place cji say long option judge decide techfriendly not add technology important law booksif want judge techfriendly want judge country must know technology every judge need train even supreme court judge train training centre add chief justice pull certain high court not adopt technological change allahabad high court complete offender say cji also reprimand bombay high court stop virtual hearing observe parent high court say travel city like mumbai difficult</t>
+  </si>
+  <si>
+    <t>sikkim glacial lake flood follow cloudburst wednesday set get early warning system per report reuters early warning system could give people time evacuatea cloudburst lhonak lake north sikkim trigger flash flood teesta river basin claim life dozen still miss accord report scientist government authority work develop early warning system mitigate glacial flood risk lhonak lake himalayasthe initial phase warning system include camera monitor lhonak lake water level weather instrument instal last month report official involve project quite absurd really geoscientist simon allen university zurich quote say reuter involve early warning system project fact happen two week team completely bad luckhe say plan underway incorporate tripwire sensor could trigger alert system facilitate immediate evacuation alert lake integrity compromise however due logistical constraint government opt twostep implementation approachthe system would give authority resident valuable minute warning window allow evacuate time additionally time frame would allow early activation hydropower station floodgateshowever monitoring device instal suppose send datum authority lose power unknown reason last month per report reuter wednesday morning glacial lake outburst flood glof lead rapid rise water level lake cause severe damage mangan gangtok pakyong namchi district calamity affect thousand people search rescue operation still underway himalayan state</t>
+  </si>
+  <si>
+    <t>fullblown poster war erupt congress bjp party go overdrive election five assembly state week bjp tweet show congresss rahul gandhi newage ravan draw strong criticism party return fire poster show prime minister narendra modi caption adaniit start congress take dig pm modi x wednesday share poster say big liar another design film poster caption pm narendra modi jumla boy poster share congress x poster share congress xthe bjp hit back day version film poster target rahul gandhi show congress leader newage ravan refer hindu mythological character bharat khatre mein hai congress party production direct george soros poster readsthe caption read evil anti dharma anti ram aim destroy bharat bjps x handle post poster rahul gandhi credit bjpxcalle poster obnoxious downright dangerous congress thursday say ravan poster clearly intend incite provoke violence rahul gandhiwhat real intent atrocious graphic portray rahul gandhi ravan bjps official handle clearly intend incite provoke violence congress mp former president party whose father grandmother assassinate force want divide india congresss jairam ramesh say post xit one thing pm give evidence daily pathological liar suffer narcissistic personality disorder get party produce something obnoxious not completely unacceptable downright dangerous ramesh saidwe not intimidate assertedreacte poster priyanka gandhi vadra say post hindi x respected narendramodi ji shri jpnadda ji level want take politic debate agree violent provocative tweet post official twitter handle partynot much time pass take vow uprightness forget oath take promise make askedthe congress also respond kind tweet yet another poster show pm modi read adani repeat allegation billionaire pull string government congress post another poster pm modi x credit incindiaxearli party launch cartoon strip leader oppose party social medium</t>
+  </si>
+  <si>
+    <t>explosionlike sound report pakistans dera ghazi khan friday government atomic energy department locate india today could not independently verify report impact explosion report feel around kilometre away site come day two suicide blast take place balochistan khyber pakhtunkhwa within span hour least people kill twin blast balochistan explosion take place near mosque bomber detonate explosive near police vehicle people gather procession mark birthday prophet mohammad khyber pakhtunkhwa explosion take place mosque</t>
+  </si>
+  <si>
+    <t>supreme court friday say not stop bihar government publish detail caste census say not interfere state policymake decisiona bench justice sanjiv khanna svn bhatti issue formal notice batch plea challenge august order patna high court give goahead caste survey bihar list matter january bench seek response bihar government matter within four weeksaccorde lawyer petitioner caste census datum not collect per supreme court order legitimate aim collect detail surveythe supreme court reject objection petitioner bihar government preempt stay order publish datum demand order stop publication datawe not pause anything moment not stop state government government take policy decision would wrongwe go examine issue regard power state government conduct exercise bench saidsenior advocate aprajita singh appear petitioner say breach privacy matter high court order wrong response bench say since name identity individual not publish therefore argument breach privacy may not correct important issue consideration court breakdown datum availability public bench say october nitish kumar government bihar release finding caste census month ahead lok sabha poll datum reveal backward class obc extremely backward class ebc constitute whopping per cent states total populationwith input pti</t>
+  </si>
+  <si>
+    <t>accuse newsclick online portal investigate alleged chinalinke entity push chinese propaganda involve continuous unlawful activity undermine indias sovereignty territorial integrity accord fir lodge delhi policethe fir say one people dispatch portal maintain newsclick use allegedly intentionally peddle false narrative jammu kashmir arunachal pradesh pay news crore rupee illegally route foreign fund part conspiracybig chinese telecom company xiaomi vivo incorporate thousand company india violation foreign exchange management act fema illegally infuse foreign fund india fir saidnewsclick founder editorinchief prabir purkayastha activist neville roy singham writer geeta hariharan conspire create legal community network india put spirited defence legal case chinese telecom company return benefit fir say name one gautam bhatia key personpurkayastha human resource department head amit chakravarty tuesday arrest case lodge antiterror law uapa connection allege funding newsclick china peddle fake narrative central governmentaccording fir indian entity foreign establishment conspire support fund farmer protest objective cause loss amount several hundred crore indian economythe accuse propagate false narrative discredit effort central government covid management conspire sabotage general election fir saidthe accuse employ web illegal transaction illegal circuitous route use several company illegally infuse foreign fund perpetrate aforementione act conspiracy allegedforeign fund amount crore rupee receive newsclick illegal mean since april fund fraudulently infuse neville roy singham fir describe active member communist party chinagautam navlakha shareholder newsclick allegedly involve antiindia activity actively support ban naxal organisation nexus spy agent pakistans interservice intelligence isiit allege newsclick employee owner share email people china intent show jammu kashmir arunachal pradesh dispute territoriesthese illegally route foreign fund siphon prabir purkayastha associate namely joseph raj anoop chakraborty brother amit chakraborty bappaditya sinha promoter virtunet systems pvt ltd fir saidit also learn fund distribute gautam navlakha associate teesta seetalwaad namely javed anand tamara jibran urmilesh aratrika halder paranjoy guha thakurta trina shankar abhisar sharma far allege</t>
+  </si>
+  <si>
+    <t>man urinate elderly couple travel uttar pradesh sampark kranti train incident occur couple altercation man consume alcohol journeythe retire scientist couple hail madhya pradesh travel ac coach train accord allegation another passenger travel compartment drink alcohol journey lead confrontation man identify ritesh couple heat argument ritesh allegedly urinate couple berththe incident cause commotion among passenger couple immediately report matter railway staffupon receive complaint railway protection force rpf arrive jhansi station promptly remove man train initiate investigation matter base statement provide train ticket examiner tte case register accusedinput amit shrivastava</t>
+  </si>
+  <si>
+    <t>canadian police apprehend around eight sikh youth age year relation possession load prohibit restrict firearm brampton city ontario provinceaccorde peel regional police night october receive report shot fire area donald stewart road brisdale drive bramptonwith assistance tactical unit eight individual extract residence arrest press release peel regional police say wednesdaythe police confirm one suffer injuriesthe incident come amidst heighten tension india canada killing khalistani extremist hardeep singh nijjar june british columbiaa day incident officer criminal investigation bureau execute criminal code search warrant mm beretta firearm seizedthose charge possession load prohibit restrict firearm include jagdeep singh ekamjot randhawa manjinder singh harpreet singh ripanjot singh japandeep singh lovepreet singh bramptonmeanwhile yearold rajanpreet singh charge careless storage firearm weapon prohibit device ammunition addition possession load prohibit restrict firearmall hold bail hearing attend ontario court justice bramptontension flare two nation canadian prime minister justin trudeaus allegation potential involvement indian agent killing nijjarindia strongly reject charge absurd motivated india also voice concern safety indian diplomat indias diplomatic premise canada</t>
+  </si>
+  <si>
+    <t>caste survey release bihar government ignite fresh debate castepolitic dynamic india caste system subject intense political debate reform effort british era mandal versus kamandal politic caste central sociopolitical narrative mainland indiatwo prominent figure significantly contribute discourse mahatma gandhi father nation bhimrao ramji ambedkar father constitution two stalwart indian politic revere equally public contrast view caste system subsequent debate shape course indian society politicswhile gandhi denounce untouchability not condemn varna system social hierarchy base occupation life believe reform caste system abolition untouchability give equal status occupation hand br ambedkar dalit argue caste system disorganise demoralised hindu society reduce collection caste ambedkar denounce vedas scripture believe caste system untouchability manifestation hindu religious scripture first articulate caste inequality indian society work annihilation caste believe anything build caste would inevitably create inequalitytheir clash view full display poona pact sign gandhis unrelenting fast force ambedkar bend let go desire separate electoral process depressed class dalit particular yet despite difference develop understanding work betterment marginalisedgandhis opposition separate electorate dalitsthe tumultuous time indias history struggle independence british colonial rule peak indian national congress lead mahatma gandhi predominant political force however alongside fight independence another critical issue need address demand political representation safeguard dalitsbr ambedkar brilliant jurist social reformer emerge prominent voice dalit believe separate electoral process dalit essential ensure political representation protect interest legislative body gandhi hand totally oppose idea separate electoral process fear would perpetuate division among indiansin british government initiate round table conference address issue representation different religious social group india prolong negotiation second round table conference british government august formalise separate electoral process muslims sikh dalitsunder propose process member particular community would eligible vote elect representative legislative assembliesthe idea separate electorate dalit support ambedkar vehemently oppose gandhi mahatma believe create separate electorate depressed class would far fragment indian society along religious caste line also believe british try inject poison calculate destroy hinduismin letter british prime minister ramsay mcdonald september gandhi write not even overrepresentation depressed class statutory separation even limited form hindu fold long choose belong realize decision stand constitution come arrest marvellous growth work hindu reformer dedicate uplift suppress brother every walk lifeto pressurise british congress abandon idea separate electorate gandhi lodge yerwada central jail pune sedition charge start fast unto death september gandhis fast unto deathambedkar miff gandhis fast unwilling sacrifice rightful demand gandhis sake especially alternative proposal present round tablehowever pressure soon begin mount ambedkar newspaper run daily bulletin gandhis deteriorate health congressman flock ambedkar agree gandhis demandsa committee represent upper caste include sir tejbahadur sapru barrister mr jayakar pandit madan mohan malviya mathuradas wasanji form negotiation ambedkar gandhis behalf meeting chunnilal put forward follow view behalf mahatma gandhi committee member per chunnilal mahatma gandhi not oppose awarding separate electorate dalit also not fully agreeable reserve seat response ambedkar stand defiant say today negotiation difficult situation strange position unfortunately peaceful negotiation appear act villain protection demand people willing suffer extent order get fulfil demand peoplehe far say tell shall not deter pious duty betray legitimate interest people even hang near lamppost street gandhis son appeal ambedkar relentsthe pressure ambedkar immense major newspaper back gandhi ambedkar receive several death threat situation reach critical point devadas gandhi mahatma gandhis son burst negotiation say father sink devadas gandhi plead ambedkar tear eye eventually ambedkar relent friend tamil leader mc rajah point dalit would face insurmountable prejudice see not come compromise gandhis lifea per volume dr babasaheb ambedkar writing speeche dalit leader admit baffle situation himi make choice two different alternative duty owe part common humanity save gandhi sure death problem save untouchable political right prime minister give respond call humanity save life mr gandhi agree alter communal award manner satisfactory mr gandhi ambedkar say poona pact finally sign pm september people madan mohan malaviya sign behalf hindu gandhi ambedkar behalf depressed class instead separate electorate pact introduce concept reserve seat dalit provincial central legislative body reserve seat fill joint electorate system community would vote togetherthe poona pact also stipulate constituency reserve dalit dalit candidate could contest however general constituency dalit voter could choose vote candidate choice communityambedkar perspective gandhi poona pactafter sign poona pact ambedkar mixed feeling gandhi recognise pact provide political representation dalit albeit not extent initially demand separate electorate ambedkar acknowledge gandhis fast create immense pressure force issue resolutionhowever ambedkar also criticise gandhi uncompromise stance separate electorate believe would effective way secure political right dalit feel poona pact not go far enough address social economic injustice face dalit compromise drive political expediencyhowever poona pact mark crucial turning point indian politic reject separate electorate introduce concept reserve seat ensure political representation marginalize community particularly dalit agreement lay foundation development indias reservation system since expand include various community promote social justice equalitythe principle poona pact later enshrine government india act indian constitution adopt article constitution call promotion educational economic interest schedule caste schedule tribe weak sectionsunderstanding amid differencesshortly signing poona pact ambedkar visit gandhi october urge end civil disobedience join round table conferencethe discourse though turn towards caste ambedkar lay bare struggle dalit face daily basis ambedkar tell gandhi strugglesyou may not know even face not get place live bombay except port trust chawl village stay midst mahar poona stay friend stay national hotel spend r transport fare ambedkar tell gandhigandhi stand ambedkar one ought know fast not end yet still correct agreement minor thing main thing still remain ready give life injustice mention ought end gandhi tell ambedkardespite contrast view caste system gandhi ambedkar value leader unite commitment social justice equality leave indelible mark indian society electoral process</t>
+  </si>
+  <si>
+    <t>indianorigin couple two child find dead home us state new jersey police investigate matter homicide tej pratap singh sonal parihar find dead alongside yearold son yearold plainsboro home sometime pm wednesday plainsboro police department say middlesex county prosecutor yolanda ciccone chief eamon blanchard plainsboro police department announce thursday homicide currently investigation evening october authority receive call request welfare check residence plainsboro upon arrival plainsboro police department discover four deceased victim house say joint statement tragedy remain investigation autopsy perform today say add initial investigation determine threat public anyone information surveillance footage area ask call plainsboro police department joint message mayor peter cantu chief eamon blanchard director public safety say plainsboro community experience heartbreaking loss life sadden tragic event happen community beyond comprehension state mayor peter cantu plainsboro police officer currently work law enforcement colleague conclude investigation please assure isolated occurrence additional concern safety wellbeing community relate incident blanchard say public safety personnel remain vigilant resilient continue ensure safety plainsboro community joint statement say thursday morning family home titus lane still crime scene tape post around lawn footage news new jersey show family remain discover relative call welfare check time police say look tragedy possible murdersuicide outlet say relative tell cbs news shock family death note singh parihar appear happy couple singh particular active community time death singh work lead apix engineer ness digital engineering accord linkedin profile singh parihar career include human resource sector relative say couple child remember note school district parent news new jersey report district inform local law enforcement horrific tragedy involve one plainsboro family wicoff student millstone river school student superintendent david aderhold write refer two area elementary school law enforcement investigation ongoing unable provide additional information time district join community grief sorrow tragic event singh parihar purchase home august usd record show neighbour describe family friendly say could often see walk around quiet street neighbour ask not name say friendly family decade woman say daughter usually meet yearold girl bus stop ride school together every morning hour family find girl not show weird not see morning say neighbour sweet family neighbour say texte parihar later morning never receive reply</t>
+  </si>
+  <si>
+    <t>jail iranian human right activist narge mohammadi award nobel peace prize fight oppression woman country promote human right freedom allaccorde nobel prize committee narge mohammadi struggle come tremendous personal cost arrest time convict five time sentence total year prison lashesthe iranian human right activist serve multiple sentence evin prison tehran accord front line defender right organisation accord news agency reutersnarge mohammadi also face charge spread propaganda iranian regimeshe deputy head defender human right centre nongovernmental organisation lead shirin ebadi nobel peace prize laureate reuters reportedshe deputy head defender human right centre nongovernmental organisation lead shirin ebadi nobel peace prize laureate reuters reportednarge mohammadis activism date back physics student begin advocate equality women right consistently oppose systematic discrimination oppression nobel committee saidshe support struggle right live full dignified life often meet persecution imprisonment torture even death iranher advocacy extend freedom expression right independence challenge rule suppress women right freedom committee statedfrom within evin prison tehran narge mohammadi support last year protester wake kurdish woman mahsa aminis death last year organise solidarity actionseven strict prison condition manage communicate outside world new york times publish article anniversary mahsa aminis death lock strong become headline article new york times</t>
+  </si>
+  <si>
+    <t>imagine politician chief minister mla assembly seat constant threat unseat mla drift away walk tightrope coalition politic politician bihar chief minister nitish kumarnitish kumar however play game well much everevolve scene bihar politic constant since whatever strength party chief minister last year add complexity nitish kurmi caste account per cent bihar population state caste factor mostly trump everything else politic nitish not survive helm year late caste survey get politicsnitish kumar product jp movement master strategist caste survey see last stand masterstroke save coalition government rashtriya janata dal rjd seat jdyous caste survey nitish not firm hold party contain rjd also reassert role national politic say political observer caste census way contain rjd apart jdyou nitishs grand alliance government consist rjd congress bunch left party nitish join hand states opposition bloc fight assembly election alliance bjp rjd fact singlelarg party bihar assemblyrjd chief lalu prasad another product jp movement nitish kumar bte noire defeat lalu prasad nitish first join hand bjpthat fastgrowe tejashwi yadav always keep nitish edge always fear rug might pull foot not difficult rjd split jdyou go twothird defection rule say expert even speaker bihar assembly rjd buzz aide jdyou president lalan singh cosye rjd bicker within partybut caste survey nitish flex muscle reassert not leader kurmis form per cent population also extremely backward class ebc bloc caste nurture since become chief minister first ebc go late caste survey form per cent bihar population large category state advertisementthe late caste survey put number ebc highlight separate entity backward class obc ebc low end backward class obc spectrum dominate yadavs kurmis yadavs political constituency lalu prasad tejashwi yadav form per cent bihar population rjd depend yadavmuslim combine nitish try make dent caste surveynitishs attempt woo muslimsby categorise muslim ebcs put number nitish kumar play muslim politic prominently try attract section pasmanda backward muslim voter santosh singh bihar politic expert senior journalist indian express singh tell indiatodayin exact reason nitish cultivate ali anwar ansari leader pasmanda muslims advertisementthis might effectively slice rjds important muslim voter base caste survey nitish expect consolidate position among politically important ebc ebc crucial nitish kumar power nurture vote base welfare scheme since santosh singh call caste survey nitishs masterstroke believe rjd work plan split jdyou stop trackswith assembly election time away rjd would like become stakeholder national politic look nitish kumar congress least till general election say singhwith rjd distance probable rebel bicker within jdyou would fall silent nowwith caste census report nitish quash internal bickering within jdyou upper hand rjd say santosh singhnitish plague desertion february upendra kushwaha leave jdyou form party rashtriya lok janata dal difference nitish kumar alliance rjd august rcp singh consider bihar shadow chief minister close nisitsh kumar quit party advertisementnitish also see ally like jitan ram manjhi hindustan awam morcha ham desert ham leader manjhi one caste ebc though tamil nadu karnataka even centre conduct caste survey none ever come result bihar first state declare result caste survey october could well behind nitish back national politic squeeze corner state politic nitish sideline national stage caste census might give footinthedoor moment national politicsit open secret nitish nurture prime ministerial dream never explicit one first mover opposition unity nitish sideline congress india groupingnitish kumar not make convenor india bloc bid gain national importance national issue masterstroke santosh singh tell indiatodayin singh say make congress sit think position offer nitish india group also put bjp back foot blunt hindutva politic bjp take ebcobc issue seriously say singh number seat huge margin bjp win seat lok sabha election wakeup call nitish kumar feel santosh singh caste census bid attract ebc back nitish reboot ebc politic loss say singhthe bjp highlight pm narendra modi obc icon among issue welfare politic nationalism hindutva secure obc vote congress realise good way dent bjps vote share therefore latch obc representation issue since bihar caste survey resultsso nitish kumar kill not one least three bird internal party issue rjd threat national obsolescence one stone caste survey result nitish also open pandora box dice roll favour time tell</t>
+  </si>
+  <si>
+    <t>devastating flash flood sikkim follow sudden glacial lake burst wednesday claim several life cause widespread damage road bridge home wash away teesta river take furious form part state big hydropower project sikkim urja wash away exacerbate situationrescue operation remain major challenge due mudslide washedout road damage communication systemsadvertisementwhat lead flash floodthe disaster unfold cloudburst lhonak lake northwest sikkim early wednesday amthe disaster unfold cloudburst lhonak lake northwest sikkim early wednesday amthe cloudburst heavy lead sudden rise water level quickly take lake beyond hold capacity area receive least five time usual amount rainthe cloudburst couple melting lhonak glacier result glacier lake outburst flood glof sudden release massive amount water lhonak lake locate sikkim far northwestern region altitude foot form due melting himalayan glacier video south lhonak lake credit google earth warning sound authority water level go however around teesta stage dam know urja project got wash away flash flood subvert plan proper evacuation people near riverurja dam flood photo indiatoday urja dam locate foot sea level chungthang meterlong bridge connect powerhouse wash away entire powerhouse got submerge flood expert assessment reveal water level teesta danger mark dam burstthe downstream teesta dam see massive destruction several house building damage road wash away least bridge collapse area like mangan dikchu singtam rangpo chungthang bardang hit hard area affect photo rahul guptaindia todaysatellite image glacial lake show nearly per cent water gush teesta riverwhy lake breachedthe primary trigger cloudburst centimetre rainfall occurr within square kilometre within houralong scientist also point possibility avalanche bank lake probably burst chunk ice fall water create powerful wake waterhighlighte ice patch float lake surface show satellite image jakob f steiner senior scientist say could chunk either ice unstable slope detach drop lake water create shock wave across water surface would enough topple lake dam say area south lhonak lake bust photo isro warning ignoredadvertisementthe flash flood due glacial lake burst deem dangerous unlike trigger excessive rainfall powerful enormous volume water carry debris large particle downstream cause severe damage speed water discharge due glacier lake burst go kilometre per hournotably lhonak lake one fastestexpanding lake sikkim himalaya region several study point rapidly grow nature lake due melting adjacent north lhonak main lhonak glaciersrecede glacier expansion proglacial lake namely north south lhonak lake jongsang teesta basin longbasaba pida lake koshi basin photo ravindra kumarxa study national remote sense centre indian space research organisation isro identify south lhonak lake morainedammed lake capacity store significant amount water potentially dangerous high outburst probabilityadvertisementsimilar study also warn multiple occasion especially link increase glacier melting avalanche due climate change global warming nature moraine dam unstable water block ice pack loose rocksbetween lhonak glacier recede km another meter happen lake burstnearly per cent water lhonak lake drain flooding satellite image release indian space research organisation isro national remote sense centre show area south lhonak lake drastically reduce hectare october hectare september observe lake burst hectare area drain might create flash flood downstream note isro south lhonak lake burst photo isroadvertisementconsidere significant increase lake area state government instal highdensity pipe drain watera camera monitor lhonak lake level weather instrument instal last month accord scientist quote reuter fully operational warning system could give people time evacuatelhonak lake not isolated lake accord recent research lake pose high hazard himalayan community india neighbouring countriesgraphic source google earthgoogle mapsinteractive rahul gupta india today</t>
+  </si>
+  <si>
+    <t>bizarre incident unfold live class physics wallah app student assault teacher hit slipper incident capture viral video raise concern spark discussion across social medium platformsin video teacher see conduct live class suddenly student approach slipper hand strike teacher teacher instinctively duck avoid blow student continue attack eventually student retrieve slipper leave scenethe motive behind assault remain unclear video circulate social medium since incident occurredtake look clip physics wallah found alakh pandey educator allahabad uttar pradesh together cofounder prateek maheshwari pandey develop physics wallah app specifically design assist student prepare competitive exam national eligibility cum entrance test neet joint entrance exam jeewhile app gain popularity educational content support disturb incident serve reminder challenge face educator digital age</t>
+  </si>
+  <si>
+    <t>two minor student shoot teacher uttar pradeshs agra wednesday dispute teacher brother student flee scene attack record second video threaten put bullet teacherboth student would take coaching class victim identify sumit call outside class fire pistol police say teacher sustain injury left legthe student run away motorcycle shoot teacher stop midway record threat videoin video one two student hear say want put total bullet teacher bullet follow next six month video go viral social medium raise concern matterdeputy commissioner police dcp west sonam kumar say motive behind attack appear dispute student eld brother teacher also attend coaching class accuse victim malupur villagemeanwhile wound teacher admit hospital currently treatmentthe khandauli police take cognizance incident dcp sonam kumar say police mobilize team arrest accuse underage investigation case underwaywith input arvind sharmaagra</t>
+  </si>
+  <si>
+    <t>disney initiate preliminary discussion billionaire gautam adani owner adani group kalanithi maran owner sun tv network well private equity firm regard potential sale streaming television business india report bloomberg newsaccording report disney explore various option include sell indian operation combination asset unithowever worth note discussion early stage guarantee deal reach add report also not provide detail regard potential deal valuestiff competitionthe report surface time disney face grow competition reliance industry specifically stream platform jiocinema lead mukesh ambaniambani aggressively promote streaming service include offer free access indian premier league cricket tournament disney previously hold digital right todisney india stream operation large globally term user last year report loss million revenue million year end march accord last disclose resultsin effort regain footing indian market disney choose provide free cricket content smartphone expectation strategy boost advertising revenue offset impact subscriber attrition</t>
+  </si>
+  <si>
+    <t>margot robbie barbie girl barbie world take everyone storm july borrow note rhea kapoor thank come one barbie except kanika kapoor bhumi pednekar delhi world kanika aka kandu kanika disaster kanika get name raita spread leave people around clean messin world kanika two good friend pallavi dolly tina shibani bedi single mother grandmother always outcast school sometimes bully bear wedlock taunt never get easy kanika grow depend man find happiness not want precede action mother okay getting hitch anyone get stamp marriage approach big regret not orgasm one engagement party however problem kanika not remember behind act entire film hour find person could finally give euphoric experience director karan boolani take inspiration several standup female sexuality weave sex comedy woman star army woman despite honest attempt film seem sluggish not move beyond orgasm kanika everyone around reduce sidekick appear need disappear truly world would easy buy narrative film not promote one celebrate female friendship point find story movie become difficult man try find gspot sure film sincerity present sex comedy woman novel rhea kapoor support alongside anil kapoor ekta kapoor applause worthy not easy support film like society almost negate female desire film might open door notsoawkward conversation sex major highlight thankyouforcome song except fun rendition pari hoon main sushant divgikar aka rani average real find performance shibani bedi stellar single mother story really not give define character arc manage leave impression dolly decent well play part shehnaaz gill star appear maximum scene throughout film serve kusha waste merely scene not use potential full woman character could make film interesting not reduce sidekick another star performance sushant debut musician actor film entire drag sequence feature get big cheer bhumi play gallery sometimes loud sometimes funny know sheer potential actor kanika feel halfbake see well bhumi pednekar performance laugh get film thank anil kapoors fantastic cameo ekta kapoors tv series reference beyond film hardly even funny sanitise point perhaps make toofamilyfriendlythe film oneline sale pitch key find happiness hand figuratively literally perhaps could deal well way well luck next time till thank come hit theatre</t>
+  </si>
+  <si>
+    <t>least people include four army personnel die remain miss follow cloudburst lhonak lake north sikkim district trigger flash flood region early week flash flood lead swelling river teesta sweep away several house town village dozen people include army personnelan national disaster response force ndrf team not able land chungthang one worsthit place north sikkim due inclement weather team carry communication equipment town cut rest stateteam indian army ndrf army work way slushy earth fastflowe water teesta river basin downstream north bengal third day search sweep away still miss official tell ptithe army recover three vehicle debris basin river teesta vehicle wash away flash flood bardang army official launch search operation recover vehicleshere pointer recap unfold far flash flood river teesta trigger cloudburst lhonak lake cause accumulation huge quantity water turn towards chungthang dam destroy power infrastructure move downstream spate flooding town village</t>
+  </si>
+  <si>
+    <t>sports</t>
   </si>
   <si>
     <t>india</t>
   </si>
   <si>
-    <t>sports</t>
-  </si>
-  <si>
     <t>law</t>
   </si>
   <si>
-    <t>elections</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
     <t>science</t>
   </si>
   <si>
-    <t>https://www.indiatoday.in/india/story/womens-reservation-bill-cleared-in-key-cabinet-meet-chaired-by-pm-modi-2437410-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/udhayanidhi-stalin-sanatana-dharma-remark-tamil-nadu-governor-2437418-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/congress-leader-shot-dead-in-punjab-baljinder-singh-balli-khalistani-terrorist-arsh-dalla-2437449-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/sports/cricket/story/kl-rahul-to-lead-india-squad-for-first-two-odis-against-australia-r-ashwin-gets-nod-2437395-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/asaduddin-owaisi-on-joining-india-bloc-rahul-gandhi-congress-aimim-2437434-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/no-alliance-with-bjp-matter-will-be-decided-during-elections-aiadmk-leader-tamil-nadu-2437235-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/law/story/supreme-court-maharashtra-assembly-speaker-set-deadline-shiv-sena-eknath-shinde-mlas-disqualification-2437286-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/womens-reservation-bill-cleared-history-status-arguments-2437423-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/congress-womens-reservation-bill-parliament-special-session-union-cabinet-meeting-2437417-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/parliament-session-adhir-ranjan-chowdhury-speech-sonia-gandhi-carry-on-lok-sabha-2437403-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/student-die-suicide-kota-rajasthan-2437387-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/karnataka-sacred-ensembles-of-hoysala-temples-unesco-world-heritage-list-2437383-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/india-scared-udhayanidhi-dmk-tr-baalu-sanatana-dharma-remark-2437284-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/elections/telangana-assembly-polls-2023/story/congress-sonia-gandhi-devi-poster-crown-telangana-bjp-calls-shameful-2437315-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/razakar-movie-release-ktr-to-move-censor-board-hits-out-at-jokers-of-bjp-2437356-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/auto/cars/story/new-kia-sonet-launch-in-india-in-first-half-of-2024-2437391-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/rajya-sabha-chairman-scolds-congress-jairam-ramesh-super-lop-house-disruptions-2437264-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/constitution-of-india-booklet-coin-for-mps-on-new-parliament-buildings-opening-2437361-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/youngest-mayor-arya-rajendrans-viral-photo-sparks-debate-on-work-life-balance-2437192-2023-09-18</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/science/story/is-this-covid-19-cure-worse-than-the-virus-2437274-2023-09-18</t>
+    <t>world</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>history-of-it</t>
+  </si>
+  <si>
+    <t>trending-news</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/sports/asian-games-2023/story/hockey-men-final-india-beat-japan-win-gold-paris-olympics-quota-2445523-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/canada-evacuates-many-diplomats-from-india-amid-deadline-from-new-delhi-news-agency-pti-quoting-report-2445427-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/law/story/no-high-courts-can-deny-access-to-virtual-hearings-supreme-court-direction-2445487-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/science/story/sikkim-glacial-lake-that-flooded-was-set-to-get-early-warning-system-2445456-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/congress-bjp-poster-war-rahul-gandhi-new-age-ravan-several-heads-jairam-ramesh-slams-party-2445258-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/world/story/explosion-atomic-commission-office-dera-ghazi-khan-pakistan-dead-injured-reports-2445459-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/law/story/bihar-caste-census-supreme-court-notice-to-bihar-government-reply-nitish-kumar-2445391-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/accused-conspired-for-unlawful-activities-terror-acts-undermined-indias-sovereignty-cops-on-newsclick-2445412-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/crime/story/drunk-man-urinates-on-elderly-couple-onboard-train-in-uttar-pradesh-2445522-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/world/story/8-sikhs-in-canada-arrested-over-firearms-related-offences-2445548-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/history-of-it/story/ambedkar-gandhi-caste-system-poona-pact-1932-reservation-2445208-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/world/indians-abroad/story/indian-origin-couple-2-children-found-dead-inside-new-jersey-home-2445518-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/world/story/nobel-peace-prize-awarded-to-iranian-human-rights-activist-narges-mohammadi-2445436-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/nitish-kumar-bihar-caste-survey-rjd-bjp-mandal-politics-pm-modi-tejashwi-yadav-kurmis-ebc-muslims-2445047-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/sikkim-flash-flood-lake-burst-avalanche-cloudburst-teesta-river-reason-earthquake-isro-satellite-images-2445278-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/trending-news/story/viral-video-students-slipper-attack-stuns-in-physics-wallah-live-class-2445265-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/crime/story/agra-teacher-shot-at-by-2-minor-students-threatened-of-39-more-bullets-2445210-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/business/story/disney-in-talks-with-adani-sun-tv-to-sell-indian-streaming-television-assets-2445478-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/movies/reviews/story/thank-you-for-coming-review-bhumis-film-excels-at-foreplay-but-falls-short-of-hitting-the-g-spot-2445274-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/sikkim-flash-floods-update-dead-missing-search-operation-army-jawan-weather-forecast-2445272-2023-10-06</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Judiciary</t>
+  </si>
+  <si>
+    <t>Crime</t>
   </si>
   <si>
     <t>Politics</t>
   </si>
   <si>
-    <t>Crime</t>
-  </si>
-  <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>Judiciary</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>[0.1376548558473587, 0.10272633284330368, 0.759618878364563]</t>
-  </si>
-  <si>
-    <t>[0.04124024137854576, 0.40151315927505493, 0.5572465658187866]</t>
-  </si>
-  <si>
-    <t>[0.10941050201654434, 0.16552220284938812, 0.7250673174858093]</t>
-  </si>
-  <si>
-    <t>[0.0800030380487442, 0.1779855191707611, 0.742011547088623]</t>
-  </si>
-  <si>
-    <t>[0.1033884808421135, 0.3028889000415802, 0.5937225818634033]</t>
-  </si>
-  <si>
-    <t>[0.08591282367706299, 0.12073728442192078, 0.7933499813079834]</t>
-  </si>
-  <si>
-    <t>[0.029346054419875145, 0.5369566679000854, 0.43369734287261963]</t>
-  </si>
-  <si>
-    <t>[0.04898812994360924, 0.3236560821533203, 0.6273558139801025]</t>
-  </si>
-  <si>
-    <t>[0.06662315875291824, 0.29891687631607056, 0.6344599723815918]</t>
-  </si>
-  <si>
-    <t>[0.3630485534667969, 0.035865720361471176, 0.6010857820510864]</t>
-  </si>
-  <si>
-    <t>[0.05835014209151268, 0.21063290536403656, 0.7310169339179993]</t>
-  </si>
-  <si>
-    <t>[0.16013967990875244, 0.08679009974002838, 0.7530702352523804]</t>
-  </si>
-  <si>
-    <t>[0.0675116553902626, 0.17324359714984894, 0.7592447400093079]</t>
-  </si>
-  <si>
-    <t>[0.11920846998691559, 0.19383084774017334, 0.686960756778717]</t>
-  </si>
-  <si>
-    <t>[0.021053435280919075, 0.5400918126106262, 0.43885472416877747]</t>
-  </si>
-  <si>
-    <t>[0.036992397159338, 0.318042129278183, 0.644965410232544]</t>
-  </si>
-  <si>
-    <t>[0.08505072444677353, 0.2025691717863083, 0.7123801112174988]</t>
-  </si>
-  <si>
-    <t>[0.2869396507740021, 0.03797134757041931, 0.6750890016555786]</t>
-  </si>
-  <si>
-    <t>[0.049564771354198456, 0.31198084354400635, 0.6384544372558594]</t>
-  </si>
-  <si>
-    <t>[0.03896079957485199, 0.17112259566783905, 0.7899165153503418]</t>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>[0.02550327219069004, 0.23928289115428925, 0.7352138161659241]</t>
+  </si>
+  <si>
+    <t>[0.03572438284754753, 0.3980996906757355, 0.5661758780479431]</t>
+  </si>
+  <si>
+    <t>[0.0196144487708807, 0.5470166206359863, 0.4333689212799072]</t>
+  </si>
+  <si>
+    <t>[0.03539007529616356, 0.2038266509771347, 0.760783314704895]</t>
+  </si>
+  <si>
+    <t>[0.13641834259033203, 0.10976868867874146, 0.7538129687309265]</t>
+  </si>
+  <si>
+    <t>[0.04836668819189072, 0.31206926703453064, 0.639564037322998]</t>
+  </si>
+  <si>
+    <t>[0.023110968992114067, 0.4152328073978424, 0.5616562962532043]</t>
+  </si>
+  <si>
+    <t>[0.045387908816337585, 0.23251411318778992, 0.7220979928970337]</t>
+  </si>
+  <si>
+    <t>[0.03798646107316017, 0.2767384350299835, 0.6852750778198242]</t>
+  </si>
+  <si>
+    <t>[0.04109850898385048, 0.22538505494594574, 0.7335164546966553]</t>
+  </si>
+  <si>
+    <t>[0.03887229040265083, 0.27860838174819946, 0.6825193762779236]</t>
+  </si>
+  <si>
+    <t>[0.03464850038290024, 0.30220359563827515, 0.6631478667259216]</t>
+  </si>
+  <si>
+    <t>[0.046738676726818085, 0.3960159420967102, 0.5572453737258911]</t>
+  </si>
+  <si>
+    <t>[0.14079459011554718, 0.06946339458227158, 0.7897419333457947]</t>
+  </si>
+  <si>
+    <t>[0.03439716994762421, 0.19914491474628448, 0.7664579153060913]</t>
+  </si>
+  <si>
+    <t>[0.039912741631269455, 0.2192183881998062, 0.740868866443634]</t>
+  </si>
+  <si>
+    <t>[0.05181712657213211, 0.21924905478954315, 0.7289338707923889]</t>
+  </si>
+  <si>
+    <t>[0.030094491317868233, 0.3209322690963745, 0.6489731669425964]</t>
+  </si>
+  <si>
+    <t>[0.046384312212467194, 0.19357477128505707, 0.7600409388542175]</t>
+  </si>
+  <si>
+    <t>[0.031581077724695206, 0.4379933476448059, 0.5304255485534668]</t>
   </si>
 </sst>
 </file>
@@ -718,13 +730,13 @@
         <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -735,16 +747,16 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -755,16 +767,16 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -775,16 +787,16 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -795,16 +807,16 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -815,16 +827,16 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -838,13 +850,13 @@
         <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -855,16 +867,16 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -875,16 +887,16 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -895,16 +907,16 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -915,16 +927,16 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -935,16 +947,16 @@
         <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -955,16 +967,16 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -975,16 +987,16 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -995,16 +1007,16 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1015,16 +1027,16 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1035,16 +1047,16 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1055,16 +1067,16 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1075,16 +1087,16 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1095,16 +1107,16 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/server/Final_Prepped_Data.xlsx
+++ b/server/Final_Prepped_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="118">
   <si>
     <t>Heading</t>
   </si>
@@ -28,301 +28,346 @@
     <t>URL</t>
   </si>
   <si>
+    <t>HindiBody</t>
+  </si>
+  <si>
     <t>Cat</t>
   </si>
   <si>
     <t>Sentiment</t>
   </si>
   <si>
-    <t>Asian Games 2023, hockey: India men's team wins Gold, secures Paris Olympics quota after hammering Japan</t>
-  </si>
-  <si>
-    <t>Canada evacuates many diplomats from India amid 'deadline' from New Delhi: Report</t>
-  </si>
-  <si>
-    <t>No high court can deny access to virtual hearings, says CJI DY Chandrachud</t>
-  </si>
-  <si>
-    <t>For Sikkim lake that burst, early warning system was in the works: Report</t>
-  </si>
-  <si>
-    <t>To BJP’s Rahul Gandhi as ‘Ravan’ poster, Congress’s ‘Adani puppet’ barb</t>
-  </si>
-  <si>
-    <t>Explosion-like sound near atomic commission office in Pakistan: Reports</t>
-  </si>
-  <si>
-    <t>Supreme Court won’t stop Bihar from publishing caste survey data, issues notice</t>
-  </si>
-  <si>
-    <t>NewsClick FIR: Foreign funds illegally infused into India, siphoned off by...</t>
-  </si>
-  <si>
-    <t>Drunk man urinates on elderly couple onboard train in Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>8 Sikhs in Canada arrested over firearms-related offences</t>
-  </si>
-  <si>
-    <t>How Ambedkar and Gandhi's contrasting views paved way for caste reservation</t>
-  </si>
-  <si>
-    <t>Indian-origin couple, 2 children found dead in New Jersey home</t>
-  </si>
-  <si>
-    <t>Nobel Peace Prize awarded to Iranian human rights activist Narges Mohammadi</t>
-  </si>
-  <si>
-    <t>How Bihar caste survey could be Nitish Kumar’s last roll of the dice</t>
-  </si>
-  <si>
-    <t>Sikkim flash floods: Explained in graphics how catastrophe unfolded</t>
-  </si>
-  <si>
-    <t>Viral video: Student's slipper attack stuns in Physics Wallah live class</t>
-  </si>
-  <si>
-    <t>'Will pump 39 more bullets,' 2 Agra students brag after shooting at teacher</t>
-  </si>
-  <si>
-    <t>Disney in talks with Adani, Sun TV to sell India assets: Report</t>
-  </si>
-  <si>
-    <t>‘Thank You For Coming’ Review: Bhumi’s film excels at foreplay but misses G-spot</t>
-  </si>
-  <si>
-    <t>Sikkim flash flood: Disaster relief team fails to land, death toll rises to 30 | 10 points</t>
-  </si>
-  <si>
-    <t>india asian champion men hockey win bronze tokyo olympics india make sure trajectory go upwards sensational show asian game hangzhou harmanpreet singh man hammer champion japan men hockey final friday october win gold medal importantly india also book place next year paris olympic avoid long route game gold medal winner men women hockey asian game assure olympic berth indian side make sure get job dominant show something new coach craig fulton proud india vs japan mens hockey final highlightsit also indias th gold medal asian game men hockey india india finish bronze jakarta asian game year ago india become joint secondmost successful men team hockey asian game tie south koreas tally gold medal pakistan successful men team asian game gold medal discipline show vs japanindia head final japan defend champion lot confidence beat group stage india survive stiff test korea semifinal confidence evident composure displayjapan focus park bus not allow india take early lead successful tactic remain end first quarter surjeet tap one goal th minute referee not give advantage foul inside give india penalty corner not able convert japan continue defensively discipline second quarter well however manpreet singh make sure india take lead via field goal head halftime lead manpreet reverse strike fly goal give india muchneede cushion test japanese expect japan push make thing happen rd quarter become vulnerable india penalty corner trot rd quarter manpreet singh thunder strike come rd attempt give india lead amit rohida soon strike penalty corner give india lead look like japan dust end rd quarter india take lead start fourth quarter goal abhishek however japan reward persistent midfielder seren tanaka pull one back holder however harmanpreet skipper double tally another sensational penalty corner goal make india end final quarter dominant show hangzhouindia force reckon asian game showcase impressive performance lead final match team leadership captain harmanpreet singh demonstrate exceptional form throughout tournament maintain perfect record pool stage emerge victorious semifinalsin semifinal india face republic korea match fan edge seat despite pressure indian team remain steadfast secure victory opponent win testament team consistency determination quality evident throughout journey tournamentindias performance pool stage nothing short spectacular start campaign resounding victory uzbekistan follow win singapore prowess continue shine defeat japan far solidify position top pool victory not win display team skill strategy strengththe team success attribute stellar performance player particularly top scorer forward mandeep singh goal indias top scorer asian game closely follow harmanpreet singh make strike contribution instrumental lead team finalsanother notable performance come harmanpreet singh mandeep singh match bangladesh player score hattrick lead india victory secure position pool topper performance clear demonstration skill significant role play teamas india prepare battle japan gold medal team carry hope expectation nation journey far asian game mark determination skill teamwork regardless outcome final match indian men hockey team already make mark showcase strength indian hockey international platform</t>
-  </si>
-  <si>
-    <t>canadian government reportedly evacuate majority diplomat india india reportedly ask country reduce reit diplomatic staffaccorde report canadas ctv news diplomat station outside new delhi relocate either kuala lumpur singapore amid diplomatic dispute surround killing khalistani terrorist hardeep singh nijjarearlier week india ask canada withdraw approximately diplomat october londonbased newspaper financial time report state indian government also threaten strip diplomatic immunity canadian diplomat remain country deadlineon thursday ministry external affairs spokesperson arindam bagchi state india ask canada reduce diplomatic staff bring paritygiven much high diplomatic presence india continue interference internal affair seek parity respective diplomatic presence bagchi saidthe exact number diplomat relocate india remain unclear early report peg number diplomat would leave source ctv news speak say ask specific one parity majority canadian diplomat work india outside delhi evacuate either kuala lumpur singapore report private broadcaster canada say however neither indian official canadian counterpart officially respond development fardiplomatic relation india canada deteriorate recently trudeau september allege potential involvement indian agent killing khalistani terrorist hardeep singh nijjar nijjar canadian citizen shoot dead two mask gunman june british columbiahowever dismiss allegation india respond strongly call charge absurd motivate titfortat response canadas expulsion indian official new delhi also expel senior canadian diplomat</t>
-  </si>
-  <si>
-    <t>supreme court bench lead chief justice india dy chandrachud friday direct high court ensure not deny access video conference facility hearing hybrid facility member barthe direction issue bench hear plea claim punjab haryana high court completely stop use video conferencing hearing last hearing supreme court issue notice high court tribunal issuethe court also say high court ensure internet facility include wifi make available free charge advocate litigant appear far link available video conferencing must make available list concerned court requirement make separate application virtual hearing say court top court also express concern high court away virtual hearing say central government sanction rs crore ensure video conferencing facility make availablethe supreme court bench direct union ministry ensure internet connectivity provide court north east region virtual hearing take place cji say long option judge decide techfriendly not add technology important law booksif want judge techfriendly want judge country must know technology every judge need train even supreme court judge train training centre add chief justice pull certain high court not adopt technological change allahabad high court complete offender say cji also reprimand bombay high court stop virtual hearing observe parent high court say travel city like mumbai difficult</t>
-  </si>
-  <si>
-    <t>sikkim glacial lake flood follow cloudburst wednesday set get early warning system per report reuters early warning system could give people time evacuatea cloudburst lhonak lake north sikkim trigger flash flood teesta river basin claim life dozen still miss accord report scientist government authority work develop early warning system mitigate glacial flood risk lhonak lake himalayasthe initial phase warning system include camera monitor lhonak lake water level weather instrument instal last month report official involve project quite absurd really geoscientist simon allen university zurich quote say reuter involve early warning system project fact happen two week team completely bad luckhe say plan underway incorporate tripwire sensor could trigger alert system facilitate immediate evacuation alert lake integrity compromise however due logistical constraint government opt twostep implementation approachthe system would give authority resident valuable minute warning window allow evacuate time additionally time frame would allow early activation hydropower station floodgateshowever monitoring device instal suppose send datum authority lose power unknown reason last month per report reuter wednesday morning glacial lake outburst flood glof lead rapid rise water level lake cause severe damage mangan gangtok pakyong namchi district calamity affect thousand people search rescue operation still underway himalayan state</t>
-  </si>
-  <si>
-    <t>fullblown poster war erupt congress bjp party go overdrive election five assembly state week bjp tweet show congresss rahul gandhi newage ravan draw strong criticism party return fire poster show prime minister narendra modi caption adaniit start congress take dig pm modi x wednesday share poster say big liar another design film poster caption pm narendra modi jumla boy poster share congress x poster share congress xthe bjp hit back day version film poster target rahul gandhi show congress leader newage ravan refer hindu mythological character bharat khatre mein hai congress party production direct george soros poster readsthe caption read evil anti dharma anti ram aim destroy bharat bjps x handle post poster rahul gandhi credit bjpxcalle poster obnoxious downright dangerous congress thursday say ravan poster clearly intend incite provoke violence rahul gandhiwhat real intent atrocious graphic portray rahul gandhi ravan bjps official handle clearly intend incite provoke violence congress mp former president party whose father grandmother assassinate force want divide india congresss jairam ramesh say post xit one thing pm give evidence daily pathological liar suffer narcissistic personality disorder get party produce something obnoxious not completely unacceptable downright dangerous ramesh saidwe not intimidate assertedreacte poster priyanka gandhi vadra say post hindi x respected narendramodi ji shri jpnadda ji level want take politic debate agree violent provocative tweet post official twitter handle partynot much time pass take vow uprightness forget oath take promise make askedthe congress also respond kind tweet yet another poster show pm modi read adani repeat allegation billionaire pull string government congress post another poster pm modi x credit incindiaxearli party launch cartoon strip leader oppose party social medium</t>
-  </si>
-  <si>
-    <t>explosionlike sound report pakistans dera ghazi khan friday government atomic energy department locate india today could not independently verify report impact explosion report feel around kilometre away site come day two suicide blast take place balochistan khyber pakhtunkhwa within span hour least people kill twin blast balochistan explosion take place near mosque bomber detonate explosive near police vehicle people gather procession mark birthday prophet mohammad khyber pakhtunkhwa explosion take place mosque</t>
-  </si>
-  <si>
-    <t>supreme court friday say not stop bihar government publish detail caste census say not interfere state policymake decisiona bench justice sanjiv khanna svn bhatti issue formal notice batch plea challenge august order patna high court give goahead caste survey bihar list matter january bench seek response bihar government matter within four weeksaccorde lawyer petitioner caste census datum not collect per supreme court order legitimate aim collect detail surveythe supreme court reject objection petitioner bihar government preempt stay order publish datum demand order stop publication datawe not pause anything moment not stop state government government take policy decision would wrongwe go examine issue regard power state government conduct exercise bench saidsenior advocate aprajita singh appear petitioner say breach privacy matter high court order wrong response bench say since name identity individual not publish therefore argument breach privacy may not correct important issue consideration court breakdown datum availability public bench say october nitish kumar government bihar release finding caste census month ahead lok sabha poll datum reveal backward class obc extremely backward class ebc constitute whopping per cent states total populationwith input pti</t>
-  </si>
-  <si>
-    <t>accuse newsclick online portal investigate alleged chinalinke entity push chinese propaganda involve continuous unlawful activity undermine indias sovereignty territorial integrity accord fir lodge delhi policethe fir say one people dispatch portal maintain newsclick use allegedly intentionally peddle false narrative jammu kashmir arunachal pradesh pay news crore rupee illegally route foreign fund part conspiracybig chinese telecom company xiaomi vivo incorporate thousand company india violation foreign exchange management act fema illegally infuse foreign fund india fir saidnewsclick founder editorinchief prabir purkayastha activist neville roy singham writer geeta hariharan conspire create legal community network india put spirited defence legal case chinese telecom company return benefit fir say name one gautam bhatia key personpurkayastha human resource department head amit chakravarty tuesday arrest case lodge antiterror law uapa connection allege funding newsclick china peddle fake narrative central governmentaccording fir indian entity foreign establishment conspire support fund farmer protest objective cause loss amount several hundred crore indian economythe accuse propagate false narrative discredit effort central government covid management conspire sabotage general election fir saidthe accuse employ web illegal transaction illegal circuitous route use several company illegally infuse foreign fund perpetrate aforementione act conspiracy allegedforeign fund amount crore rupee receive newsclick illegal mean since april fund fraudulently infuse neville roy singham fir describe active member communist party chinagautam navlakha shareholder newsclick allegedly involve antiindia activity actively support ban naxal organisation nexus spy agent pakistans interservice intelligence isiit allege newsclick employee owner share email people china intent show jammu kashmir arunachal pradesh dispute territoriesthese illegally route foreign fund siphon prabir purkayastha associate namely joseph raj anoop chakraborty brother amit chakraborty bappaditya sinha promoter virtunet systems pvt ltd fir saidit also learn fund distribute gautam navlakha associate teesta seetalwaad namely javed anand tamara jibran urmilesh aratrika halder paranjoy guha thakurta trina shankar abhisar sharma far allege</t>
-  </si>
-  <si>
-    <t>man urinate elderly couple travel uttar pradesh sampark kranti train incident occur couple altercation man consume alcohol journeythe retire scientist couple hail madhya pradesh travel ac coach train accord allegation another passenger travel compartment drink alcohol journey lead confrontation man identify ritesh couple heat argument ritesh allegedly urinate couple berththe incident cause commotion among passenger couple immediately report matter railway staffupon receive complaint railway protection force rpf arrive jhansi station promptly remove man train initiate investigation matter base statement provide train ticket examiner tte case register accusedinput amit shrivastava</t>
-  </si>
-  <si>
-    <t>canadian police apprehend around eight sikh youth age year relation possession load prohibit restrict firearm brampton city ontario provinceaccorde peel regional police night october receive report shot fire area donald stewart road brisdale drive bramptonwith assistance tactical unit eight individual extract residence arrest press release peel regional police say wednesdaythe police confirm one suffer injuriesthe incident come amidst heighten tension india canada killing khalistani extremist hardeep singh nijjar june british columbiaa day incident officer criminal investigation bureau execute criminal code search warrant mm beretta firearm seizedthose charge possession load prohibit restrict firearm include jagdeep singh ekamjot randhawa manjinder singh harpreet singh ripanjot singh japandeep singh lovepreet singh bramptonmeanwhile yearold rajanpreet singh charge careless storage firearm weapon prohibit device ammunition addition possession load prohibit restrict firearmall hold bail hearing attend ontario court justice bramptontension flare two nation canadian prime minister justin trudeaus allegation potential involvement indian agent killing nijjarindia strongly reject charge absurd motivated india also voice concern safety indian diplomat indias diplomatic premise canada</t>
-  </si>
-  <si>
-    <t>caste survey release bihar government ignite fresh debate castepolitic dynamic india caste system subject intense political debate reform effort british era mandal versus kamandal politic caste central sociopolitical narrative mainland indiatwo prominent figure significantly contribute discourse mahatma gandhi father nation bhimrao ramji ambedkar father constitution two stalwart indian politic revere equally public contrast view caste system subsequent debate shape course indian society politicswhile gandhi denounce untouchability not condemn varna system social hierarchy base occupation life believe reform caste system abolition untouchability give equal status occupation hand br ambedkar dalit argue caste system disorganise demoralised hindu society reduce collection caste ambedkar denounce vedas scripture believe caste system untouchability manifestation hindu religious scripture first articulate caste inequality indian society work annihilation caste believe anything build caste would inevitably create inequalitytheir clash view full display poona pact sign gandhis unrelenting fast force ambedkar bend let go desire separate electoral process depressed class dalit particular yet despite difference develop understanding work betterment marginalisedgandhis opposition separate electorate dalitsthe tumultuous time indias history struggle independence british colonial rule peak indian national congress lead mahatma gandhi predominant political force however alongside fight independence another critical issue need address demand political representation safeguard dalitsbr ambedkar brilliant jurist social reformer emerge prominent voice dalit believe separate electoral process dalit essential ensure political representation protect interest legislative body gandhi hand totally oppose idea separate electoral process fear would perpetuate division among indiansin british government initiate round table conference address issue representation different religious social group india prolong negotiation second round table conference british government august formalise separate electoral process muslims sikh dalitsunder propose process member particular community would eligible vote elect representative legislative assembliesthe idea separate electorate dalit support ambedkar vehemently oppose gandhi mahatma believe create separate electorate depressed class would far fragment indian society along religious caste line also believe british try inject poison calculate destroy hinduismin letter british prime minister ramsay mcdonald september gandhi write not even overrepresentation depressed class statutory separation even limited form hindu fold long choose belong realize decision stand constitution come arrest marvellous growth work hindu reformer dedicate uplift suppress brother every walk lifeto pressurise british congress abandon idea separate electorate gandhi lodge yerwada central jail pune sedition charge start fast unto death september gandhis fast unto deathambedkar miff gandhis fast unwilling sacrifice rightful demand gandhis sake especially alternative proposal present round tablehowever pressure soon begin mount ambedkar newspaper run daily bulletin gandhis deteriorate health congressman flock ambedkar agree gandhis demandsa committee represent upper caste include sir tejbahadur sapru barrister mr jayakar pandit madan mohan malviya mathuradas wasanji form negotiation ambedkar gandhis behalf meeting chunnilal put forward follow view behalf mahatma gandhi committee member per chunnilal mahatma gandhi not oppose awarding separate electorate dalit also not fully agreeable reserve seat response ambedkar stand defiant say today negotiation difficult situation strange position unfortunately peaceful negotiation appear act villain protection demand people willing suffer extent order get fulfil demand peoplehe far say tell shall not deter pious duty betray legitimate interest people even hang near lamppost street gandhis son appeal ambedkar relentsthe pressure ambedkar immense major newspaper back gandhi ambedkar receive several death threat situation reach critical point devadas gandhi mahatma gandhis son burst negotiation say father sink devadas gandhi plead ambedkar tear eye eventually ambedkar relent friend tamil leader mc rajah point dalit would face insurmountable prejudice see not come compromise gandhis lifea per volume dr babasaheb ambedkar writing speeche dalit leader admit baffle situation himi make choice two different alternative duty owe part common humanity save gandhi sure death problem save untouchable political right prime minister give respond call humanity save life mr gandhi agree alter communal award manner satisfactory mr gandhi ambedkar say poona pact finally sign pm september people madan mohan malaviya sign behalf hindu gandhi ambedkar behalf depressed class instead separate electorate pact introduce concept reserve seat dalit provincial central legislative body reserve seat fill joint electorate system community would vote togetherthe poona pact also stipulate constituency reserve dalit dalit candidate could contest however general constituency dalit voter could choose vote candidate choice communityambedkar perspective gandhi poona pactafter sign poona pact ambedkar mixed feeling gandhi recognise pact provide political representation dalit albeit not extent initially demand separate electorate ambedkar acknowledge gandhis fast create immense pressure force issue resolutionhowever ambedkar also criticise gandhi uncompromise stance separate electorate believe would effective way secure political right dalit feel poona pact not go far enough address social economic injustice face dalit compromise drive political expediencyhowever poona pact mark crucial turning point indian politic reject separate electorate introduce concept reserve seat ensure political representation marginalize community particularly dalit agreement lay foundation development indias reservation system since expand include various community promote social justice equalitythe principle poona pact later enshrine government india act indian constitution adopt article constitution call promotion educational economic interest schedule caste schedule tribe weak sectionsunderstanding amid differencesshortly signing poona pact ambedkar visit gandhi october urge end civil disobedience join round table conferencethe discourse though turn towards caste ambedkar lay bare struggle dalit face daily basis ambedkar tell gandhi strugglesyou may not know even face not get place live bombay except port trust chawl village stay midst mahar poona stay friend stay national hotel spend r transport fare ambedkar tell gandhigandhi stand ambedkar one ought know fast not end yet still correct agreement minor thing main thing still remain ready give life injustice mention ought end gandhi tell ambedkardespite contrast view caste system gandhi ambedkar value leader unite commitment social justice equality leave indelible mark indian society electoral process</t>
-  </si>
-  <si>
-    <t>indianorigin couple two child find dead home us state new jersey police investigate matter homicide tej pratap singh sonal parihar find dead alongside yearold son yearold plainsboro home sometime pm wednesday plainsboro police department say middlesex county prosecutor yolanda ciccone chief eamon blanchard plainsboro police department announce thursday homicide currently investigation evening october authority receive call request welfare check residence plainsboro upon arrival plainsboro police department discover four deceased victim house say joint statement tragedy remain investigation autopsy perform today say add initial investigation determine threat public anyone information surveillance footage area ask call plainsboro police department joint message mayor peter cantu chief eamon blanchard director public safety say plainsboro community experience heartbreaking loss life sadden tragic event happen community beyond comprehension state mayor peter cantu plainsboro police officer currently work law enforcement colleague conclude investigation please assure isolated occurrence additional concern safety wellbeing community relate incident blanchard say public safety personnel remain vigilant resilient continue ensure safety plainsboro community joint statement say thursday morning family home titus lane still crime scene tape post around lawn footage news new jersey show family remain discover relative call welfare check time police say look tragedy possible murdersuicide outlet say relative tell cbs news shock family death note singh parihar appear happy couple singh particular active community time death singh work lead apix engineer ness digital engineering accord linkedin profile singh parihar career include human resource sector relative say couple child remember note school district parent news new jersey report district inform local law enforcement horrific tragedy involve one plainsboro family wicoff student millstone river school student superintendent david aderhold write refer two area elementary school law enforcement investigation ongoing unable provide additional information time district join community grief sorrow tragic event singh parihar purchase home august usd record show neighbour describe family friendly say could often see walk around quiet street neighbour ask not name say friendly family decade woman say daughter usually meet yearold girl bus stop ride school together every morning hour family find girl not show weird not see morning say neighbour sweet family neighbour say texte parihar later morning never receive reply</t>
-  </si>
-  <si>
-    <t>jail iranian human right activist narge mohammadi award nobel peace prize fight oppression woman country promote human right freedom allaccorde nobel prize committee narge mohammadi struggle come tremendous personal cost arrest time convict five time sentence total year prison lashesthe iranian human right activist serve multiple sentence evin prison tehran accord front line defender right organisation accord news agency reutersnarge mohammadi also face charge spread propaganda iranian regimeshe deputy head defender human right centre nongovernmental organisation lead shirin ebadi nobel peace prize laureate reuters reportedshe deputy head defender human right centre nongovernmental organisation lead shirin ebadi nobel peace prize laureate reuters reportednarge mohammadis activism date back physics student begin advocate equality women right consistently oppose systematic discrimination oppression nobel committee saidshe support struggle right live full dignified life often meet persecution imprisonment torture even death iranher advocacy extend freedom expression right independence challenge rule suppress women right freedom committee statedfrom within evin prison tehran narge mohammadi support last year protester wake kurdish woman mahsa aminis death last year organise solidarity actionseven strict prison condition manage communicate outside world new york times publish article anniversary mahsa aminis death lock strong become headline article new york times</t>
-  </si>
-  <si>
-    <t>imagine politician chief minister mla assembly seat constant threat unseat mla drift away walk tightrope coalition politic politician bihar chief minister nitish kumarnitish kumar however play game well much everevolve scene bihar politic constant since whatever strength party chief minister last year add complexity nitish kurmi caste account per cent bihar population state caste factor mostly trump everything else politic nitish not survive helm year late caste survey get politicsnitish kumar product jp movement master strategist caste survey see last stand masterstroke save coalition government rashtriya janata dal rjd seat jdyous caste survey nitish not firm hold party contain rjd also reassert role national politic say political observer caste census way contain rjd apart jdyou nitishs grand alliance government consist rjd congress bunch left party nitish join hand states opposition bloc fight assembly election alliance bjp rjd fact singlelarg party bihar assemblyrjd chief lalu prasad another product jp movement nitish kumar bte noire defeat lalu prasad nitish first join hand bjpthat fastgrowe tejashwi yadav always keep nitish edge always fear rug might pull foot not difficult rjd split jdyou go twothird defection rule say expert even speaker bihar assembly rjd buzz aide jdyou president lalan singh cosye rjd bicker within partybut caste survey nitish flex muscle reassert not leader kurmis form per cent population also extremely backward class ebc bloc caste nurture since become chief minister first ebc go late caste survey form per cent bihar population large category state advertisementthe late caste survey put number ebc highlight separate entity backward class obc ebc low end backward class obc spectrum dominate yadavs kurmis yadavs political constituency lalu prasad tejashwi yadav form per cent bihar population rjd depend yadavmuslim combine nitish try make dent caste surveynitishs attempt woo muslimsby categorise muslim ebcs put number nitish kumar play muslim politic prominently try attract section pasmanda backward muslim voter santosh singh bihar politic expert senior journalist indian express singh tell indiatodayin exact reason nitish cultivate ali anwar ansari leader pasmanda muslims advertisementthis might effectively slice rjds important muslim voter base caste survey nitish expect consolidate position among politically important ebc ebc crucial nitish kumar power nurture vote base welfare scheme since santosh singh call caste survey nitishs masterstroke believe rjd work plan split jdyou stop trackswith assembly election time away rjd would like become stakeholder national politic look nitish kumar congress least till general election say singhwith rjd distance probable rebel bicker within jdyou would fall silent nowwith caste census report nitish quash internal bickering within jdyou upper hand rjd say santosh singhnitish plague desertion february upendra kushwaha leave jdyou form party rashtriya lok janata dal difference nitish kumar alliance rjd august rcp singh consider bihar shadow chief minister close nisitsh kumar quit party advertisementnitish also see ally like jitan ram manjhi hindustan awam morcha ham desert ham leader manjhi one caste ebc though tamil nadu karnataka even centre conduct caste survey none ever come result bihar first state declare result caste survey october could well behind nitish back national politic squeeze corner state politic nitish sideline national stage caste census might give footinthedoor moment national politicsit open secret nitish nurture prime ministerial dream never explicit one first mover opposition unity nitish sideline congress india groupingnitish kumar not make convenor india bloc bid gain national importance national issue masterstroke santosh singh tell indiatodayin singh say make congress sit think position offer nitish india group also put bjp back foot blunt hindutva politic bjp take ebcobc issue seriously say singh number seat huge margin bjp win seat lok sabha election wakeup call nitish kumar feel santosh singh caste census bid attract ebc back nitish reboot ebc politic loss say singhthe bjp highlight pm narendra modi obc icon among issue welfare politic nationalism hindutva secure obc vote congress realise good way dent bjps vote share therefore latch obc representation issue since bihar caste survey resultsso nitish kumar kill not one least three bird internal party issue rjd threat national obsolescence one stone caste survey result nitish also open pandora box dice roll favour time tell</t>
-  </si>
-  <si>
-    <t>devastating flash flood sikkim follow sudden glacial lake burst wednesday claim several life cause widespread damage road bridge home wash away teesta river take furious form part state big hydropower project sikkim urja wash away exacerbate situationrescue operation remain major challenge due mudslide washedout road damage communication systemsadvertisementwhat lead flash floodthe disaster unfold cloudburst lhonak lake northwest sikkim early wednesday amthe disaster unfold cloudburst lhonak lake northwest sikkim early wednesday amthe cloudburst heavy lead sudden rise water level quickly take lake beyond hold capacity area receive least five time usual amount rainthe cloudburst couple melting lhonak glacier result glacier lake outburst flood glof sudden release massive amount water lhonak lake locate sikkim far northwestern region altitude foot form due melting himalayan glacier video south lhonak lake credit google earth warning sound authority water level go however around teesta stage dam know urja project got wash away flash flood subvert plan proper evacuation people near riverurja dam flood photo indiatoday urja dam locate foot sea level chungthang meterlong bridge connect powerhouse wash away entire powerhouse got submerge flood expert assessment reveal water level teesta danger mark dam burstthe downstream teesta dam see massive destruction several house building damage road wash away least bridge collapse area like mangan dikchu singtam rangpo chungthang bardang hit hard area affect photo rahul guptaindia todaysatellite image glacial lake show nearly per cent water gush teesta riverwhy lake breachedthe primary trigger cloudburst centimetre rainfall occurr within square kilometre within houralong scientist also point possibility avalanche bank lake probably burst chunk ice fall water create powerful wake waterhighlighte ice patch float lake surface show satellite image jakob f steiner senior scientist say could chunk either ice unstable slope detach drop lake water create shock wave across water surface would enough topple lake dam say area south lhonak lake bust photo isro warning ignoredadvertisementthe flash flood due glacial lake burst deem dangerous unlike trigger excessive rainfall powerful enormous volume water carry debris large particle downstream cause severe damage speed water discharge due glacier lake burst go kilometre per hournotably lhonak lake one fastestexpanding lake sikkim himalaya region several study point rapidly grow nature lake due melting adjacent north lhonak main lhonak glaciersrecede glacier expansion proglacial lake namely north south lhonak lake jongsang teesta basin longbasaba pida lake koshi basin photo ravindra kumarxa study national remote sense centre indian space research organisation isro identify south lhonak lake morainedammed lake capacity store significant amount water potentially dangerous high outburst probabilityadvertisementsimilar study also warn multiple occasion especially link increase glacier melting avalanche due climate change global warming nature moraine dam unstable water block ice pack loose rocksbetween lhonak glacier recede km another meter happen lake burstnearly per cent water lhonak lake drain flooding satellite image release indian space research organisation isro national remote sense centre show area south lhonak lake drastically reduce hectare october hectare september observe lake burst hectare area drain might create flash flood downstream note isro south lhonak lake burst photo isroadvertisementconsidere significant increase lake area state government instal highdensity pipe drain watera camera monitor lhonak lake level weather instrument instal last month accord scientist quote reuter fully operational warning system could give people time evacuatelhonak lake not isolated lake accord recent research lake pose high hazard himalayan community india neighbouring countriesgraphic source google earthgoogle mapsinteractive rahul gupta india today</t>
-  </si>
-  <si>
-    <t>bizarre incident unfold live class physics wallah app student assault teacher hit slipper incident capture viral video raise concern spark discussion across social medium platformsin video teacher see conduct live class suddenly student approach slipper hand strike teacher teacher instinctively duck avoid blow student continue attack eventually student retrieve slipper leave scenethe motive behind assault remain unclear video circulate social medium since incident occurredtake look clip physics wallah found alakh pandey educator allahabad uttar pradesh together cofounder prateek maheshwari pandey develop physics wallah app specifically design assist student prepare competitive exam national eligibility cum entrance test neet joint entrance exam jeewhile app gain popularity educational content support disturb incident serve reminder challenge face educator digital age</t>
-  </si>
-  <si>
-    <t>two minor student shoot teacher uttar pradeshs agra wednesday dispute teacher brother student flee scene attack record second video threaten put bullet teacherboth student would take coaching class victim identify sumit call outside class fire pistol police say teacher sustain injury left legthe student run away motorcycle shoot teacher stop midway record threat videoin video one two student hear say want put total bullet teacher bullet follow next six month video go viral social medium raise concern matterdeputy commissioner police dcp west sonam kumar say motive behind attack appear dispute student eld brother teacher also attend coaching class accuse victim malupur villagemeanwhile wound teacher admit hospital currently treatmentthe khandauli police take cognizance incident dcp sonam kumar say police mobilize team arrest accuse underage investigation case underwaywith input arvind sharmaagra</t>
-  </si>
-  <si>
-    <t>disney initiate preliminary discussion billionaire gautam adani owner adani group kalanithi maran owner sun tv network well private equity firm regard potential sale streaming television business india report bloomberg newsaccording report disney explore various option include sell indian operation combination asset unithowever worth note discussion early stage guarantee deal reach add report also not provide detail regard potential deal valuestiff competitionthe report surface time disney face grow competition reliance industry specifically stream platform jiocinema lead mukesh ambaniambani aggressively promote streaming service include offer free access indian premier league cricket tournament disney previously hold digital right todisney india stream operation large globally term user last year report loss million revenue million year end march accord last disclose resultsin effort regain footing indian market disney choose provide free cricket content smartphone expectation strategy boost advertising revenue offset impact subscriber attrition</t>
-  </si>
-  <si>
-    <t>margot robbie barbie girl barbie world take everyone storm july borrow note rhea kapoor thank come one barbie except kanika kapoor bhumi pednekar delhi world kanika aka kandu kanika disaster kanika get name raita spread leave people around clean messin world kanika two good friend pallavi dolly tina shibani bedi single mother grandmother always outcast school sometimes bully bear wedlock taunt never get easy kanika grow depend man find happiness not want precede action mother okay getting hitch anyone get stamp marriage approach big regret not orgasm one engagement party however problem kanika not remember behind act entire film hour find person could finally give euphoric experience director karan boolani take inspiration several standup female sexuality weave sex comedy woman star army woman despite honest attempt film seem sluggish not move beyond orgasm kanika everyone around reduce sidekick appear need disappear truly world would easy buy narrative film not promote one celebrate female friendship point find story movie become difficult man try find gspot sure film sincerity present sex comedy woman novel rhea kapoor support alongside anil kapoor ekta kapoor applause worthy not easy support film like society almost negate female desire film might open door notsoawkward conversation sex major highlight thankyouforcome song except fun rendition pari hoon main sushant divgikar aka rani average real find performance shibani bedi stellar single mother story really not give define character arc manage leave impression dolly decent well play part shehnaaz gill star appear maximum scene throughout film serve kusha waste merely scene not use potential full woman character could make film interesting not reduce sidekick another star performance sushant debut musician actor film entire drag sequence feature get big cheer bhumi play gallery sometimes loud sometimes funny know sheer potential actor kanika feel halfbake see well bhumi pednekar performance laugh get film thank anil kapoors fantastic cameo ekta kapoors tv series reference beyond film hardly even funny sanitise point perhaps make toofamilyfriendlythe film oneline sale pitch key find happiness hand figuratively literally perhaps could deal well way well luck next time till thank come hit theatre</t>
-  </si>
-  <si>
-    <t>least people include four army personnel die remain miss follow cloudburst lhonak lake north sikkim district trigger flash flood region early week flash flood lead swelling river teesta sweep away several house town village dozen people include army personnelan national disaster response force ndrf team not able land chungthang one worsthit place north sikkim due inclement weather team carry communication equipment town cut rest stateteam indian army ndrf army work way slushy earth fastflowe water teesta river basin downstream north bengal third day search sweep away still miss official tell ptithe army recover three vehicle debris basin river teesta vehicle wash away flash flood bardang army official launch search operation recover vehicleshere pointer recap unfold far flash flood river teesta trigger cloudburst lhonak lake cause accumulation huge quantity water turn towards chungthang dam destroy power infrastructure move downstream spate flooding town village</t>
-  </si>
-  <si>
-    <t>sports</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>law</t>
-  </si>
-  <si>
-    <t>science</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>history-of-it</t>
-  </si>
-  <si>
-    <t>trending-news</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>movies</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/sports/asian-games-2023/story/hockey-men-final-india-beat-japan-win-gold-paris-olympics-quota-2445523-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/canada-evacuates-many-diplomats-from-india-amid-deadline-from-new-delhi-news-agency-pti-quoting-report-2445427-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/law/story/no-high-courts-can-deny-access-to-virtual-hearings-supreme-court-direction-2445487-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/science/story/sikkim-glacial-lake-that-flooded-was-set-to-get-early-warning-system-2445456-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/congress-bjp-poster-war-rahul-gandhi-new-age-ravan-several-heads-jairam-ramesh-slams-party-2445258-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/story/explosion-atomic-commission-office-dera-ghazi-khan-pakistan-dead-injured-reports-2445459-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/law/story/bihar-caste-census-supreme-court-notice-to-bihar-government-reply-nitish-kumar-2445391-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/accused-conspired-for-unlawful-activities-terror-acts-undermined-indias-sovereignty-cops-on-newsclick-2445412-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/crime/story/drunk-man-urinates-on-elderly-couple-onboard-train-in-uttar-pradesh-2445522-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/story/8-sikhs-in-canada-arrested-over-firearms-related-offences-2445548-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/history-of-it/story/ambedkar-gandhi-caste-system-poona-pact-1932-reservation-2445208-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/indians-abroad/story/indian-origin-couple-2-children-found-dead-inside-new-jersey-home-2445518-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/world/story/nobel-peace-prize-awarded-to-iranian-human-rights-activist-narges-mohammadi-2445436-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/nitish-kumar-bihar-caste-survey-rjd-bjp-mandal-politics-pm-modi-tejashwi-yadav-kurmis-ebc-muslims-2445047-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/sikkim-flash-flood-lake-burst-avalanche-cloudburst-teesta-river-reason-earthquake-isro-satellite-images-2445278-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/trending-news/story/viral-video-students-slipper-attack-stuns-in-physics-wallah-live-class-2445265-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/crime/story/agra-teacher-shot-at-by-2-minor-students-threatened-of-39-more-bullets-2445210-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/business/story/disney-in-talks-with-adani-sun-tv-to-sell-indian-streaming-television-assets-2445478-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/movies/reviews/story/thank-you-for-coming-review-bhumis-film-excels-at-foreplay-but-falls-short-of-hitting-the-g-spot-2445274-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.indiatoday.in/india/story/sikkim-flash-floods-update-dead-missing-search-operation-army-jawan-weather-forecast-2445272-2023-10-06</t>
+    <t>Israel Palestine Conflict in Gaza: गाजा पट्टी पर रॉकेट्स की बौछार, हमास के 17 सैन्य ठिकानों पर अटैक... पढ़ें- कितना घातक है इजरायल का 'Iron Swords'</t>
+  </si>
+  <si>
+    <t>मजहब और जमीन की जंग से सना इतिहास, पढ़ें- इजरायल-फिलिस्तीन की अदावत की पूरी कहानी</t>
+  </si>
+  <si>
+    <t>Earthquake in Afghanistan: भूकंप के तेज झटकों से दहला अफगानिस्तान, 15 लोगों की मौत, कई घायल</t>
+  </si>
+  <si>
+    <t>हमास ने 20 मिनट में दागे 5 हजार रॉकेट, 35 को किया किडनैप... अब इजरायल का 'Iron Swords' से ताबड़तोड़ पलटवार</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India vs Afghanistan Asian Games 2023 Gold Medal: एश‍ियाड में भारत ने झटका क्रिकेट का गोल्ड मेडल, अधूरे मैच में कैसे टीम इंडिया बनी 'चैम्प‍ियन'?  </t>
+  </si>
+  <si>
+    <t>सावधान! एयरपोर्ट पर इस बात का ध्यान जरूर रखें, वरना 'कंगाल' हो जाएंगे</t>
+  </si>
+  <si>
+    <t>'दुश्मन ऐसी कीमत चुकाएगा...', हमास के खिलाफ नेतन्याहू ने किया युद्ध का ऐलान, गाजा को बमों से पाट दिया</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikkim Flash Floods Proof : सिक्किम में कैसे आई प्रलय... दो Photos से जानिए पूरी कहानी </t>
+  </si>
+  <si>
+    <t>21 कांग्रेस तो 60 सीट BJP की 'फिक्स', 119 सीटों से तय होता है राजस्थान में किसकी बनेगी सरकार!</t>
+  </si>
+  <si>
+    <t>Millets से बने प्रोडक्ट्स पर GST में कटौती... 18 से घटाकर 5% करने का फैसला, घटेंगे दाम!</t>
+  </si>
+  <si>
+    <t>सुषमा ग्रुप ने बढ़ती कमर्शियल रियल एस्टेट मांग पर कड़ी पकड़ बनाई</t>
+  </si>
+  <si>
+    <t>एक जज-दूसरा क्रिमिनल... दो Ex Classmate की मुलाकात और हिल गया इंटरनेट!</t>
+  </si>
+  <si>
+    <t>देवरिया में प्रेम यादव का घर गिराए जाने की तैयारी? अखिलेश बोले- कोई भी ऐसा काम ना करें, जिससे माहौल बिगड़े</t>
+  </si>
+  <si>
+    <t>जो सुन नहीं सकते, उनके लिए साइन-लैंग्वेज में आएगी रवि तेजा की फिल्म... 'द कश्मीर फाइल्स' ने भी किया था ऐसा</t>
+  </si>
+  <si>
+    <t>बिग बॉस 17 में होगी एडल्ट कंटेंट स्टार शिल्पा सेठी की एंट्री, शो से पूरा होगा ख्वाब?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अयलान: निक्कर पहने, रेडियो सुनते एलियन की मजेदार कहानी, टीजर से ही शानदार दिख रही है शिवा कार्तिकेयन की फिल्म </t>
+  </si>
+  <si>
+    <t xml:space="preserve">पहले ही दिन फेल हुआ अक्षय का 'मिशन रानीगंज', खिलाड़ी कुमार को मिली पिछले 10 साल की सबसे छोटी ओपनिंग! </t>
+  </si>
+  <si>
+    <t>UP: आवेदन की माला पहन 'तहसील दिवस' में पहुंचा युवक, बोला- मेरी समस्या का नहीं हो रहा समाधान</t>
+  </si>
+  <si>
+    <t>UP: हर बुधवार महिलाओं के बीच पहुंचेंगी ‘शक्ति दीदी’, जानिए इस अभियान का उद्देश्य</t>
+  </si>
+  <si>
+    <t>देवरिया हत्याकांड: प्रेम चंद की जमीनों का तहसीलदार करेंगे मुआयना, कोर्ट में हुई सुनवाई</t>
+  </si>
+  <si>
+    <t>everything normal israel till saturday morning weekend lazy morning people slowly get ready start day smell gunpowder permeate atmosphere frightening sound siren start hear street fact palestine terrorist organization hamas fire thousand rocket israel minute israeli people die attack israel declare war hamas attack prime minister benjamin netanyahu declare war say country would exact unprecedented price enemy israel launch operation iron sword enemy time order give school holiday israel tomorrow ie sunday let tell school holiday israel sunday netanyahu say war not operation morning hamas launch deadly attack israel citizen enemy pay price war win say call chief security system order destroy hamas basis also order mobilize artillery large scale give befit reply hamas attack enemy pay unprecedented price allround attack gaza strip israel defense force idf say launch operation iron sword response attack hamas rocket fire gaza strip air land sea israeli air force say official twitter account dozen air force fighter plane attack military complex headquarters terrorist organization hamas throughout gaza strip idf spokesman rear admiral daniel hagari tell press conference rocket fire israel since israeli soldier fight intruder least seven place hamas claim thousand rocket fire gaza israel hand senior commander hamas islamic group control gaza strip claim thousand rocket fire gaza israel fire hama also claim fire rocket towards israel early morning name operation alaqsa flood also say hamass action aggression alaqsa mosque rocke directly southern gederot area</t>
+  </si>
+  <si>
+    <t>palestine israel face face saturday morning palestinian terrorist fire thousand rocket israel scene devastation around rocket attack attack israeli army say attack gaza strip hamas terrorist group launch war israel announcement siren ring jerusalem army say terrorist infiltrate many area israel israel also advise citizen stay indoor although dispute israel palestine go decade war israel palestine fight aggressively side missile fire one side side respond fire many time missile israel jewish country whereas palestine muslim majority country hamas rule war go since establishment israel palestine many muslim country refuse recognize israel jewish state time israel palestine consider jerusalem capital fight occupation gaza jerusalem go two country century although sword hostility draw rise islam real conflict begin ottoman empire come end jerusalem special faction end first world war ottoman empire defeat time historian say first world war entire picture middle east change war feeling nationalism start grow among people world war entire area come control britain jews demand independent country strong demand also raise place build jews jerusalem jews could call home jerusalem holy city israelis palestinians jerusalem also controversial issue israeliarab tension city hold important place islam judaism christianity three religion link prophet ibrahim history consider jerusalem holy place reason name city remain heart muslims jews christians century land divide jews arab second world war united nations bring resolution separate country</t>
+  </si>
+  <si>
+    <t>three strong earthquake occur one afghanistan saturday cause devastation least people lose life people injure relief work administration people take debris take hospital first earthquake occur pm whose intensity minute later earth shake earthquake magnitude pm powerful earthquake measure richter scale record epicenter earthquake report kilometer northwest herat city major urban center western afghanistan afghan official say many building damage tremor leave people trap debris rescue operation launch rescue injure take hospital least people die period figure may increase</t>
+  </si>
+  <si>
+    <t>israel launch operation iron sword response rocket fire terrorist organization hamas many israeli fighter plane bomb hamas position gaza strip israeli air force launch dozen fighter plane simultaneously target hamas several place gaza strip early israel declare state war palestinian terrorist fire rocket several residential area israel announce accord news agency ap israel rescue service say least israeli citizen die attack hama time israeli prime minister benjamin netanyahu release video say country not fight war win say war win enemy hamas pay price would never even think talk medium israeli army spokesperson say combine ground attack carry paraglider sea land mean right fight place around gaza strip force still ground fighting order eliminate terrorist israeli pm announce operation iron sword israeli prime minister benjamin netanyahu say not minor operation hamas attack order terrorist eliminate teach terrorist enemy lesson never expect watch war not operation round morning hamas launch deadly attack israel civilian enemy pay pricewe war win israel prime minister benjamin netanyahu video courtesy israel prime minister pictwittercomnlwqhbehamas make big mistake israeli defense minister rocket attack security cabinet meeting hold israeli military headquarters telaviv meeting israeli defense minister yoav galant say hamas make big mistake attack israel say war start palestinian terrorist group hamas israel win accord report israeli citizen police attack palestinian terrorist police station southern city sderot</t>
+  </si>
+  <si>
+    <t>india vs afghanistan asian games gold medal match update indias men cricket team create history hangzhou asian games team india win gold medal asian game early women cricket team also win gold medal asian game cricket gold medal match india afghanistan cancel due rain since team india play captaincy rituraj gaikwad top rank team hence india give gold medal whereas afghanistan satisfied silver medal asian game today bangladesh win bronze medal cricket defeat pakistan early india win toss match captain rituraj gaikwad decide field first afghanistan bad start match stop due rain afghanistan make score post share rinku rinkukumar afghanistans start bad afghanistan start bad shivam dubey give first blow afghanistan shivam first dismiss zubaid akbari afghanistan score would reach run arshdeep singh dismiss mohammad shahzad shahzad catch wicketkeeper jitesh sharma afghanistan suffer third blow run noor ali zadran run score afghanistan seem trouble click bangladesh stun pakistan hit four last ball win bronze medal shahidullah kamal not afsar zazai try handle afghanistan batsman make mistake ball ravi bishnoi bring th innings bowl time run add afghanistan account afghanistans fifth wicket fall form karim janat bowl shahbaz ahmed click coverage asian game finally afghan captain gulbadin naib not take afghan innings along shahidullah rain come second ball due match could not go ahead due nonstop rain final later cancel india get gold medal due well seeding whereas afghanistan satisfied silver medal</t>
+  </si>
+  <si>
+    <t>come safety passenger airport metro consider safe tight security system consider difficult criminal commit crime airport first identity checking entry point boarding intensive search every passenger luggage see every passenger feels relieve luggage safe sir think like make poor cost lakh rupee may lose valuable forever not believe know incident happen delhi airport th september paramjeet kaur resident tarn taran punjab come delhi melbourne journey world good singapore airline pleasant excited soon land delhi soil take domestic flight go amritsar reach boarding flight luggage find overweight open bag investigation paramjeet wheel chair due disability therefore investigation supervision assistant clearance give arrange luggage allow leave take flight reach home amritsar soon open bag passenger shock paramjeet kaur happy meet family bring valuable family open bag give stuff valuable present bag like gift jewelery purse miss chaos family good worth lakh rupee miss paramjeet family lodge complaint regard indira gandhi airport police station register case police start investigate matter seriously cctv footage scrutinize time suspicious activity see list loader present duty time make everyone interrogate one one meanwhile loader reveal whole truth big incident come light accuse loader tell companion use fool passenger take good bag use take valuable local market sell even paramjeet many passenger way police take seven</t>
+  </si>
+  <si>
+    <t>israel launch fighter jet battlefield teach palestine lesson israeli army start operation iron sword hamas gaza strip start air strike gaza dozen israeli air force fighter terrorist organization attack position hama many place gaza strip area fill bomb meanwhile israeli prime minister netanyahu give big statement clearly say enter war not operation hamas carry deadly attack israel citizen first order clear settlement infiltrate terrorist apart ask collect weapon large scale enemy pay price would never think let tell saturday morning palestinian arm group hamas launch series rocket attack gaza strip attack carry israel hamas claim responsibility attack call military action israel hamas fire rocket gaza strip minute not infiltrate israel capture military vehicle apart five israeli soldier kidnap people die injure attack response israel also take charge attack not normal israel win statement israels defense minister come palestinian attack say hamas make huge mistake start war israel morning time incident israeli ambassador india gilon also tweet say palestinian terrorist launch twopronged attack attack side land sky say jewish holiday joint attack israel gaza rocket ground infiltration hamas terrorist situation not normal israel win hamas fire rocket without warning let tell israel declare state war attack palestinian target area air raid siren sound throughout israel include jerusalem saturday palestine attack gaza area control mohammad deif senior hamas military commander announce beginning operation take last stand palestinians</t>
+  </si>
+  <si>
+    <t>evidence impending doomsday find sikkim wall mouth south lhonak lake break altitude foot wall call moraine wall break due excess water lake shore two satellite photo confirm photo take maxar early isro also release satellite photo first let understand happen two combo photo look left right see frozen ice water south lhonak lake thickness width moraine deposit mouth also visible picture right moraine scatter look break water level also low disaster happen lake fact threat glacial lake outburst flood glof south lhonak lake long time scientist confirm many year study increase size lake even two year ago three scientist iit roorkee iisc bengaluru express fear breakage government administration not pay attention understand picture lake break picture give february year low part lhonak glacier visible left side lake moraine visible around lake mean thick wall mud stone low part high mountain thin layer ice visible water also crack place moraine break also visible fine water not reach moraine photo give take two day breaking lake mean th october amount ice glacier also visible left water level lake also appear low thin sheet ice break moraine break near arrow right due continuous heavy rain night october water level lake keep increase moraine break due pressure water snow mud flow reach chungthang dam kilometer away dam could not tolerate much water break disaster around south lhonak lake south lhonak lake proglacial lake lake form water release melting glacier moraine break meter high mean foot high imagine much water would fill lake foot high natural wall break</t>
+  </si>
+  <si>
+    <t>amidst electoral battle rajasthan party include bjp congress bsp put strength real tussle bjp congress reach top power rajasthan remain seat seat state always hold bjp congress win seat seat state party play every trick politic win party come power win seat bjp remain control seat look assembly election bjp win pali time whereas win time udaipur ladpura ramganj mandi sojat jhalrapatan khanpur bhilwara beawar phulera sanganer revdar rajsamand nagaur also bjp win time kota south bundi sursagar bhinmal ajmer north ajmer south malviya nagar ratangarh vidyadhar nagar bikaner east siwana alwar city asind bjp win time seat congress win similarly talk congress congress win sardarpura seat jodhpur time whereas congress win bari seat thrice congress win thrice jhunjhunu bagidaura sapotra barmer gudhamalani fatehpur also congress win seat include deeg kumar sanchaur badi sadri chittorgarh kotputli sardarshahar</t>
+  </si>
+  <si>
+    <t>gst council meeting hold chairmanship union finance minister nirmala sitharaman sushma swaraj bhawan new delhi saturday nd meeting gst council government take big decision tax rate product make millet reduce accord report percent gst applicable product instead percent</t>
+  </si>
+  <si>
+    <t>punjab indian commercial real estate sector experience significant growth beyond metropolitan area tier tier city emerge hub commercial growth due increase infrastructure development well connectivity government focus infrastructure development create employment opportunity rise digitalization ecommerce need commercial space increase tier city local company retail also benefit change give major boost commercial real estate sector well road train new airport increase connectivity revolutionize office infrastructure development tier city apart demand office space increase retail consumption tier city rise income work home trend high income increase purchasing power resident lead national international retail brand take advantage target tier city make retail space area ripe growth tricity region include outskirt chandigarh punjab north india include mohali panchkula progress see easy access major highway commercial hub tricity attract sharp growth rental rate residential real estate return increase residential population increase infrastructure development naturally drive demand commercial development</t>
+  </si>
+  <si>
+    <t>life long world round must hear thing many time since childhood big life meet many people contact remain throughout life contact remain limited childhood hazy memory definitely remain alive mind especially people era grow without social medium internet may many friend school lunch play game go home school friend still today probably not childhood glimpse definitely remember school dress tiffin box school door meet friend year later recognize think sure remember name know name school town something similar happen two people go talk today whole world become emotional one time hear story many year memory become fresh mind people let start story beginning two character first arthur booth second mindy glaser like teenager arthur dream make successful career good mathematic science always tell family friend want become neurosurgeon grow mindy glazer also study nautilus middle school miami beach miami locate state florida usa also dream initially want become veterinarian think become lawyer go law school become top lawyer world see meeting follow different path life respective career decade meet mindy recognize arthur soon see say person use play football actually meeting take place court room mindy judge arthur stand front criminal whole world see video court room man face charge court start cry recognize judge middle school pictwittercomckjtmwharthur addict gambling drug carry many robbery incident also escape police listen</t>
+  </si>
+  <si>
+    <t>case deoria murder case heat amidst attack opposition yogi government start take action matter sp president akhilesh yadavs statement come demolition notice paste house premchandra yadav family post write twitter akhilesh advise yogi government take precaution gesture appeal take step towards maintain peace let tell deoria incident preparation run bulldozer prem yadavs house notice paste outside prem yadavs house administration illegal construction mention write notice government land encroach upon illegally construct occupy appear tehsildar court october answer show notice otherwise tehsil administration issue unilateral order encroached land part house demolish within stipulated period keep environment stress free sp president akhilesh yadav tweet action administration akhilesh write injustice party deoria incident also crime responsibility government administration keep environment stress free not anything spoil atmosphere end effort peace not murder retaliation murder incident opportunity power take political advantage dispute go two side regard land let tell revenue team eviction notice paste house five accuse include former district panchayat member prem chand yadav two day ago accountant file case tehsildar court section uttar pradesh revenue code action take noteworthy land dispute go satya prakash dubey resident ledha tola fatehpur village premchand yadav resident abhaypur tola satya prakashs young brother gyan prakash deede share land prem chand clash two side regard issue every day injustice party deoria incident also crime responsibility government administration keep environment stressfree not anything spoil environment end effort peace not murder retaliation murder thing</t>
+  </si>
+  <si>
+    <t>effort reach film many audience possible lead beginning pan india formula south film industry bollywood film release simultaneously many language many film also make maker go release simultaneously ten language film prepare audience speak different language would great cinema start reach differently able people different physical ability well telugu star ravi tejas pan india film tiger nageswara rao release month ready happen information relate film come light maker praise film ravi teja release hindi language include original telugu version besides also release sign language even people not hear able watch film tiger nageswara rao go first indian film release theater sign language however even many film take initiative original release also release indian sign language sign language india develop not hear impair people many people associate education also use sign language kashmir file last year blockbuster hit kashmir file release ott indian sign language first commercial bollywood film make attempt mark occasion special screening kashmir file also organize people could not hear participate director vivek agnihotri wife film actress pallavi joshi actor darshan kumar also present screening ranveer singh film release theater india signing hand ish organization work deaf community join hand maker release film sign language effort also support star ranveer singh ranveer also support petition include sign language list official language india</t>
+  </si>
+  <si>
+    <t>bigg boss fan eagerly wait new season show every year fan hold heart ready bigg boss many big name come forward far show among television actress youtuber adult content creator shilpa sethi also go enter bigg boss shilpa sethi enter bigg boss house salman khan ready create stir bigg boss old style new attitude many big wellknown face see show season adult content creator shilpa sethis name also add list sunny leone pamela anderson shilpa one strong adult content star show</t>
+  </si>
+  <si>
+    <t>hrithik roshan koi mil gaya still favorite film fan alien story film memorable character emotional moment magical bonding hrithiks character still make people emotional film come tamil industry alien come earth name film tamil industrys popular star shiva karthikeyan lead role ayalan tamil word ayalan mean alien teaser ayalan update come film tell go exciting project watch teaser ayalan start feel like watch film quickly glimpse film get teaser fantastic new alien fun powerful friendship human friend worth see visual film also powerful ayalan interesting science fiction story teaser film start special power source power source look like dinosaur egg earth teaser sharad kelkars character see advanced robot sequence appear sharad play negative role film perhaps character want carry evil intention help advanced technology lot teaser ayalan increase excitement solid sciencefiction film alien civilization space ship kind advanced technology people super power see teaser meanwhile film alien ayalan see spaceship watch alien scene see vfx film excellent visual ayalan create world audience feel like getting lose story alien seem live creature change expression face look amazing look teaser seem experiment scientist make different technology power source signal go space due planet aylan destroy people come earth teaser seem aylan people capture scientist see film shiva karthikeyans character manage free aylan bring along aylans mission return planet call companion help alien not want harm human way rather</t>
+  </si>
+  <si>
+    <t>akshay kumar one top star bollywood not good time box office last year three akshay film fail make solid earning year akshay start not good film selfie emraan hashmi sell cheaply box office august akshay omg prove big hit seem perhaps everything would fine think akshay new film mission raniganj release theatre happen film show everything not well akshay yet akshay wait little long see success box office mission raniganj get cold start first day future theater look weak mission raniganj fail solid opening akshay film big film reach theater friday report say release around screen atmosphere regard film cold booking even weak akshay big flop selfie recent time due seem akshay film might die first day trade report say something similar happen akshay mission raniganj box office film collect range rs crore first day shocking akshay film bring big net collection box office bollywood get lackluster start</t>
+  </si>
+  <si>
+    <t>surprising incident happen jhansi district tehsil day organize tehsildar officer employee present listen problem public solve meanwhile young man reach garland application letter around neck ask young man say application letter give responsible officer employee past matter relate land problem not solve tehsildar confront person arrive tehsil day also assure solve problem soon possible actually matter mauranipur area district young man name kailash resident silgua village tehsil come occasion tehsil day reach tehsil office see people include officer employee surprised watch video</t>
+  </si>
+  <si>
+    <t>every wednesday uttar pradesh shakti didi reach among woman create awareness woman policeman reach public place among woman make aware scheme also tell law relate woman home department prepare plan mission shakti work coordination department actually shardiya navratri government go take initiative make half population aware selfreliant shakti didi go start especially woman mission shakti campaign every week wednesday team two woman policeman reach woman public place village city woman police personnel call shakti didi encourage take benefit scheme work shakti didi make woman aware present many scheme central state government woman orient situation woman give information scheme also encourage take advantage scheme special thing campaign campaign make successful coordination different departments bank correspondent sakhi sakhi revenue accountant anm asha worker also present along shakti didi visit gram panchayat nyaya panchayat separate scheme prepare shakti didi abhiyan urban area list scheme prepare tell pradhan mantri matru vandana yojana beti bachao beti padhao pradhan mantri ujjwala yojana pm swanidhi yojana pm samman nidhi yojana one stop center safe city scheme like yojana ayushman yojana safe motherhood assurance suman yojana pradhan mantri free sewing machine yojana mahila shakti kendra yojana bhagya lakshmi yojana mukhyamantri abhyudaya yojana mahila ehaat yojana woman get benefit list prepare tell woman campaign run coordination various department actually mission shakti scheme start instruction chief minister yogi adityanath consider success impact among woman plan prepare include shakti didi campaign second phase home department prepare action plan law relate woman child like domestic violence dowry prohibition sexual harassment workplace unethical behavior etc</t>
+  </si>
+  <si>
+    <t>deoria murder case uttar pradesh revenue team paste eviction notice yesterday evening house ram bhawan yadav son dabangg prem chand yadav also th october ie today one appear tehsildar court person advocate answer show notice case today ram bhavan yadavs young daughterinlaw kiran prem yadavs daughter reach court hearing october tehsildar go spot inspect listen party advocate gopinath yadav say notice issue forest department land encroachment boundary wall thatch two notice silent not tell draft number area acre house boundary wall show acre new fallow land draft number area area acre show pucca house boundary wall acre land belong barn district number area hectare land boundary wall would show hectare land forest department land revenue team paste eviction notice house five accuse dabang prem chand yadav son ram deoria murder case revenue team paste eviction notice house five accuse include bhawan yadav write notice encroach government land illegally construct concrete structure october tehsildar court number appear person advocate respond show notice say notice not respond unilateral order would issue tehsil administration encroachment would stop within stipulated period part land house demolish let tell lekhpal file case tehsildar court day ago section uttar pradesh revenue code action take murder land dispute noteworthy resident ledha tola fatehpur village land dispute go satya prakash dubey former district panchayat member samajwadi party premchand yadav resident abhaypur tola satya prakash dubey young brother gyan prakash dubey deede share land premchand yadav dispute continue regard satya prakash dubey complain tehsil police administration premchand yadav government land barn land forest land</t>
+  </si>
+  <si>
+    <t>World</t>
   </si>
   <si>
     <t>Sports</t>
   </si>
   <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Judiciary</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/world/story/shelling-of-rockets-from-air-land-and-sea-in-gaza-strip-iron-swords-attack-military-bases-hamas-israel-action-against-palestine-ntc-1794548-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/world/story/israel-palestine-war-past-stained-war-religion-land-history-enmity-between-two-countries-ntc-1794449-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/world/story/powerful-earthquakes-hit-afghanistan-ntc-1794543-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/world/story/israel-palestine-conflict-israel-launched-operation-iron-swords-israel-fighter-jets-targeting-the-palestinian-militant-tlifwe-1794418-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/sports/cricket/story/india-vs-afghanistan-asian-games-2023-highlights-score-india-won-gold-medal-in-asiad-cricket-afghanistan-won-silver-team-india-won-because-of-this-rule-tspo-1794431-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/crime/big-crime/story/loaders-arrested-by-police-for-stealing-valuables-from-passengers-bags-at-igi-delhi-airport-opnm2-1794531-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/world/story/israel-gaza-conflict-hamas-has-made-a-big-mistake-israel-gave-a-befitting-reply-to-palestine-gaza-on-target-ntc-1794378-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/science/story/sikkim-disaster-photo-proof-know-reason-behind-flash-floods-ssc-1794414-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/elections/rajasthan-assembly-elections-2023/story/whose-government-formed-decided-by-119-seats-rajasthan-assembly-elections-equation-bjp-congress-ntc-1794508-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/business/utility/story/gst-council-meet-update-tax-rate-on-millets-based-products-slashed-to-5-percent-from-18-percent-says-report-tutc-1794416-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/impact-feature/story/sushma-group-tightens-grip-on-rising-commercial-real-estate-demand-1793480-2023-10-06</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/trending/story/former-classmates-meeting-courtroom-viral-video-judge-criminal-life-changed-arthur-booth-case-mindy-glazer-us-tstsh-1794125-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/uttar-pradesh/story/preparation-to-demolish-prem-yadav-house-in-deoria-akhilesh-yadav-said-do-not-do-anything-that-spoils-atmosphere-ntc-1794337-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/entertainment/news/story/ravi-teja-tiger-nageswara-rao-releasing-in-sign-language-the-kashmir-files-other-hindi-films-did-this-too-tmovs-1794269-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/entertainment/television/story/adult-content-star-shilpa-sethi-confirmed-to-enter-bigg-boss-17-salman-khan-tmovb-1794437-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/entertainment/news/story/ayalaan-teaser-an-alien-in-shorts-vest-listening-radio-is-coolest-thing-in-indian-cinema-today-film-looks-immersive-tmovs-1794368-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/entertainment/bollywood-news/story/mission-raniganj-crashes-on-day-1-akshay-kumar-lowest-box-office-opening-in-a-decade-tmovs-1794271-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/uttar-pradesh/story/man-reached-the-officials-wearing-a-garland-of-application-form-in-jhansi-lclg-1794547-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/uttar-pradesh/story/shakti-didi-will-make-women-aware-in-up-female-policemen-will-give-information-schemes-laws-lclcn-1794501-2023-10-07</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/uttar-pradesh/story/deoria-murder-case-prem-chand-yadav-land-dispute-lclg-1794490-2023-10-07</t>
+  </si>
+  <si>
+    <t>इजरायल में शनिवार की सुबह 6.25 बजे तक सबकुछ सामान्य था. वीकेंड और अलसाई सुबह होने पर लोग धीरे-धीरे अपने दिन की शुरुआत करने की तैयारी कर रहे थे. तभी फिजाओं में बारूद की गंध घुल गई. फिजाओं में सायरन की डराने वाली आवाजें सुनाई देने लगीं. दरअसल, फिलिस्तीन के आतंकी संगठन हमास ने इजरायल पर महज 20 मिनट में 5 हजार रॉकेट दागे. इस अटैक में इजरायल के 22 लोगों की मौत हो गई. हमास के हमले के बाद इजरायल ने 'युद्ध' की घोषणा कर दी है. प्रधानमंत्री बेंजामिन नेतन्याहू ने "युद्ध" की घोषणा की और कहा कि उनका देश अपने दुश्मन से "अभूतपूर्व कीमत" वसूलेगा. इजरायल ने अपने दुश्मन के खिलाफ 'ऑपरेशन आयरन स्वार्ड्स' लॉन्च किया है. वहीं इजरायल में कल यानी रविवार को स्कूलों की छुट्टी के आदेश दे दिए गए हैं. बता दें कि इजरायल में रविवार को स्कूलों की छुट्टी नहीं होती है.नेतन्याहू ने कहा कि हम युद्ध में हैं, किसी ऑपरेशन में नहीं. आज सुबह हमास ने इज़राइल और उसके नागरिकों पर एक जानलेवा हमला किया. दुश्मन को इसकी कीमत चुकानी पड़ेगी. हम युद्ध में हैं और हम इसे जीतेंगे. उन्होंने कहा कि मैंने अपने सभी सिक्योरिटी सिस्टम के चीफ को बुलाया और हमास के ठिकानों को तबाह करने का आदेश दिया, साथ ही बड़े पैमाने पर आर्टिलरी जुटाने का आदेश दिया है. हम हमास के हमले का करारा जवाब देंगे. दुश्मन को इसकी अभूतपूर्व कीमत चुकानी पड़ेगी.गाजा पट्टी पर चौतरफा हमलाइज़रायल डिफेंस फोर्स (IDF) ने कहा कि हमने हमास के हमले के जवाब में ऑपरेशन 'आयरन स्वॉर्ड्स' शुरू किया है. इसके जरिए हवा, जमीन और समुद्र से गाजा पट्टी में रॉकेटों की बौछार कर रहे हैं. इज़रायली वायु सेना ने आधिकारिक ट्विटर अकाउंट से कहा कि वायु सेना के दर्जनों लड़ाकू विमानों ने पूरे गाजा पट्टी में आतंकवादी संगठन हमास के 17 सैन्य परिसरों और 4 हेडक्वार्टर पर हमला किया है. आईडीएफ के प्रवक्ता रियर एडमिरल डैनियल हगारी ने प्रेस कॉन्फ्रेंस कर कहा कि सुबह 6:30 बजे से इज़राइल में रॉकेट दागे गए हैं. कम से कम सात जगहों पर इजरायली सैनिक घुसपैठियों से लड़ रहे हैं.हमासा का दावा- गाजा से इज़रायल में हजारों रॉकेट दागेउधर, गाजा पट्टी पर नियंत्रण रखने वाले इस्लामिक गुट हमास के एक वरिष्ठ कमांडर ने दावा किया है कि गाजा से इज़रायल में हजारों रॉकेट दागे गए हैं. हमास ने यह भी दावा किया कि उसने सुबह-सुबह इज़राइल की ओर 5,000 रॉकेट दागे थे, जिसे उसने "ऑपरेशन अल-अक्सा फ्लड" नाम दिया है. साथ ही कहा कि हमास की कार्रवाई अल-अक्सा मस्जिद के खिलाफ आक्रामकता के खिलाफ है. दक्षिणी गेडरोट क्षेत्र में सीधे रॉकेट हमले में मारे गए लोगों में 60 साल की एक महिला भी शामिल है.इजरायल के रक्षा मंत्री बोले- हर जगह दुश्मन से लड़ रहेइजरायल के रक्षा मंत्री योव गैलेंट ने कहा कि आईडीएफ के सैनिक हर जगह पर दुश्मन के खिलाफ लड़ रहे हैं. मैं इजराइल के सभी नागरिकों से सुरक्षा निर्देशों का पालन करने का आह्वान करता हूं. वहीं, हारेत्ज़ ऑनलाइन ने हमास की सैन्य शाखा के प्रमुख मोहम्मद डेफ़ के बयान के हवाले से कहा कि हमने दुश्मन को अल-अक्सा मस्जिद के खिलाफ अपनी आक्रामकता जारी नहीं रखने की चेतावनी दी है. उन्होंने कहा कि इज़रायल के ख़िलाफ़ हमास के नए हमलों का यह सिर्फ पहला चरण है. डेफ़ ने यरूशलेम और इज़रायल में नेगेव, गैलील और उत्तरी इज़रायल में अरबों से इस क्रांति में शामिल होने और कब्जाधारियों के पैरों के नीचे की धरती में आग लगाने की अपील की है.</t>
+  </si>
+  <si>
+    <t>फिलिस्तीन और इजरायल एक बार फिर आमने-सामने हैं. शनिवार सुबह फिलिस्तीनी आतंकियों ने इजरायल पर करीब 5 हजार रॉकेट दागे हैं. रॉकेट हमलों के बाद चारों तरफ तबाही का मंजर है. इस हमले के बाद इजरायली सेना ने कहा कि वह गाजा पट्टी में हमला कर रही है, क्योंकि हमास आतंकवादी समूह ने इजरायल के खिलाफ युद्ध छेड़ दिया है. इस घोषणा के बाद येरूशलेम में सायरन बज रहे हैं. सेना का कहना है कि इजरायल के कई क्षेत्रों में आतंकवादियों ने घुसपैठ की है. साथ ही इजरायल ने अपने नागरिकों को घर के अंदर रहने की सलाह दी है. हालांकि इजरायल और फिलिस्तीन के बीच दशकों से विवाद चल रहा है. इज़रायल और फिलीस्तीन के बीच की जंग दोनों ओर से ही आक्रामक अंदाज में लड़ी जाती है. अगर एक तरफ से एक मिसाइल दागी जाती है, तो दूसरी ओर से उससे कई गुना अधिक मिसाइलें दागकर जवाब दिया जाता है.इजरायल एक यहूदी देश है, जबकि फिलिस्तीन मुस्लिम बहुल देश है. इस पर हमास शासन करता है. ये जंग इजरायल की स्थापना के पहले से ही जारी है. फिलिस्तीन और कई मुस्लिम देश इजरायल को यहूदी राज्य के रूप में मानने से इनकार करते हैं. वहीं, इजरायल औऱ फिलिस्तीन दोनों दी देश येरूशलम को अपनी राजधानी मानते हैं. इन दोनों देशों के बीच सदियों से गाजा औऱ येरूशलम पर कब्जे की लड़ाई जारी है. भले ही दुश्मनी की तलवारें इस्लामिक उदय के साथ खिंच गई हों, लेकिन असली विवाद तब शुरू हुआ जब ओटोमन साम्राज्य खत्म हो रहा था.येरूशलम क्यों है दोनों धड़ों के लिए खास?पहला वर्ल्ड वॉर खत्म होने के बाद ओटोमन साम्राज्य की हार हो चुकी थी. वहीं, इतिहासकारों का कहना है कि पहले विश्व युद्ध के बाद मिडिल ईस्ट की पूरी तस्वीर बदल गई. युद्ध के बाद लोगों में राष्ट्रवाद की एक भावना पनपने लगी. विश्व युद्ध के बाद ये पूरा इलाका ब्रिटेन के हिस्से में आ गया, लेकिन जब यहूदियों ने स्वतंत्र देश की मांग की तो ज़ोरों की मांग ये भी उठी कि येरुशलम में यहूदियों के लिए एक जगह का निर्माण किया जाए, जिसे यहूदी सिर्फ अपना ही घर कहें. येरूशलम इजराइलियों और फ़िलिस्तीनियों का पवित्र शहर है. येरूशलम इजरायल-अरब तनाव में सबसे विवादित मुद्दा भी रहा है. ये शहर इस्लाम, यहूदी और ईसाई धर्मों में बेहद अहम स्थान रखता है. पैगंबर इब्राहिम को अपने इतिहास से जोड़ने वाले ये तीनों ही धर्म येरूशलम को अपना पवित्र स्थान मानते हैं. यही वजह है कि सदियों से मुसलमानों, यहूदियों और ईसाइयों के दिल में इस शहर का नाम बसता रहा है.यहूदियों और अरबों के बीच बंटीजमीनदूसरे विश्व युद्ध के बाद संयुक्त राष्ट्र ने एक प्रस्ताव लाकर दोनों ही देशों को अलग किया. जिसके बाद इज़रायल पहली बार दुनिया के वजूद में आया. सन 1947 में संयुक्त राष्ट्र ने एक प्रस्ताव पारित किया, जिसका मूल रूप बंटवारे को लेकर था. ब्रिटिश राज वाले इस इलाके को 2 भागों में बांट दिया गया, इसमें एक अरब इलाका और दूसरा यहूदियों का इलाका माना गया. जहां यहूदियों की संख्या ज्यादा है ,उन्हें इस्राइल दिया जाएगा. वहीं जहां अरब बहुसंख्यक हैं, उन्हें फिलिस्तीन दिया जाएगा. तीसरा था येरूशलम, इसे लेकर काफी मतभेद थे. यहां आधी आबादी यहूदी थी और आधी आबादी मुस्लिम. संयुक्त राष्ट्र संघ ने कहा कि इस क्षेत्र पर अंतरराष्ट्रीय नियंत्रण लागू होगा.कब हुआ इजरायल का जन्म?14 मई 1948 को संयुक्त राष्ट्र और दुनिया की नज़र में पहली बार इज़रायल का जन्म हुआ. इसी दिन इतिहास की पहली अरब और इज़रायली लड़ाई भी शुरू हो गई. ये लड़ाई करीब एक साल बाद 1949 में खत्म हो गई. इसमें इज़रायल की जीत हुई थी और करीब साढ़े सात लाख फिलीस्तीनियों को अपना इलाका छोड़ना पड़ा. अंत में ब्रिटिश राज वाला ये पूरा हिस्सा तीन भागों में बंट गया. जिसे इज़रायल, वेस्ट बैंक और गाज़ा पट्टी का नाम दिया गया.</t>
+  </si>
+  <si>
+    <t>अफगानिस्तान में शनिवार को एक के बाद एक आए तीनभूकंप के तेज झटकों ने तबाही मच दी. इसमें कम से कम 15लोगों की जान चली गई और 40 से अधिक लोग घायल हो गए. प्रशासन द्वारा राहत बचाव कार्य किया जा रहा है और लोगों को मलबे में निकालकर अस्पताल पहुंचाया जा रहा है.पहला भूकंप दोपहर 12:11 बजे आया, जिसकी तीव्रता 6.1 थी. इसके कुछ ही मिनट बाद 12:19 पर 5.6 तीव्रता वाले भूकंप से फिर धरती दहली. और फिर दोपहर 12:42 बजे रिक्टर पैमाने पर 6.2 तीव्रता का शक्तिशाली भूकंप दर्ज किया गया. भूकंपका केंद्र पश्चिमी अफगानिस्तान के एक प्रमुख शहरी केंद्र हेरात शहर से 40 किलोमीटर उत्तर पश्चिम में बताया गया है.अफगान अधिकारियों ने बताया कि भूकंप के झटकों से कई इमारतें क्षतिग्रस्त हो गईं, जिससे लोग मलबे में फंस गए. उन्हें निकालने के लिए रेस्क्यू ऑपरेशन चलाया गया है. घायलों को अस्पताल पहुंचाया गया है. इस दौरान कम से कम 15लोगों की मौत हुई है. आकंड़ बढ़ सकता है.</t>
+  </si>
+  <si>
+    <t>आतंकी संगठन हमास की ओर से दागे गए 5000 रॉकेट के जवाब में इजरायल ने 'ऑपरेशन आयरन स्वार्ड्स' लॉन्च किया है. इजरायल के कई लड़ाकू विमान गाजा पट्टी में हमास के ठिकानों पर बमबारी कर रहे हैं. इजरायली वायु सेना ने गाजा पट्टी में कई स्थानों पर हमास को निशाना बनाते हुए एक साथ दर्जनों लड़ाकू विमान को जंग में उतार दिया है.इससे पहले फिलिस्तीनी आतंकियों द्वारा इजरायल के कई रिहायशी इलाकों पर रॉकेट दागने के बाद इजरायल ने 'युद्ध की स्थिति' की घोषणा की थी. समाचार एजेंसी एपी के मुताबिक, इजराइल रेस्क्यू सर्विस ने बताया है कि हमास के इस हमले में कम से कम 22 इजराइली नागरिकों की मौत हुई है.वहीं, इजरायल के प्रधानमंत्री बेंजामिन नेतन्याहू ने अब एक वीडियो जारी करते हुए कहा है कि उनका देश इस युद्ध को जीतेगा. उन्होंने कहा है कि हम युद्ध में हैं और हम इसे जीतेंगे, हमारे दुश्मन (हमास) को ऐसी कीमत चुकानी पड़ेगी, जिसके बारे में उसने कभी सोचा भी नहीं होगा. "इजरायली सेना के प्रवक्ता ने मीडिया से बात करते हुए कहा है कि यह एक कम्बाइंड ग्राउंड अटैक था, जिसे पैराग्लाइडर, समुद्री और जमीनी माध्यम से किया गया. अभी हम गाजा पट्टी के आसपास कुछ जगहों पर लड़ रहे हैं. हमारी सेनाएं अभी जमीन पर लड़ रही हैं."आतंकियों कासफाया करने का आदेशः इजरायली पीएमऑपरेशन आयरन स्वोर्ड्स की घोषणा करते हुए इजरायल के प्रधानमंत्री बेंजामिन नेतन्याहू ने कहा है, " ये कोई मामूली ऑपरेशन नहीं है. हमास ने हमारे ऊपर हमला किया है और मैंने आदेश दिया है कि आतंकियों का सफाया किया जाए. हम आतंकियों और दुश्मनों को ऐसा सबक सिखाएंगे जिसकी उम्मीद उन्होंने कभी नहीं की होगी.#WATCH हम युद्ध में हैं, किसी ऑपरेशन या राउंड में नहीं। आज सुबह हमास ने इज़राइल और उसके नागरिकों पर एक जानलेवा हमला किया...दुश्मन को इसकी कीमत चुकानी पड़ेगी...हम युद्ध में हैं और हम इसे जीतेंगे: इज़राइल के प्रधानमंत्री बेंजामिन नेतन्याहू(वीडियो सौजन्य: इज़राइल के प्रधानमंत्री… pic.twitter.com/NLw1q7hB5eहमास ने बड़ी गलती की हैः इजरायली रक्षा मंत्रीशनिवार तड़के हमास आतंकी की ओर से रॉकेट हमले के बाद तेल-अवीव स्थित इजरायली सैन्य मुख्यालय में एक सुरक्षा कैबिनेट की बैठक की गई. बैठक के बाद इजरायल के रक्षा मंत्री योव गैलेंट ने कहा है कि हमास ने इजरायल पर हमला कर एक बड़ी गलती की है. उन्होंने कहा कि युद्ध की शुरुआत फिलिस्तीनी आतंकवादी समूह हमास ने की है लेकिन इसे इजरायल जीतेगा.रिपोर्ट के मुताबिक, इजरायली नागिकों और पुलिस ने दक्षिणी शहर सडेरोट के पुलिस स्टेशन में फिलिस्तीनी आतंकियों पर जमकर गोलीबारी की है.हमास का ऑपरेशन 'अल अक्सा स्टॉर्म'इजरायल पर हमले के बाद फिलिस्तीनी आतंकी संगठन हमास के नेता मोहम्मद डेफ ने बयान जारी करते हुए कहा है कि हमास ने इजरायल के खिलाफ एक नया सैन्य अभियान शुरू किया है. इस ऑपरेशन का नाम "ऑपरेशन अल अक्सा स्टॉर्म " रखा गया है.डेफ ने अपने बयान में कहा है, हमने यह फैसला किया है कि अब बहुत हो गया. हम सभी फिलिस्तीनियों से इजरायल का सामना करने का आग्रह करते हैं.इजरायल जीतेगाः नोर गिलोनफिलिस्तानी हमले के बाद भारत में इजरायल के अंबेसडर नोर गिलोन ने ट्वीट करते हुएकहा है, "फिलिस्तीनी आतंकियों ने दोतरफा हमला किया है. जमीन और आसमान... दोनों तरफ से अटैक हुआ है. उन्होंने कहा, यहूदी अवकाश के दौरान इजरायल पर गाजा से संयुक्त हमला हो रहा है. हमास आतंकवादियों की तरफ से रॉकेट और जमीनी घुसपैठ की गई है. स्थिति सामान्य नहीं है, लेकिन इजरायल जीत हासिल करेगा."#Israel is under a combined attack from Gaza during the Jewish holiday.Both by rockets and ground infiltration of Hamas terrorists.The situation is not simple but Israel will prevail.इजरायल पर हमले के बाद हमास के आतंकी ने मनाया जश्न</t>
+  </si>
+  <si>
+    <t>India vs Afghanistan Asian Games 2023 Gold Medal Match Update: भारत की पुरुष क्रिकेट टीम ने हांगझोउ एश‍ियन गेम्स में इत‍िहास रच दिया है. टीम इंडिया ने एश‍ियन गेम्स में गोल्ड मेडल हास‍िल किया है. इससे पहले महिला क्रिकेट टीम ने भी एश‍ियन गेम्स में गोल्ड मेडल जीता था.भारत और अफगान‍िस्तान का क्रिकेट का गोल्ड मेडल मैच बार‍िशकी वजह से रद्द हो गया. चूंकि ऋतुराज गायकवाड़ की कप्तानी में खेली रही टीम इंडिया शीर्ष रैंकिंग वाली टीम थी इसीलिए भारत को गोल्ड मेडल दिया गया. वहीं अफगान‍िस्तान को एश‍ियन गेम्स के स‍िल्वरस‍िल्वर मेडल से संतोष करना पड़ा. आज ही क्रिकेट का ब्रॉन्ज मेडल बांग्लादेश ने पाकिस्तान को हराकर जीता था.इससे पहले भारत ने मैच में टॉस जीता और कप्तान ऋतुराज गायकवाड़ ने पहले फील्ड‍िंग करने का फैसला किया. अफगान‍िस्तान की शुरुआत बेहद खराब रही. वहीं बार‍िश की वजह से जब मैच रुका तो अफगान‍िस्तान ने 112/5 (18.2 ओवर्स) का स्कोर बना लिया था.A post shared by Rinku 🧿🇮🇳 (@rinkukumar12)अफगान‍िस्तान की शुरुआत रही बेहद खराबअफगान‍िस्तान की शुरुआत बेहद खराब रही. अफगान‍िस्तान को पहला झटका श‍िवम दुबे ने द‍िया. श‍िवम ने सबसे पहले जुबैद अकबरी (5) को आउट किया. इसके बाद अफगान‍िस्तान का स्कोर 9 रन पर पहुंचा ही होगा, तभी अर्शदीप स‍िंह ने मोहम्मद शहजाद (4) को चलता कर दिया. शहजाद का कैच विकेटकीपर ज‍ितेश शर्मा ने लपका. अफगान‍िस्तान को 3.2 ओवर्स में 12 रन पर तीसराझटका लगा, जब नूर अली जादरान (1) रन पर आउट हो गए. इस स्कोर पर अफगानिस्तान संकट में घ‍िरती हुई द‍िख रही थी.क्ल‍िक करें: आख‍िरी गेंद पर चौका जड़कर बांग्लादेश ने पाकिस्तान के होश उड़ाए, जीताब्रॉन्ज मेडल फिर शाह‍िदुल्लाह कमल (49 नॉट आउट), अफसर जजई (15 ) ने अफगान‍िस्तान को संभालने की कोश‍िश की, पर पारी का 10वां ओवर लेकर आए रव‍ि बिश्नोई की गेंद पर अफसर गच्चा खा गए और बोल्ड हो गए. उस समय अफगान‍िस्तान के खाते में 49 रन जुड़े थे. फिर अफगान‍िस्तान का पांचवां विकेट करीम जनात (5) के रूप में गिरा. उनको शाहबाज अहमद ने बोल्ड किया.एश‍ियन गेम्स की कवरेज के ल‍िए क्ल‍िक करेंअंत में आकर अफगानी कप्तान गुलबदीन नईब (27 नॉट) ने शाह‍िदुल्लाह संग अफगानी पारी को संभाला, लेकिन 19 ओवर की दूसरी गेंद पर बार‍िश आ गई. इस कारण मैच आगे नहीं हो सका. बार‍िश ना रुकने की वजह से बाद में फाइनल रद्द कर दिया गया और भारत ने बेहतर वरीयता के कारण गोल्ड मेडल मिल गया. वहीं अफगानिस्तान को स‍िल्वर मेडल से संतोष करना पड़ा.</t>
+  </si>
+  <si>
+    <t>यात्रियों की सुरक्षा की जब भी बात आती है, तो एयरपोर्ट और मेट्रो को सबसे सुरक्षित माना जाता है. यहां सिक्योरिटी की इतनी चाकचौबंद व्यवस्था होती है कि किसी अपराधी द्वारा वारदात को अंजाम देना बहुत मुश्किल माना जाता है. एयरपोर्ट पर पहले एंट्री प्वाइंट पर आइडेंटिटी चेकिंग, फिर बोर्डिंग के बाद हर यात्री और उनके सामान की सघन तलाशी होती है. इसे देखकर हर यात्री के मन में यही सुकून होता है कि वो और उनका सामान यहां सबसे ज्यादा सुरक्षित है. लेकिन नहीं जनाब, ऐसा सोचना आपको कंगाल बना सकता है. आपको लाखों रुपए की चपत लगा सकता है. आप अपने कीमती सामानसे हमेशा के लिए हाथ धो सकते हैं. यकीन न हो तो दिल्ली एयरपोर्ट पर हुई इन वारदातों को जान लीजिए.16 सितंबर की बात है. पंजाब के तरन तारन की रहने वाली परमजीत कौर मेलबर्न से दिल्ली आईं. दुनिया कीबेहतरीन सिंगापुर एयरलाइंस में उनका सफर बहुत सुहाना रहा था. दिल्ली की धरती पर लैंड होते ही वो बहुत ज्यादा उत्साहित थीं. अमृतसर जाने के लिए उनको डोमेस्टिक फ्लाइट लेनी थी. वो जब इस फ्लाइट की बोर्डिंग के लिए पहुंची तो उनके समान का वजन अधिक पाया गया. इस वजह से जांच के लिए उनको अपना बैग खोलना पड़ा. परमजीत असमर्थ होने की वजह से व्हील चेयर पर थीं. इसलिए उनके सहायक की निगरानी में जांच होने के बाद क्लियरेंस मिल गई. सामान को व्यवस्थित करने के बाद उन्हें जाने की इजाजत दे दी गई. फ्लाइट लेने के बाद अमृतसर स्थित अपने घर पहुंच गईं.बैग खोलते ही यात्री के होश उड़ गएपरमजीत कौर अपने घरवालों से मिलकर बहुत खुश थीं. वो परिजनों के लिए कीमती सामान लेकर आई थीं. उन्होंने सामान देने के लिए अपना बैग खोला, लेकिन ये क्या? बैग में मौजूद सारे कीमती सामान जैसे कि गिफ्ट्स, जेवर और पर्स सब गायब थे. परिवार में कोहराम मच गया, क्योंकि लाखों रुपए के सामान गायब थे. परमजीत के परिजनों ने इंदिरा गांधी एयरपोर्ट पुलिस स्टेशनमें इस बाबत शिकायत दर्ज कराई. पुलिस ने केस दर्ज करने के बाद इस मामले की गंभीरता से जांच शुरू कर दिया. सीसीटीवी फुटेज खंगाले गए. इस दौरान कुछ संदिग्ध गतिविधियां दिखी तो उस वक्त ड्यूटी पर मौजूद लोडरों की लिस्ट बनाई गई. सबसे बारी-बारी से पूछताछ की गई. इसी दौरान एक लोडर ने सारा सच उगल दिया.ऐसे हुआ इस बड़ीवारदात का खुलासाआरोपी लोडर ने बताया कि वो और उसके साथी कैसे यात्रियों को बेवकूफ बनाकर उनके बैग से सामान निकाल लिया करते थे. उसके बाद कीमती सामानों को स्थानीय बाजारों में ले जाकर बेंच दिया करते थे. परमजीत से पहले भी उन्होंने कई यात्रियों के साथ ऐसा किया था. इस तरह पुलिस ने सात लोडरों को गिरफ्तार कर लिया है. उनकी निशानदेही पर यात्रियों के कीमती सामान बरामद कर लिए गए हैं. इनमें सोने के कई जेवर,आईपैड, महंगी घड़ियां और चश्मे आदि शामिल हैं. डीसीपी एयरपोर्ट देवेश माहला का कहना है कि एयरलाइंस के कुछ अधिकारियों की भूमिका की भी जांच की जा रही है. चोरी की ऐसी घटनाओं पर अंकुश लगाने के लिए संबंधित जरूरी काईवाई के लिए हम सक्रिय हैं.एयपोर्ट पर चोरी की ये कोई पहली वारदात नहीं है, इस तरह की घटनाओं काएक सिलसिलेवार क्रम है. केवल इसी साल ऐसी कई घटनाओं का पर्दाफाश किया जा चुका है. इसके बावजूद इन पर लगाम नहीं लग पा रहा है. इसके पीछे एक बड़ा गिरोह सक्रिय है, जिसके भांडाफोड़ की सख्त जरूरत है. आइए ऐसी कुछ घटनाओं के बारे में जानते हैं...सितंबर, 2023दिल्ली एयरपोर्टदिल्ली के रहने वाले अनिल कपूर इसी साल जून में अपने परिवार के साथ कनाडा जा रहे थे. उनको दिल्ली स्थित इंदिरा गांधी इंटरनेशनल एयरपोर्ट से लुफ्थांसा एयरलाइंस की फ्लाइट लेनी थी. बोर्डिंग के दौरान उनका बैग चेक किया गया, उसके बाद व्हील चेयर लेकर वो फ्लाइट लेने के लिए चले गए. कनाडा पहुंचने के बाद जब उन्होंने अपने बैग की तलाशी ली तो भी हैरान रह गए. उनके बैग से आईफोन 14 प्रो मैक्स (1 लाख 75 हजार रुपए) गायब था. इस फोन को वो अपने बेटे को देने वाले थे. उनकी शिकायत पर एयरपोर्ट थाने की पुलिस ने जांच शुरू की, तो एक के बाद एक कई मामलों का खुलासा हो गया. इस मामले में एक लोडर गिरफ्तार हुआ, जिसने पूरे गैंग का पर्दाफाश करा दिया.इस केस की जांच के दौरान पुलिस ने हाथ में बांधने वाली 13 महंगी घड़ियों के साथ अनिल कपूर का आईफोन भी बरामद कर लिया. हालांकि, इन सबमें चार महीने लग गए. सितंबर में पुलिस इस केस को सॉल्व कर पाई. लेकिन बड़ी सफलता मिली. उस वक्त दिल्ली पुलिस के एक अधिकारी ने बताया था कि एयरपोर्ट से सामान चोरी होने के मामले सामने आने के बाद से शिकंजा कसा जा रहा है. पुलिस ऐसे लोगों की तलाश कर रही है जो एयरपोर्ट से सामान, बैग, मोबाइल, घड़ियों की चोरी करते हैं. इस कड़ी में अब तक 25 आरोपियों को गिरफ्तार किया जा चुका है. ये सभी लोग चोरी की वारदात में किसी न किसी रूप में शामिल थे. इन सबके पास से चोरी किए गए कीमती सामान भी बरामद किए गए हैं.जनवरी, 2023दिल्ली एयरपोर्टइसी साल जनवरी में दिल्ली के आईजीआई एयरपोर्ट और विजिलेंस विभाग के संयुक्त ऑपरेशन में अलग-अलग एयरलाइंस के आठ लोडरों को गिरफ्तार किया गया था. इन सभी के पास से लाखों रुपए की कीमती घड़ियां, सोने-चांदी के जेवर, महंगे मोबाइल, आईपैड बरामद किए गए थे. गिरफ्तार किेए गए आरोपियों की पहचान दीपक पाल, गौतम कुमार, मोहसीन खान, राहुल यादव, यशविंदर, पप्पी कुमार, नीरज कुमार और कमल कुमार के रूप में की गई थी. उस वक्त दिल्ली के एयरपोर्ट के डीसीपी एयरपोर्ट रवि कुमार सिंह ने बताया था कि अलग-अलग शिकायतों के आधार पर पुलिस कार्रवाई से एयरपोर्ट पर हुईं चोरियों के चार बड़े मामले सुलझाए गए. इस दौरान एक बड़े गैंग का पर्दाफाश हुआ है.इस गैंग का सरगना दीपक पाल था. पुलिस द्वारा पूछताछ के दौरान दीपक ने बताया था कि वो ग्राउंड हैंडलिंग असिस्टेंट के तौर पर साल 2018 से जुड़ा हुआ है. उसे 18000 रुपए सैलरी मिलती है. इतने पैसों में उसके परिवार का गुजारा नहीं हो पाता है. यही वजह है कि उसने एक गैंग बनाकर यात्रियों के बैग से चोरी शुरू कर दी. इस वारदात में हर अपराधी की अलग-अलग भूमिका होती थी. ये लोग पहले बैग से सामान चुराते उसके बाद कुछ दिन के लिए एयरपोर्ट के लॉकर में रखते थे. फिर मौका देखकर गैंग का कोई सदस्य अपने अंडरगारमेंट्स में रखकर सामान को एयरपोर्ट से बाहर निकाल देता था. वहां बाजार में इन सामानों के ग्राहक पहले से तय होते थे. इस तरह चोरी को अंजाम दिया जाता था.जुलाई, 2023अमृतसर एयरपोर्टएयपोर्ट के अंदर चोरी की ऐसी वारदातें केवल दिल्ली में ही नहीं होती, बल्कि देश के कई एयरपोर्ट पर इस तरह की घटनाएं सामने आ चुकी हैं. इसी साल जुलाई में पंजाब के अमृतसर में श्री गुरु रामदास जी इंटरनेशनल एयरपोर्ट पर एक बुजुर्ग महिला पहुंची. उनको लंदन जाना था. बोर्डिंग होने के बाद वो सिक्योरिटी जांच के लिए जा रही थी. उसी वक्त एक लोडर उनके पास आ गया. उसने महिला से कहा कि वो इतनी सारी ज्वेलरी पहन फ्लाइट के अंदर नहीं जा सकती हैं. इसके बाद ज्वैलरी उतारकर बैग में रखने की सलाह दे दी. महिला ने उसकी बात मान ली, तो वो उन्हें लेकर टर्मिनल हॉल में गया. वहां सोने की चूड़ियां उतारकर बैग में रखवा दिया. महिला फ्लाइट लेने चली गईं. लेकिन लंदन पहुंचने के बाद जब उन्होंने अपना बैग चेक किया तो चूड़ियां गायब थीं. उनकी बेटी की शिकायत पर पुलिस ने आरोपी गुरप्रीत सिंह गोपी को गिरफ्तार कर लिया था.चोरी की वारदात में लोडर ही शामिल क्यों?एयरपोर्ट पर होने वाली चोरी की अधिकांश वारदातों में लोडर ही शामिल होते हैं. दरअसल, उनके पास ही सामान को फ्लाइट तक ले जाने की जिम्मेदारी होती है. बोर्डिंग के बाद सामान संबंधित फ्लाइट पर लोड होने के लिए भेज दिया जाता है. इस दौरान लोडर गैंग सक्रिय हो जाता है. सामान को ले जाते समय एक ब्लैक स्पॉट पर रोक दिया जाता है. वहां सामान के चारों तरफ गैंग के सदस्य खड़े हो जाते हैं. फिर एक चोर पेन से बैग की चेन खोल लेता है. इसके बाद महज कुछ सेकेंडों में कीमती सामान चुरा लेते हैं. ऐसी चोरियां रोकने के लिए सबसे जरूरी सर्विलांस और हर जगह हर एंगल से सीसीटीवी का होना जरूरी है. लेकिन चोरों का गैंग ऐसे ब्लैक स्पॉट निकालकर चोरी करता है.दिल्ली एयरपोर्ट पर चोरी की ज्यादा वारदात</t>
+  </si>
+  <si>
+    <t>इजरायल ने फिलिस्तीन को सबक सिखाने के लिए अपने फाइटर जेट युद्ध के मैदान में उतार दिए हैं.इजरायली सेना ने गाजा पट्टी में हमासके खिलाफ 'ऑपरेशन आयरन स्वॉर्ड्स' शुरू किया है.गाजा पर हवाई हमले शुरू कर दिए हैं.इजरायली वायुसेना के दर्जनों लड़ाकू विमानगाजा पट्टी में कई जगहोंपर आतंकवादी संगठन हमास के ठिकानों पर हमला कर रहे हैं. इस इलाके को बमों से पाट दिया है.इस बीच,इजरायल के प्रधानमंत्री नेतन्याहू ने बड़ा बयान दिया है. उन्होंने साफ कहा कि हम युद्ध में उतर गए हैं. ये कोई ऑपरेशन नहीं है. हमास ने इजरायल और उसके नागरिकों के खिलाफ जानलेवा हमला किया है. मैंने सबसे पहले घुसपैठ करने वाले आतंकवादियों की बस्तियों को साफ करने का आदेश दिया है. इसके अलावा, बड़े पैमाने पर हथियार जुटाने के लिए कहा है. दुश्मन को ऐसी कीमत चुकानी पड़ेगी, जिसके बारे में उसने कभी नहीं सोचा होगा.बता दें कि शनिवार सुबह फिलिस्तीनी आर्म्स ग्रुप हमास ने गाजा पट्टी से रॉकेट हमलों की झड़ी लगाई. ये हमले इजरायल पर किए गए. हमास ने हमलों की जिम्मेदारी ली और इसे इजरायल के खिलाफ सैन्य कार्रवाई बताया है. हमास ने गाजा पट्टी से करीब 20 मिनट में 5,000 रॉकेट दागे. इतना ही नहीं, इजरायल में घुसपैठ की और कुछ सैन्य वाहनों पर कब्जा कर लिया. इसके अलावा, इजरायल के पांच सैनिकों का अपहरण कर लिया है. हमलों में करीब 5 की मौत हुई है और 100 से ज्यादा घायल हुए हैं. इसके जवाब में इजरायल ने भी मोर्चा संभाल लिया है.'हमला सामान्य नहीं, इजरायल जीतेगा'फिलिस्तानी हमले के बाद इजरायल के रक्षा मंत्री का बयान आया है. उन्होंने कहा, हमास ने आज सुबह इजरायल के खिलाफ युद्ध शुरू करके एक बहुत बड़ी गलती कर दी है. वहीं, इस घटना के बाद भारत में इजरायल के अंबेसडर नोर गिलोन ने भी ट्वीट किया है. उन्होंने कहा, फिलिस्तीनी आतंकियों ने दोतरफा हमला किया है. जमीन और आसमान... दोनों तरफ से अटैक हुआ है. उन्होंने कहा, यहूदी अवकाश के दौरान इजरायल पर गाजा से संयुक्त हमला हो रहा है. हमास आतंकवादियों की तरफ से रॉकेट और जमीनी घुसपैठ की गई है. स्थिति सामान्य नहीं है, लेकिन इजरायल जीत हासिल करेगा.​'हमास ने बिना किसी चेतावनी के रॉकेट दागे'बता दें कि इजरायल ने 'युद्ध की स्थिति' की घोषणा की है और क्षेत्र में फिलिस्तीनी ठिकानों पर हमला किया है. यरुशलम समेत पूरे इजरायल में हवाई हमले के सायरन बजाए गए हैं. शनिवार को फिलिस्तीन ने अपने नियंत्रण वाले इलाका गाजा से हमला कर दिया. हमास के एक वरिष्ठ सैन्य कमांडर मोहम्मद दीफ ने ऑपरेशन की शुरुआत की घोषणा की. उन्होंने फिलिस्तीनियों से आखिरी कब्जे के खिलाफ लड़ने का आग्रह किया. उसके बाद बिना किसी चेतावनी के रॉकेट हमले शुरू कर दिए. यह अटैक तब हुआ, जब इजरायल यहूदी अवकाश मना रहा था. दर्जनों आतंकवादियों ने गाजा पट्टी से सेडरोट के पास इजरायल में घुसपैठ की.​'इजरायल में घुसे हमास के आतंकी'हमास के बंदूकधारियों के सोशल मीडिया पर वीडियो सामने आए हैं. इसमें जब्त किए गए इजरायली सेना के वाहन देखे जा रहे हैं. हमास ग्रुप के आतंकियों को इजरायल में प्रवेश करते देखा जा रहा है. इजरायली सेना ने कहा, बड़ी संख्या में आतंकवादियों ने इजरायली क्षेत्र में घुसपैठ की है. इजरायल हमास को आतंकवादी समूह मानता है. सेडरोट में कई इजरायली नागरिकों की गोली मारकर हत्या की गई है. कुछ गंभीर रूप से घायल हो गए हैं. कई सैनिकों को उनकी बैरक में गोली मार दी गई है.#Israel is under a combined attack from Gaza during the Jewish holiday.Both by rockets and ground infiltration of Hamas terrorists.The situation is not simple but Israel will prevail.​​'इजरायल में खूनखराबा कर रहे फिलिस्तानी आतंकी'फिलिस्तीनी आर्म्स ग्रुप हमास का दावा है कि हमने इजरायल के खिलाफ अपना सैन्य अभियान चलाया है. शनिवार सुबह इजरायल में रॉकेट से हमले किए हैं. इसके अलावा इजरायल के पांच सैनिकों का अपहरण कर लिया है. हमास का कहना है कि गाजा से 20 मिनट में 5,000 से ज्यादा रॉकेट दागे गए हैं. अल जजीरा ने हमास के हवाले से कहा, हमने कब्जे (इजरायल) के सभी अपराधों को खत्म करने का फैसला किया है. बिना जवाबदेही के माहौल खराब करने का उनका समय समाप्त हो गया है. हमास ने इजरायली क्षेत्र में घुसपैठ कर रहे अपने लड़ाकों की कुछ तस्वीरें भी जारी की हैं. इन तस्वीरों में ये लड़ाके हाथों में बंदूक थामे हैं और खुद को कवर कर रखा है. कुछ लड़ाकों टूव्हीलर से हैं और बॉर्डर के आसपास पहुंचते देखे जा रहे हैं.#WATCH | Gaza City: Visuals from Tel Aviv after barrage of rockets launched into Israel(Source: Reuters) pic.twitter.com/2xz81sW3PR​'घरों में घुसकर हमला कर रहे हैं हमास के आतंकवादी'इजरायल के विदेश मंत्रालय ने ट्वीट किया और कहा, आज सुबह हमास के दर्जनों आतंकवादी गाजा से इजराइल में घुस गए. हजारों इजरायली लोग अपने घरों में घुसे हैं. जबकि हमास के आतंकवादी दक्षिणी इलाके में बवाल काट रहे हैं. घरों में घुसपैठ की जा रही है. निर्दोष इजरायली परिवारों की हत्या करने की कोशिश कर रहे हैं. हम जमीनी स्तर पर जानकारी जुटा रहे हैं.​भारत में इजरायल के राजदूत ने बताया घटनाक्रम...</t>
+  </si>
+  <si>
+    <t>Sikkim में प्रलय आने का सबूत मिल गया है. 17,100 फीट की ऊंचाई पर साउथ ल्होनक लेक के मुंहाने की दीवार टूटी. इस दीवार को मोरेन (Moraine) कहते हैं. झील में पानी की मात्रा ज्यादा होने पर दीवार टूट गई. वो भी किनारे से. इस बात को दो सैटेलाइट तस्वीरें पुख्ता करती हैं. इन तस्वीरों को Maxar ने लिया है. इससे पहले ISRO ने भी सैटेलाइट तस्वीरें जारी की थीं.पहले इन दो कॉम्बो तस्वीरों से समझते हैं कि हुआ क्या. अगर बाएं से दाएं देखें... तो आपको साउथ ल्होनक लेक में जमी बर्फ और पानी दिखाई देगा. मुहाने पर जमा मोरेन की मोटाई और चौड़ाई भी ज्यादा दिखेगी. लेकिन दाहिनी तरफ जो तस्वीर हैं, उसमें मोरेन छितराया हुआ. टूटा हुआ दिख रहा है. पानी का लेवल भी कम है.इस झील पर ये आफत आई कैसे. असल में साउथ ल्होनक लेक पर ग्लेशियल लेक आउटबर्स्ट फ्लड यानी GLOF का खतरा काफी पहले से था. साइंटिस्ट इस बात की तस्दीक कई सालों से दे रहे थे. उस झील के बढ़ते आकार की स्टडी कर रहे थे. दो साल पहले भी IIT Roorkee और IISC Bengaluru के तीन वैज्ञानिकों ने इसके टूटने की आशंका जताई थी. लेकिन सरकार या प्रशासन ने इस तरफ ध्यान नहीं दिया.इन तस्वीरों से समझिए कि कहां टूटी लेकयहां ऊपर दी गई तस्वीर इस साल फरवरी की है. जिसमें लेक के बाएं तरफ ल्होनक ग्लेशियर (Lhonak Glacier) का निचला हिस्सा दिख रहा है. झील के चारों तरफ मोरेन दिख रहा है. यानी मिट्टी और पत्थरों की मोटी दीवार. उसके बाद ऊंचा पहाड़ों का निचला हिस्सा है. पानी के ऊपर बर्फ की पतली परत दिख रही है. जिसमें दरारें भी हैं. जिस जगह मोरेन में टूट हुई वो जगह भी ठीक दिख रहा है. पानी मोरेन तक पहुंचा ही नहीं है.यहां ऊपर दी गई फोटो झील के टूटने के दो दिन बाद की है. यानी 6 अक्टूबर 2023 की. बाएं तरफ ग्लेशियर की बर्फ की मात्रा भी ज्यादा दिख रही है. झील में पानी का स्तर भी कम दिख रहा है. बर्फ की पतली चादर टूट चुकी है. दाहिनी तरफ तीर के पास मोरेन टूटा हुआ है. 3-4 अक्टूबर की रात लगातार हुई भयानक बारिश की वजह से झील में पानी का स्तर बढ़ता चला गया. दबाव की वजह से मोरेन टूट गया. पानी, बर्फ और कीचड़ बहकर 62 किलोमीटर दूर चुंगथांग डैम तक पहुंच गया. इतना पानी वह डैम बर्दाश्त नहीं कर पाया. वह भी टूट गया. फिर चारों तरफ प्रलय ही प्रलय.कैसी है ये साउथ ल्होनक झील?साउथ ल्होनक झील एक प्रोग्लेशियल लेक है. यानी ग्लेशियर के पिघलने से निकले पानी से बनी झील. जो मोरेन टूटा है वह करीब 16.3 मीटर ऊंचा था. यानी करीब 54 फीट ऊंचा. अब आप सोचिए कि कितना पानी इस झील में भरा होगा कि 54 फीट ऊंची प्राकृतिक दीवार टूट गई. झील की गहराई 120 मीटर यानी 394 फीट है. यह पिछले चार दशकों से लगातार 0.10 वर्ग किलोमीटर से लेकर 1.37 वर्ग किलोमीटर की दर से बढ़ती जा रही थी. इसी वजह से वैज्ञानिक इसकी स्टडी कर रहे थे. ताकि सही समय पर आपदा की भविष्यवाणी कर सकें.साउथ ल्होनक झील पहले से ही टूटने की कगार पर थी. वैज्ञानिकों ने दो साल पहले यानी साल 2021 में ही इस लेक के टूटने की आशंका जताई थी. यह झील करीब 168 हेक्टेयर इलाके में फैली थी. जिसमें से 100 हेक्टेयर का इलाका टूट कर खत्म हो गया. यानी इतने बड़े इलाके में जमी बर्फ और पानी बहकर नीचे की ओर आया है.12 हजार से ज्यादा ग्लेशियर पिघल रहे हिमालय परपूरे हिमालय पर 12 हजार से ज्यादा छोटे-बड़े ग्लेशियर हैं. जो लगातार जलवायु परिवर्तन और ग्लोबल वॉर्मिंग की वजह से पिघल रहे हैं. इनसे बनने वाली ग्लेशियल लेक के टूटने का खतरा रहता है. 1985 में नेपाल में दिग त्शो झील के टूटने से बड़ी आपदा आई थी. 1994 भूटान में लुग्गे त्सो झील टूटने से भी ऐसी ही आपदा आई थी. 2013 में केदारनाथ हादसे ने 6 हजार से ज्यादा लोगों की जान ले ली थी. यहां भी चोराबारी ग्लेशियर टूटा था. जिससे प्रलय आया था.क्या दिखाया गया था इसरो की तस्वीर में... फिलहाल वैज्ञानिकों का कहना ये है कि अभी एकदम से नेपाल के भूकंप और सिक्किम के GLOG यानी ग्लेशियल लेक आउटबर्स्ट फ्लड को जोड़ा नहीं जा सकता. लेकिन हम इसके संबंधों की जांच कर रहे हैं. क्योंकि सिर्फ बादल फटने से इतनी बड़ी घटना नहीं हो सकती. अगर आप ISRO द्वारा जारी तस्वीरों को देखिए तो आपको पता चलेगा.इसरो ने तीन सैटेलाइट फोटो का कॉम्बो जारी किया है. अगर आप तस्वीर को बाईं तरफ से देखेंगे तो उसमें साफ दिखा रहा है अंतर. पहले हिस्से में दिख रहा है कि 17 सितंबर 2023 को झील करीब 162.7 हेक्टेयर क्षेत्रफल की थी. 28 सितंबर 2023 को बढ़कर 167.4 हेक्टेयर इलाके में फैल गई. 04 अक्टूबर को इसका क्षेत्रफल सिर्फ 60.3% ही बचा.झील का बहुत बड़ा हिस्सा टूटकर खत्म हो चुका है. यह तस्वीरें इसरो के RISAT-1A और यूरोपियन स्पेस एजेंसी (ESA) के सेंटीनल-1ए सैटेलाइट से ली गई हैं. साउथ ल्होनक ग्लेशियल लेक उत्तरी सिक्किम के मंगन जिले के चुंगथांग के ऊपर 17,100 फीट की ऊंचाई पर है. इस झील की गहराई करीब 260 फीट है. यह 1.98 KM लंबी और आधा किलोमीटर चौड़ी है.झील टूटने के बाद क्या हुआ?3-4 अक्टूबर के बीच की रात झील की दीवारें टूटीं. ऊपर जमा पानी तेजी से नीचे बहती तीस्ता नदी में आया. इसकी वजह से मंगल, गैंगटोक, पाकयोंग और नामची जिलों में भयानक तबाही हुई. चुंगथांग एनएचपीसी डैम और ब्रिज बह गए. मिन्शीथांग में दो ब्रिज, जेमा में एक और रिचू में एक ब्रिज बह गया. सिक्किम के राज्य आपदा प्रबंधन अथॉरिटी (SDMA) ने बताया कि पानी का बहाव 15 मीटर प्रति सेकेंड था. यानी 54 किलोमीटर प्रति सेकेंड.अगर 17 हजार फीट की ऊंचाई से पानी इस गति में नीचे आता है तो ये भयानक तबाही के लिए पर्याप्त है. इस फ्लैश फ्लड (Flash Flood) ने कई जगहों सड़कों को खत्म कर दिया. कम्यूनिकेशन लाइंस टूट गईं. क्लाइमेट चेंज के एक्सपर्ट अरुण बी श्रेष्ठ ने कहा कि तीस्ता नदी में आई फ्लैश फ्लड भयानक थी. बंगाल की खाड़ी में लो प्रेशर एरिया बना है. इसलिए ज्यादा बारिश हुई. जिसकी वजह से इतनी बड़ी आपदा आई है. अरुण ने कहा कि पिछले 24 घंटों में 100 मिलिमीटर से ज्यादा पानी बरसा है.साउथ ल्होनक लेक ही मुसीबत नहीं... ?यह झील चुंगथांग के ऊपर 17,100 फीट की ऊंचाई पर है. यह झील ल्होनक ग्लेशियर के पिघलने की वजह से बनी थी. झील का आकार लगातार बढ़ता जा रहा था. इसमें नॉर्थ ल्होनक ग्लेशियर और मुख्य ल्होनक ग्लेशियर पिघलने से पानी आ रहा था. 2021 में साइंस डायरेक्ट में एक स्टडी छपी थी. जिसमें कहा गया था कि अगर GLOF होता है तो ये झील भारी तबाही मचा सकती है. इसकी वजह से जानमाल और पर्यावरण को नुकसान होता है.साल 2013 में उत्तराखंड का चोराबारी ग्लेशियल लेक भी इसी तरह टूटा था. उसके ऊपर भी बादल फटा था. जिसकी वजह से केदारनाथ आपदा आई थी. दस साल बाद फिर वैसी ही घटना हिमालय में देखने को मिली है. इसके अलावा 2014 में झेलम नदी में फ्लैश फ्लड आने की वजह से कश्मीर के कई इलाकों में बाढ़ आ गई थी. 2005 में हिमाचल प्रदेश परेचू नदी में फ्लैश फ्लड से तबाही मची थी.केदारनाथ हादसा साल 2004 में आई सुनामी के बाद सबसे बड़ा हादसा था. वजह थी चोराबारी ग्लेशियर का पिघलना और मंदाकिनी नदी द्वारा अन्य जलस्रोतों को ब्लॉक करना. केदारनाथ आपदा में 6 हजार लोगों के मारे जाने की पुष्टि हुई थी. फरवरी 2021 में चमोली जिले के ऋषि गंगा, धुलिगंगा और अलकनंदा नदियों में भी ऐसा ही फ्लैश फ्लड आया था.संसद की स्टैंडिंग कमेटी ने की थी जांचसंसद की स्टैंडिंग कमेटी जांच-पड़ताल कर रही है कि देश में ग्लेशियरों का प्रबंधन कैसे हो रहा है. अचानक से बाढ़ लाने वाली ग्लेशियल लेक आउटबर्स्टस को लेकर क्या तैयारी है. खासतौर से हिमालय के इलाको में. यह रिपोर्ट 29 मार्च 2023 को लोकसभा में पेश किया गया है.जल संसाधन, नदी विकास और गंगा संरक्षण मंत्रालय ने बताया कि जियोलॉजिकल सर्वे ऑफ इंडिया (GSI) ग्लेशियरों के पिघलने की स्टडी कर रही है. लगातार ग्लेशियरों पर नजर रखी जा रही है. 9 बड़े ग्लेशियरों का अध्ययन हो रहा है. जबकि 76 ग्लेशियरों के बढ़ने या घटने पर भी नजर रखी जा रही है. अलग-अलग इलाकों में ग्लेशियर तेजी से विभिन्न दरों से पिघल रहे या सिकुड़ रहे हैं ग्लेशियर.अभी तो और भी आपदाओं की आशंकासरकार ने माना है कि ग्लेशियरों के पिघलने से नदियों के बहाव में अंतर तो आएगा ही. साथ ही कई तरह की आपदाएं आएंगी. जैसे ग्लेशियल लेक आउटबर्स्ट फ्लड (GLOF), ग्लेशियर एवलांच, हिमस्खलन आदि. जैसे केदारनाथ और चमोली में हुए हादसे थे. इसकी वजह से नदियां और ग्लेशियर अगर हिमालय से खत्म हो गए. तो पहाड़ों पर पेड़ों की नस्लों और फैलाव पर असर पड़ेगा. साथ ही उन पौधों का व्यवहार बदलेगा जो पानी की कमी से जूझ रहे हैं.हिमालय पर कम हो रही सर्दीलगातार हो रहे जलवायु परिवर्तन और बढ़ते तापमान की वजह से हिमालय पर Cold Days कैसे घटते जा रहे हैं. रिपोर्ट में बताया गया है कि हिमालय का तापमान लगातार बढ़ता जा रहा है. कोल्ड डेज़ और कोल्ड नाइट्स की गणना के लिए जम्मू और कश्मीर और हिमाचल प्रदेश में 16 स्टेशन हैं. लगातार गर्म दिन बढ़ रहे हैं. जबकि ठंडे दिन कम होते जा रहे हैं. पिछले 30 वर्षों में ठंडे दिनों में 2% से 6% की कमी आई है.</t>
+  </si>
+  <si>
+    <t>राजस्थान में चुनावी घमासान के बीच भाजपा, कांग्रेस और बसपा सहित सभी पार्टियां अपनी पूरी ताकत झोंक रही हैं, लेकिन राजस्थान की सत्ता के शीर्ष तक पहुंचने के लिए भाजपा और कांग्रेस की असल खींचतान 119 सीटों पर रहती है. प्रदेश में 60 सीट ऐसी हैं जिन पर हमेशा भाजपा का कब्जा रहता है तो 21 सीटों पर कांग्रेस जीतती आई है. लेकिन प्रदेश की 119 सीटें ऐसी हैं जिनको जीतने के लिए दोनों ही पार्टियां राजनीति का हर दांव-पेच खेलती हैं. इन सीटों पर जीतने हासिल करने के बाद ही पार्टी सत्ता में पहुंचती है.भाजपा का इन सीट पर रहता है कब्जाअगर विधानसभा चुनाव पर नजर डालें तो भाजपा को 5 बार पाली में जीत मिली है. जबकि 4 बार उदयपुर, लाडपुरा, रामगंज मंडी, सोजत, झालरापाटन, खानपुर, भीलवाड़ा, ब्यावर, फुलेरा, सांगानेर, रेवदर, राजसमंद, नागौर में जीत दर्ज की. साथ ही कोटा साउथ, बूंदी, सूरसागर, भीनमाल, अजमेर नॉर्थ, अजमेर साउथ, मालवीय नगर, रतनगढ़, विद्याधर नगर, बीकानेर ईस्ट, सिवाना, अलवर सिटी, आसींद में 3 बार बीजेपी ने जीत दर्ज कराई. जबकि 33 सीटों पर 2 बार भाजपा को जीत मिली है.कांग्रेस को इन पर मिलती रही है जीतइसी तरह कांग्रेस की बात करें तो 5 बार जोधपुर की सरदारपुरा सीट से कांग्रेस को जीत मिली. जबकि बाड़ी सीट पर 3 बार कांग्रेस जीती. 3 बार झुंझुनू में बागीदौरा, सपोटरा, बाड़मेर, गुढ़ामालानी, फतेहपुर में कांग्रेस ने जीत दर्ज कराई. साथ ही डीग कुमेर, सांचौर, बड़ी सादड़ी, चित्तौड़गढ़, कोटपूतली, सरदारशहर सहित 13 सीटों पर कांग्रेस को जीत मिली है.</t>
+  </si>
+  <si>
+    <t>शनिवार को नई दिल्ली के सुषमा स्वराज भवन में केंद्रीय वित्त मंत्री निर्मला सीतारमण (Nirmala Sitharaman) की अध्यक्षता में जीएसटी परिषद की बैठक (GST Counsil Meeting) हो रही है. ये जीएसटी काउंसिल की 52वीं बैठक है. सरकार ने इसमें एक बड़ा फैसला लिया है, जिसके तहत मिलेट्स से बने प्रोडक्ट्स पर लगने वाले टैक्स की दर में कटौती की गई है. रिपोर्ट के मुताबिक, इन उत्पादों पर अब 18 फीसदी की जगह 5 फीसदी जीएसटी लागू होगा.</t>
+  </si>
+  <si>
+    <t>पंजाब. भारतीय कमर्शियल रियल एस्टेट क्षेत्र मेट्रोपोलिटन एरिया से अलग महत्वपूर्ण वृद्धि का अनुभव कर रहा है. टियर 2 और टियर 3 शहर इंफ्रास्ट्रक्चर डेवलपमेंट में वृद्धि और बेहतर कनेक्टिविटी के कारण कमर्शियल विकास के केंद्र के रूप में उभरे हैं. इंफ्रास्ट्रक्चर डेवलपमेंटके विकास पर सरकार के फोकस से रोजगार के अवसर पैदा हुए हैं. डिजिटलीकरण और ई-कॉमर्स के बढ़ने के साथ-साथ टियर 2 और 3 शहरों में कमर्शियल स्पेसेस की आवश्यकता बढ़ गई है. स्थानीय कंपनियों और रिटेल को भी इस परिवर्तन से लाभ हुआ है, जिससे कमर्शियल रियल एस्टेट क्षेत्र को काफी बढ़ावा मिला है.बेहतर सड़कें, ट्रेनें और नए हवाई अड्डों ने कनेक्टिविटी को बढ़ाया है. इससे टियर 2 शहरों में ऑफिस इंफ्रास्ट्रक्चर डेवलपमेंट में क्रांति आई है. ऑफिस स्पेस की मांग के अलावा टियर 2 शहरों में रिटेल कंजप्शन में बढ़ोतरी देखी जा रही है. बढ़ती आय, "वर्क फ्रॉम होम" की प्रवृत्ति और अधिक आय ने निवासियों की खरीदने की क्षमता को बढ़ाया है. लीडिंग राष्ट्रीय और अंतर्राष्ट्रीय रिटेल ब्रांड टियर 2 शहरों को लक्षित करके इसका लाभ उठा रहे हैं, जिससे इन क्षेत्रों में रिटेल स्पेस विकास के लिए अनुकूल बन गए हैं.उत्तर भारत के पंजाब में चंडीगढ़ के बाहरी इलाके जिनमें मोहाली और पंचकूला शामिल हैं, ट्राइसिटी क्षेत्र में प्रगति देखी गई है. प्रमुख राजमार्गों और कमर्शियल हब्स तक आसान पहुंच होने के कारण ट्राइसिटी ने किराये की दरों और रेजिडेंशियल रियल एस्टेट रिटर्न में तेज वृद्धि के कारण आकर्षित किया है. आवासीय आबादी में वृद्धि और इंफ्रास्ट्रक्चर डेवलपमेंट में वृद्धि ने स्वाभाविक रूप से कमर्शियल विकास की मांग को प्रेरित किया है.</t>
+  </si>
+  <si>
+    <t>ज़िंदगी बहुत लंबी है, मगर दुनिया तो गोल है... ये बातें आपने बचपन से अभी तक कई बार सुनी होंगी. इस बड़ी सी ज़िंदगी में हम बहुत से लोगों से मिलते हैं. कुछ के साथ ताउम्र संपर्क बना रहता है, तो कुछ का साथ बचपन तक ही सिमटकर रह जाता है. मगर ज़हन में उसकी धुंधली यादें ज़रूर ज़िंदा रह जाती हैं. खासतौर पर उस ज़माने के लोगों के लिए जो बिना सोशल मीडिया, इंटरनेट के ही बड़े हुए हैं. आपके भी स्कूल के ऐसे कई दोस्त रहे होंगे, जिनके साथ आपने लंच किया, गेम्स खेले, स्कूल के बाद उसके साथ घर तक गए... मगर क्या आज भी वो दोस्त आपके साथ हैं?शायद नहीं. मगर उनकी वो बचपन वाली झलक ज़रूर याद होगी. वो स्कूल ड्रेस, वो टिफिन बॉक्स और वो स्कूल का दरवाज़ा. लेकिन अगर आपकी उसी दोस्त से एक बार फिर मुलाकात हो जाए, 10, 20 या 30 साल बाद, तो क्या आप उसे पहचान पाएंगे? मेरे ख्याल में ज़रूर, अगर आपको उसका नाम याद हो या उसके स्कूल-शहर का नाम पता चल जाए. कुछ ऐसा ही इन दो लोगों के साथ हुआ, जिनके बारे में हम आज बात करने वाले हैं. इनकी कहानी सुनकर पूरी दुनिया एक वक्त पर भावुक हो गई थी. मगर अब फिर कई साल बाद इनकी याद लोगों के ज़हन में ताज़ा हो उठी है.तो कहानी को शुरू से शुरू करते हैं... इसके दो किरदार हैं: पहला- आर्थुर बूथ और दूसरा- माइंडी ग्लेजर. बाकी टीनेजर्स की तरह ही आर्थुर का सपना एक सफल करियर बनाना था. वो गणित और विज्ञान में काफी अच्छे थे. परिवार और दोस्तों से हमेशा कहा करते थे कि मुझे बड़ा होकर न्यूरोसर्जन बनना है. वो मियामी बीच (अमेरिका के फ्लोरिडा राज्य में स्थित मियामी) के जिस नॉटिलस मिडिल स्कूल में पढ़ा करते थे, वहीं पर माइंडी ग्लेजर भी पढ़ती थीं. उनके भी कुछ सपने थे. पहले तो वो पशु चिकित्सक बनना चाहती थीं. लेकिन फिर वकील बनने का सोचा. वो लॉ स्कूल गईं और टॉप की वकील बन गईं.दुनिया ने देखी दोनों की मुलाकातये दोनों ही अपने अपने करियर के लिए ज़िंदगी के दो अलग रास्तों पर चल दिए. फिर दशकों बाद इनकी एक बार फिर मुलाकात हुई. माइंडी ने आर्थुर को देखते ही पहचान लिया. वो बोलीं- तुम तो वही हो जिसके साथ में फुटबॉल खेला करती थी. मगर तुम यहां कैसे? दरअसल ये मुलाकात कोर्ट रूम में हुई थी. जिसमें माइंडी जज थीं और उनके सामने थे अपराधी के रूप में खड़े आर्थुर. कोर्ट रूम का वीडियो पूरी दुनिया ने देखा.Man facing charges in court starts crying when he recognizes the judge from middle school pic.twitter.com/Ckj93TM9WHआर्थुर को जुए और ड्रग्स की लत थी. उन्होंने कई लूट की घटनाओं को अंजाम दिया था. वो पुलिस की गिरफ्त से भी भागे. सुनवाई शुरू होने पर वो ऐसे बर्ताव कर रहे थे, मानो उन्हें अपने किए पर कोई पछतावा ही न हो. मगर जब जज यानी कि माइंडी ने उनसे सवाल पूछा कि क्या आप नॉटिलस मिडिल स्कूल में पढ़ा करते थे. ये सुनकर आर्थुर फूट फूटकर रोने लगे. वो बुरी तरह टूट गए. कोर्ट रूम के इस वीडियो में दुनिया ने देखा कि कैसे स्कूल में पढ़ने वाले उन दोनों बच्चों में से एक ने तो अपना सपना पूरा कर लिया, मगर दूसरा ऐसा नहीं कर पाया.पूर्व क्लासमेट जब आमने सामने थे49 साल के आर्थुर के सामने उनकी पूर्व क्लासमेट माइंडी थीं. ये मुलाकात आर्थुर के स्कूल छोड़ने के बाद पहली बार हो रही थी. उनकी एक लंबी क्रिमिनल हिस्ट्री रही है. उन्होंने अपनी कम से कम आधी एडल्ट लाइफ जेल में ही गुज़ारी. वो ड्रग्स और सट्टेबाजी की लत के कारण अपराध की दुनिया में आए. उनका मकसद कम वक्त में ज़्यादा से ज़्यादा पैसा कमाना था. वो 17 साल की उम्र के बाद से ही जेल से अंदर बाहर होते रहे. जिसके कारण वो करियर नहीं बना पाए, जिसकी कभी उम्मीद किया करते थे. उनके परिवार का कहना है कि अगर वो गलत लत में न पड़ते तो जहां पहुंचे, वहां न होते.आर्थुर चोरी और जेल से भागने के आरोप में 43,000 डॉलर के मुचलके के साथ जेल में थे. इसे माइंडी ने सेट किया था. इससे पिछले अपराध में गिरफ्तार होने के बाद वो केवल 7 महीने ही जेल से बाहर रहे थे. यहां हम साल 2015 की बात कर रहे हैं. ये वीडियो तभी का है. इस वक्त से भी 35 साल पहले विलियम जे. ब्रायंट एलीमेंट्री स्कूल में अच्छे अंक लाने के बाद ही आर्थुर नॉटिलस मिडिल स्कूल में दाखिल हो पाए थे. यहीं वो माइंडी से भी मिले थे. ये 1970 के दशक में मियामी के सबसे अच्छे स्कूलों में से एक था. आर्थुर ने उस वक्त खुद से स्पैनिश भाषा सीखी. सीधे हाथ में छह उंगलियों के साथ पैदा हुए थे, तो परिवार को लगा कि जीवन में कुछ अच्छा ही करेंगे.1980 में आर्थुर बूथ ने नॉटिलस छोड़ाये बात 1980 के दशक की है, जब आर्थुर अच्छे अंकों के साथ नॉटिलस छोड़कर चले गए. वो मियामी बीच हाई स्कूल में भर्ती हुए. यहां वो 11वीं तक पढ़े. फिर ड्रॉपआउट हो गए. उस वक्त उन्हें सट्टेबाजी की लत लग चुकी थी. बस यहीं से उनकी ज़िंदगी बर्बाद होना शुरू हो गई. वो घरों और वेयरहाउस में घुसपैठ कर चोरी करने लगे. कोर्ट के रिकॉर्ड बताते हैं कि 18 साल का होने पर वो बड़ी चोरी के आरोप में जेल गए. बाद में ड्रग्स की लत लग गई. परिवार ने उन्हें इस गर्त से निकालने की खूब कोशिशें की, लेकिन वो नाकाम रहे. वो बस ड्रग्स के लिए पैसे चाहते थे, जिसके लिए उसकी तस्करी और चोरी करना ही एक रास्ता था.1988 में 22 साल की उम्र में आर्थुर को चोरी और डकैती करने पर 20 साल की कैद हुई. पैरोल पर बाहर आने से पहले वो 10 साल तक जेल में रहे. एक तरफ आर्थुर इन सबमें पड़ चुके थे. तो दूसरी तरफ माइंडी ने मियामी यूनिवर्सिटी से आर्ट्स में बी.ए. किया. इसके बाद उन्होंने सेंट थॉमस यूनिवर्सिटी स्कूल ऑफ लॉ से कानून की पढ़ाई की और 1991 में टैक्स लॉ में स्पेशलाइजेशन के साथ जे.डी. में ग्रेजुएशन की उपाधि हासिल की. उन्होंने इसके बाद अपनी प्रैक्टिस शुरू कर दी. बाद में लॉ स्कूल से उन्होंने एस्टेट प्लानिंग में मास्टर डिग्री भी प्राप्त की.वहीं दूसरी तरफ आर्थुर 32 साल की उम्र में रिहा हुए. तब ड्रग्स की लत तो जेल में रहने से छूट चुकी थी लेकिन सट्टेबाजी का शौक अब भी था. बाहर आने के एक साल के भीतर ही डकैती के अपराध में फिर जेल गए. बाकी की सजा भी पूरी करनी थी. 1997 में सड़क साफ करने के लिए बाकी कैदियों के साथ मियामी में थे. तब थोड़ी ही सजा बची थी लेकिन फिर भी जेल से भाग गए. दो महीने तक परिवार ने छिपाए रखा लेकिन फिर पकड़े गए. वहीं माइंडी साल 2000 में जज बन चुकी थीं. अब अगले 15 साल तक यानी 2015 तक आर्थुर बूथ जेल से अंदर बाहर होते रहे.माइंडी के शब्दों ने बदली ज़िंदगी</t>
+  </si>
+  <si>
+    <t>यूपी के देवरिया हत्याकांड का मामला गरमा गया है. विपक्ष के हमले के बीच योगी सरकार ने एक्शन लेना शुरू कर दिया है. इस मामले में प्रेमचंद्र यादव और उनके परिजन के घर पर ध्वस्तीकरण का नोटिस चस्पा होने के बाद सपा अध्यक्ष अखिलेश यादव का बयान आया है. अखिलेश ने एक्स पर लिखे पोस्ट में योगी सरकार को इशारों में एहतियात बरतने की सलाह दी है और शांति बनाए रखने की दिशा में कदम उठाने की अपील की.बता दें कि देवरिया कांड में अब प्रेम यादव के घर पर बुल्डोजर चलाए जाने की तैयारी है. प्रशासन की तरफ से प्रेम यादव के घर के बाहर एक नोटिस चस्पा किया गया है, जिसमें अवैध निर्माण का जिक्र किया गया है. नोटिस में लिखा है कि सरकारी जमीनों पर अतिक्रमण कर अवैध तरीके से पक्का निर्माण कर कब्जा किया गया है. 7 अक्टूबर को तहसीलदार की कोर्ट में पेश होकर कारण बताओ नोटिस का जवाब देना होगा. अन्यथा तहसील प्रशासन एकपक्षीय आदेश जारी करेगा और तय अवधि में अतिक्रमित जमीन या मकान के हिस्से को ढहा दिया जाएगा.'वातावरण को तनावमुक्त रखें'प्रशासन की इस कार्रवाई के बाद सपा अध्यक्ष अखिलेश यादव ने ट्वीट किया है. अखिलेश ने लिखा, देवरिया कांड में अगर किसी भी पक्ष के साथ अन्याय हुआ तो ये भी एक अपराध होगा. शासन-प्रशासन का दायित्व है कि वो वातावरण को तनावमुक्त करे और रखे. ऐसा कोई भी काम ना करे, जो माहौल बिगाड़े. शांति की कोशिश का अंत किसी की हत्या या हत्या का प्रतिकार नहीं हो सकता और ना ही ऐसी वारदातें किसी सत्ता के लिए सियासी फायदा उठाने का मौका होनी चाहिए.'जमीन को लेकर दोनों पक्षों में चल रहा था विवाद'बता दें कि राजस्व टीम ने पूर्व जिला पंचायत सदस्य प्रेम चंद यादव समेत पांच आरोपियों के मकान पर बेदखली का नोटिस चस्पा किया है. दो दिन पहले ही लेखपाल ने उत्तर प्रदेश राजस्व संहिता 2006 की धारा 67 के तहत तहसीलदार कोर्ट में 5 के खिलाफ वाद दाखिल किया था, जिसके बाद यह कार्रवाई की गई है. गौरतलब है कि फतेहपुर ग्राम के लेड़हा टोला के रहने वाले सत्य प्रकाश दुबे और अभयपुर टोला के रहने वाले प्रेमचंद यादव के बीच जमीन का विवाद चल रहा था. इसमें सत्य प्रकाश के के छोटे भाई ज्ञान प्रकाश ने अपने हिस्से की जमीन प्रेम चंद को बैनामा कर दी थी. इसी को लेकर आए-दिन दोनों पक्ष में झड़प हो रही थी.देवरिया कांड में अगर किसी भी पक्ष के साथ अन्याय हुआ तो ये भी एक अपराध होगा। शासन-प्रशासन का दायित्व है कि वो वातावरण को तनावमुक्त करे व रखे और ऐसा कोई भी काम न करे जो माहौल बिगाड़े।शांति की कोशिश का अंत किसी की हत्या या हत्या का प्रतिकार नहीं हो सकता और न ही ऐसी वारदातें किसी…'सरकारी जमीन पर कब्जे की शिकायत थी'सत्य प्रकाश की तरफ से तहसील और पुलिस-प्रशासन में शिकायत की गई थी कि प्रेम यादव ने सरकारी जमीन पर मकान खड़ा करवा लिया है. ये जमीन वन विभाग और सरकारी स्कूल की है. पुलिस- प्रशासन में अच्छी पकड़ होने के चलते फर्जी रिपोर्ट लगाकर मामले का निस्तारण किया दिया जाता है.'20 अभियुक्तों को जेल चुकी पुलिस'</t>
+  </si>
+  <si>
+    <t>ज्यादा से ज्यादा दर्शकों तक फिल्म पहुंचाने की कोशिश ने पैन इंडिया के फ़ॉर्मूले की शुरुआत की. साउथ की फिल्म इंडस्ट्रीज से लेकर बॉलीवुड की फिल्में भी अब एक साथ कई भाषाओं में रिलीज होने लगी हैं. कई ऐसी भी फिल्में बन रही हैं जिन्हें मेकर्स एक साथ दस भाषाओं में रिलीज करने वाले हैं. अलग-अलग भाषा बोलने वाले दर्शकों के लिए तो फिल्में तैयार हो ही रही हैं लेकिन डिफरेंटली एबल्ड या भिन्न शारीरिक क्षमताओं वालों तक भी सिनेमा पहुंचने लगे तो कितना बेहतरीन होगा!तेलुगू स्टार रवि तेजा की पैन इंडिया फिल्म 'टाइगर नागेश्वर राव' इसी महीने रिलीज होने को तैयार है. इस फिल्म से जुड़ीएक ऐसी जानकारी सामने आई है जिसके लिए मेकर्स की तारीफ की जानी चाहिए. रवि तेजा की ये फिल्म ऑरिजिनल तेलुगू वर्जन समेत हिंदी और अन्य भाषाओं में तो रिलीज होगी ही. साथ ही, इसे साइन लैंग्वेज में भी रिलीज किया जाएगा. इससे वो लोग भी फिल्म देख पाएंगे, जो सुन नहीं सकते.'टाइगर नागेश्वर राव' पहली भारतीय फिल्म बनने जा रही है जो थिएटर्स में साइन लैंग्वेज में रिलीज होगी. हालांकि इससे पहले भी कई फिल्में इस तरह की पहल करती रही हैं और इन्हें ऑरिजिनल रिलीज के बाद भारतीय साइन लैंग्वेज में भी रिलीज किया गया. भारत की ये साइन लैंग्वेज 1986 में डेवलप की गई थी. सिर्फ सुन पाने में अक्षम लोग ही नहीं, एजुकेशन से जुड़े बहुत लोग भी ये साइन लैंग्वेज यूज करते हैं.द कश्मीर फाइल्सपिछले साल की धमाकेदार हिट 'द कश्मीर फाइल्स' ओटीटी पर भारतीय साइन लैंग्वेज के साथ रिलीज हुई थी. ये पहली कमर्शियल बॉलीवुड फिल्म थी जिसने इस तरह की कोशिश की थी. इस मौके को यादगार बनाने के लिए 'द कश्मीर फाइल्स'की एक स्पेशल स्क्रीनिंग भी रखी गई थी जिसमें 500 ऐसे लोगों ने हिस्सा लिया था जो सुन नहीं सकते. इस स्क्रीनिंग में डायरेक्टर विवेक अग्निहोत्री, उनकी पत्नी और फिल्म की एक्ट्रेस पल्लवी जोशी और एक्टर दर्शन कुमार भी मौजूद थे.83रणवीर सिंह की फिल्म '83', 2021 में थिएटर्स में रिलीज हुई थी. डेफ कम्यूनिटी के लिए काम करने वाली एक संस्था इंडिया साइनिंग हैंड्स (ISH) ने इस फिल्म को साइन लैंग्वेज में रिलीज करने के लिए 83 के मेकर्स से हाथ मिलाया था. उनकी इस कोशिश को '83' के स्टार रणवीर सिंह ने भी सपोर्ट किया था. रणवीर ने साल 2020 में साइन लैंग्वेज को भारत की ऑफिशियल भाषाओं की लिस्ट में जगह देने के लिए डाली गई एक पिटीशन को भी सपोर्ट किया था.</t>
+  </si>
+  <si>
+    <t>बिग बॉस फैंस को हर साल शो के नए सीजन का बेसब्री से इंतजार रहता है. अब फैंस दिल थाम कर 'बिग बॉस 17' के लिए तैयार बैठे हैं. शो के लिए अब तक कई बड़े-बड़े नाम सामने आ चुके हैं. टेलीविजन एक्ट्रेसेस और यूट्यूबर्स के बीच बिग बॉस में एडल्ट कंटेंट क्रिएटर शिल्पा सेठी की भी एंट्री होने वाली है.बिग बॉस हाउस में आएंगी शिल्पा सेठीसलमान खान एक बार फिर पुराने स्टाइल और नए तेवर के साथ बिग बॉस 17 में धमाल मचाने को तैयार हैं. इस सीजन शो में कई बड़े और जाने-माने चेहरे दिखेंगे. इस लिस्ट में एडल्ट कंटेंट क्रिएटर शिल्पा सेठी का नाम भी जुड़ गया है. सनी लियोनी और पामेला एंडरसन के बाद शिल्पा शो की सबसे स्ट्रांग एडल्ट कंटेंट स्टार्स में से एक हैं.</t>
+  </si>
+  <si>
+    <t>ऋतिक रोशन की 'कोई मिल गया' आज भी फैन्स की फेवरेटफिल्म है. इस फिल्म की कहानी में आया एलियन अपने आप में एक यादगार किरदार था. ऋतिक के कैरेक्टर के साथ जादू की बॉन्डिंग वाले इमोशनल मोमेंट आज भी लोगों को इमोशनल कर देते हैं. अब तमिल इंडस्ट्री से एक फिल्म आ रही है जिसमें एलियन धरती पर आएगा. तमिल इंडस्ट्री के पॉपुलर स्टार शिवा कार्तिकेयन के लीड रोल वाली इस फिल्म का नाम है 'अयलान'. तमिल के शब्द अयलान का मतलब होता है एलियन.'अयलान' का टीजर आ गया है. फिल्म के बारे में आ रहीं अपडेट्स ही बता रही थीं कि ये एक बहुत एक्साइटिंग प्रोजेक्ट होने वाला है. और 'अयलान' का टीजर देखने के बाद ही आपका मन जल्दी से फिल्म देख डालने का करने लगेगा. टीजर से फिल्म की जो झलक मिल रही है वो शानदार है. ये नया एलियन जितना मजेदार है, उतना पावरफुल भी. और अपने इंसानी दोस्तों के साथ इसकी दोस्ती देखने लायक है. फिल्म के विजुअल्स भी बहुत दमदार हैं.मजेदार साइंस फिक्शन कहानी है 'अयलान'फिल्म का टीजर एक खास पावर सोर्स से शुरू होता है. डायनासोर के अंडों जैसा लगने वाला ये पावर सोर्स धरती पर ही है. टीजर में आगे शरद केलकर का किरदार एक एडवांस रोबोट के साथ दिखता है. ये सीक्वेंस ऐसा नजर आता है कि शरद फिल्म में नेगेटिव रोल कर रहे हैं. शायद उनका किरदार एडवांस तकनीक की मदद से अपने गलत इरादों को अंजाम देना चाहता है. 'अयलान' के टीजर में बहुत कुछ है जो एक सॉलिड साइंस-फिक्शन फिल्म के लिए एक्साइटमेंट बढ़ाता है.एलियन सभ्यता, स्पेस शिप, तमाम तरह की एडवांस टेक्नोलॉजी और सुपर पावर वाले लोग इस टीजर में नजर आते हैं. और इसी बीच एक स्पेसशिप से फिल्म का एलियन 'अयलान' नजर आता है. एलियन वाले सीन्स देखकर ही नजर आता है कि फिल्म का VFX बहुत बेहतरीन है. 'अयलान' के विजुअल्स एक ऐसा संसार तैयार कर रहे हैं, जिसमें दर्शकों को खो जाने का मन करेगा. कहानी में एलियन एकदम लाइव जीव लगता है और उसके चेहरे के बदलने एक्सप्रेशन बहुत कमाल लगते हैं.टीजर देखकर ऐसा लगता है कि पावर सोर्स से अलग-अलग टेक्नोलॉजी बना रहे साइंटिस्ट के एक्स्परिमेंट में कोई सिग्नल स्पेस में चला जाता है, जिससे अयलान के ग्रह के लोग धरती पर आते हैं. टीजर सेऐसा लगता है कि अयलान और उसके लोगों को, फिल्म में नजर आ रहे वैज्ञानिकों ने कब्जे में कर लिया है, लेकिन शिवा कार्तिकेयन का किरदार अयलान को छुड़ाने में कामयाब हो जाता है और अपने साथ ले आता है. अब अयलान का मिशन अपने ग्रह पर लौटना या अपने साथियों को मदद के लिए बुलाना है. लेकिन ये एलियन किसी भी तरह से मानवों को नुकसान नहीं पहुंचाना चाहता, बल्कि उनका अच्छा दोस्त बन जाता है.</t>
+  </si>
+  <si>
+    <t>बॉलीवुड के टॉप स्टार्स में से एक, अक्षय कुमार का समय बॉक्स ऑफिस पर बहुत अच्छा नहीं चल रहा. पिछले साल अक्षय की तीन फिल्में लाइन से सॉलिड कमाई करने में चूक गईं. इस साल भी अक्षय की शुरुआत अच्छी नहीं रही और इमरान हाशमी के साथ उनकी फिल्म 'सेल्फी' बहुत सस्ते में बॉक्स ऑफिस से निपट गई.अगस्त में अक्षय की 'OMG 2' तगड़ी हिट साबित हुई तो लगा कि शायद उनके लिए अब सबकुछ ठीक होने लगा है. लेकिन अब अक्षय की नई फिल्म 'मिशन रानीगंज' थिएटर्स में रिलीज हो चुकी है. और इस फिल्म के साथ जो हो रहा है वो बताता है कि अभी अक्षय के लिए सबकुछ ठीक नहीं हुआ है. अभी अक्षय को बॉक्स ऑफिस पर कामयाबी देखने के लिए थोड़ा और लंबा इन्तजार करना पड़ेगा. 'मिशन रानीगंज' को पहले ही दिन से ऐसी ठंडी शुरुआत मिली है कि थिएटर्स में इसका भविष्य कमजोर नजर आने लगा है.सॉलिड ओपनिंग में फेल 'मिशन रानीगंज'अक्षय की फिल्म शुक्रवार को थिएटर्स में पहुंचने वाली सबसे बड़ी फिल्म थी. रिपोर्ट्स बताती हैं कि इसे करीब 2500 स्क्रीन पर रिलीज किया गया है. लेकिन इस फिल्म को लेकर माहौल इतना ठंडा था कि इसकी बुकिंग, पिछले कुछ समय में अक्षय की सबसे बड़ी फ्लॉप 'सेल्फी' से भी कमजोर रही. इसी से लगने लगा था किअक्षय की फिल्म पहले दिन ही दम न तोड़ दे.ट्रेड रिपोर्ट्स बता रही हैं कि बॉक्स ऑफिस पर अक्षय की 'मिशन रानीगंज' के साथ ऐसा ही कुछ हुआ है. फिल्म ने पहले दिन 2 से 2.5 करोड़ रुपये की रेंज में कलेक्शन किया है. 2019 में बॉलीवुड के लिए बॉक्स ऑफिस पर सबसे बड़ा नेट कलेक्शन लेकर आने वाले अक्षय की फिल्म को इतनी फीकी शुरुआत मिलना शॉकिंग है.</t>
+  </si>
+  <si>
+    <t>यूपी के झांसी जिले में हैरान करने वाली घटना हुआ है. यहां पर तहसील दिवस का आयोजन किया गया था. इसमें जनता की तहसील से जुड़े कार्यों की परेशानियों सुनने और उन्हें दूर करने के लिए तहसीलदार सहित अन्य अधिकारी-कर्मचारी मौजूद थे. इसी दौरान एक युवक वहां पहुंचा और वह गले में प्रार्थन पत्रों की माला पहले हुए थे.पूछने पर युवक का कहना था कि यह वह प्रार्थना पत्र हैं जिन्हें वे जिम्मेदार अधिकारी-कर्मचारियों की बीते समय में अपनी जमीन से जुड़े मामले में दे चुका है, लेकिन उसकी परेशानी का समाधान नहीं हुआ है. तहसील दिवस पर पहुंचे व्यक्ति से तहसीलदार ने खुद मुकालात की और उसके परेशानी को जल्द से जल्द दूर करने का आश्वासन भी दिया है.दरअसल, मामला जिले के मऊरानीपुर क्षेत्र का है.तहसील के सिलगुआ गांव का रहने वालीकैलाश नाम का युवक तहसील दिवस के मौके पर तहसील कार्यालय पहुंचा था. उसे देख कर अधिकारी-कर्मचारी सहित अन्य लोग हैरान रहे गए.देखें वीडियो...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">उत्तर प्रदेश में हर बुधवार महिलाओं के बीच ‘शक्ति दीदी’ पहुंचेंगी और जागरूक करेंगी. इसके तहत महिला पुलिसकर्मी सार्वजनिक स्थानों और महिलाओं के बीच पहुंचकर योजनाओं के लिए उनको जागरूक करेंगी. महिलाओं से संबंधित कानूनों के बारे में भी बताएंगी. 'मिशन शक्ति' के तहत यूपी के गृह विभाग ने योजना तैयार की है. इसमें दूसरे विभाग के समन्वय से काम होगा.दरअसल, शारदीय नवरात्र पर यूपी सरकार आधी आबादी को जागरूक और आत्मनिर्भर करने के लिए एक पहल करने जा रही है. महिलाओं के लिए ख़ास तौर पर मिशन शक्ति अभियान के तहत 'शक्ति दीदी' की शुरुआत होने वाली है. हर सप्ताह बुधवार के दिन दो महिला पुलिसकर्मी की टीम गांव और शहरों में सार्वजनिक स्थानों पर महिलाओं के बीच पहुंचेगी. इन महिला पुलिस कर्मियों को शक्ति दीदी कहाजाएगा.योजनाओं का लाभ लेने के लिएकिया जाएगाप्रोत्साहित'शक्ति दीदी' का काम महिलाओं को जागरूक करना होगा. वर्तमान में केंद्र और राज्य सरकार की कई योजनाएं ऐसी हैं, जो महिला प्रधान हैं. ऐसे में महिलाओं को इन योजनाओं के बारे में जानकारी दी जाएगी. उन्हें योजनाओं का लाभ लेने के लिए प्रोत्साहित भी किया जाएगा.खास बात यह है कि इस अभियान के दौरान अलग-अलग विभागों के समन्वय से अभियान को सफल बनाया जाएगा. ग्राम पंचायत और न्याय पंचायतों में भ्रमण के दौरान शक्ति दीदी के साथ बैंक कॉरेस्पॉन्डेट सखी (BC Sakhi) राजस्व लेखपाल, एएनएम और आशा वर्कर भी मौजूद रहेंगी. शहरी क्षेत्रों में शक्ति दीदी अभियान के लिए अलग से योजना तैयार की गई है.योजनाओं की सूची तैयार कर बताया जाएगाप्रधानमंत्री मातृ वंदना योजना, बेटी बचाओ बेटी पढ़ाओ, प्रधानमंत्री उज्ज्वला योजना, पीएम स्वनिधि योजना, पीएम सम्मान निधि योजना, वन स्टाप सेंटर सेफ सिटी योजना, आयुष्मान योजना, सुरक्षित मातृत्व आश्वासन सुमन योजना, प्रधानमंत्री फ्री सिलाई मशीन योजना, महिला शक्ति केंद्र योजना, यूपी भाग्य लक्ष्मी योजना, मुख्यमंत्री अभ्युदय योजना और महिला ई-हाट योजना जैसी योजनाएं हैं. इनका लाभ महिलाओं को मिल रहा है. इनकी सूची तैयार करके महिलाओं को बताया जाएगा.विभिन्न विभागों के समन्वय से चलेगा अभियानदरअसल, यूपी के मुख्यमंत्री योगी आदित्यनाथ के निर्देश पर 'मिशन शक्ति' योजना की शुरुआत की गई थी. इसकी सफलता और महिलाओं में इसके प्रभाव को देखते हुए इसके दूसरे चरण के लिए 'शक्ति दीदी' अभियान को शामिल करने की योजना तैयार की गई है. गृह विभाग ने इसके लिए कार्ययोजना बनाई है. इसके तहत महिलाओं और बच्चों से संबंधित कानूनों जैसे घरेलू हिंसा, दहेज निषेध, कार्यस्थल पर लैंगिक उत्पीड़न, अनैतिक व्यापार निवारण, पॉक्सो, बाल विवाह निषेध, बाल श्रम की जानकारी भी महिलाओं को दी जाएगी. </t>
+  </si>
+  <si>
+    <t>उत्तर प्रदेश के देवरिया हत्याकांड में दबंग प्रेम चंद यादव पुत्र राम भवन यादव के मकान पर राजस्व टीम ने कल शाम बेदखली का नोटिस चस्पा किया था. साथ ही7 अक्टूबर यानि की आज तहसीलदार की कोर्ट संख्या 2 में स्वयं या अधिवक्ता के माध्यम से प्रस्तुत होकर कारण बताओ नोटिस का जवाब देना था. इस मामले में आज रामभवन यादव की छोटी बहू किरण और प्रेम यादव की बेटी कोर्ट पहुंचे.सुनवाई के बाद अब 9 अक्टूबर को तहसीलदार मौके पर जाकर निरीक्षण करेंगे और पक्ष सुनेंगे.अधिवक्ता गोपीनाथ यादव नेकहा किबताया एक नोटिस जारी किया,जिसमें वन विभाग की जमीन पर बाउंड्री वॉल और छप्पर से अतिक्रमण किया गया है, जबकि दो नोटिस साइलेंट थे. जिसे बताया नहीं गया था.अराजी संख्या 2726 में रकबा 20 एयर में 6 एयर पर मकान और बाउंडरी वाल दिखाया गया है जो नवीन परती की भूमि है.अराजी संख्या 2725 अराजी रकबा 45 एयर इसमे 20 एयर पर पक्की मकान और बाउंडरी वाल दिखाया गया यह भूमि खलिहान की है.अराजी संख्या 2742 रकबा 0.583 हेक्टेयर जमीन में 0.06 हेक्टेयर भूमि पर बाउंडरी वाल और छप्पर दिखाया गया है जो वन विभाग की भूमि हैपांच आरोपियों के मकान पर राजस्व टीम ने बेदखली का नोटिस चस्पा देवरिया हत्याकांड में दबंग प्रेम चंद यादव पुत्र राम भवन यादव समेत पांच आरोपियों के मकान पर राजस्व टीम ने बेदखली का नोटिस चस्पा कर दिया है. नोटिस में लिखा गया है कि इन्होंने सरकारी जमीनों पर अतिक्रमण कर अवैध तरीके से पक्का निर्माण कर कब्जा किया है. इसमें 7 अक्टूबर को तहसीलदार की कोर्ट संख्या 2 में स्वयं या अधिवक्ता के माध्यम से प्रस्तुत होकर कारण बताओ नोटिस का जवाब देना था.कहा गया था कि नोटिस का जवाब नहीं देने पर तहसील प्रशासन द्वारा एकपक्षीय आदेश जारी कर दिया जाएगा और तय अवधि में अतिक्रमण जमीन या मकान के हिस्से को ढहा दिया जाएगा. आपको बता दें कि लेखपाल ने 2 दिन पूर्व उत्तर प्रदेश राजस्व संहिता 2006 की धारा 67 के तहत तहसीलदार कोर्ट में 5 के खिलाफ वाद दाखिल किया था, जिसके बाद यह कार्रवाई की गईजमीन विवाद में 6 की हत्यागौरतलब है कि फतेहपुर ग्राम के लेड़हा टोला के रहने वाले सत्य प्रकाश दुबे और अभयपुर टोला के रहने वाले समाजवादी पार्टी के पूर्व जिला पंचायत सदस्य प्रेमचंद यादव के बीच जमीन का विवाद चल रहा था. इसमें सत्य प्रकाश के दुबे के छोटे भाई ज्ञान प्रकाश दुबे ने अपने हिस्से की जमीन प्रेमचंद यादव को बैनामा कर दिया थी,इसी को लेकर आए दिन विवाद चलता था.सत्य प्रकाश दुबे द्वारा तहसील व पुलिस प्रशासन में यह शिकायत की गई थी कि प्रेमचंद यादव ने सरकारी जमीन खलिहान की जमीन वन विभाग की जमीन और सरकारी स्कूल की जमीन पर कब्जा कर मकान बनवाया है, लेकिन प्रेमचंद यादव की पुलिस व प्रशासन में अच्छी पकड़ होने के चलते फर्जी रिपोर्ट लगाकर मामले का निस्तारण किया दिया जाता था.2 अक्टूबर को रुद्रपुर कोतवाली के फतेहपुर गांव में जमीनी विवाद में पहले प्रेम चंद यादव की हत्या की गई. उसके प्रतिशोध में सत्य प्रकाश दुबे समेत उनके परिवार के 5 सदस्यों की निर्मम हत्या की गई थी. इसमें सत्य प्रकाश की बड़ी बेटी शोभिता की तहरीर पर पुलिस ने 27 नामजद और 50 अज्ञात के विरुद्ध केस दर्ज करते हुए कुल 20 अभियुक्तो को जेल भेज दिया है.</t>
+  </si>
+  <si>
     <t>International</t>
   </si>
   <si>
-    <t>Judiciary</t>
-  </si>
-  <si>
-    <t>Crime</t>
-  </si>
-  <si>
-    <t>Politics</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>[0.02550327219069004, 0.23928289115428925, 0.7352138161659241]</t>
-  </si>
-  <si>
-    <t>[0.03572438284754753, 0.3980996906757355, 0.5661758780479431]</t>
-  </si>
-  <si>
-    <t>[0.0196144487708807, 0.5470166206359863, 0.4333689212799072]</t>
-  </si>
-  <si>
-    <t>[0.03539007529616356, 0.2038266509771347, 0.760783314704895]</t>
-  </si>
-  <si>
-    <t>[0.13641834259033203, 0.10976868867874146, 0.7538129687309265]</t>
-  </si>
-  <si>
-    <t>[0.04836668819189072, 0.31206926703453064, 0.639564037322998]</t>
-  </si>
-  <si>
-    <t>[0.023110968992114067, 0.4152328073978424, 0.5616562962532043]</t>
-  </si>
-  <si>
-    <t>[0.045387908816337585, 0.23251411318778992, 0.7220979928970337]</t>
-  </si>
-  <si>
-    <t>[0.03798646107316017, 0.2767384350299835, 0.6852750778198242]</t>
-  </si>
-  <si>
-    <t>[0.04109850898385048, 0.22538505494594574, 0.7335164546966553]</t>
-  </si>
-  <si>
-    <t>[0.03887229040265083, 0.27860838174819946, 0.6825193762779236]</t>
-  </si>
-  <si>
-    <t>[0.03464850038290024, 0.30220359563827515, 0.6631478667259216]</t>
-  </si>
-  <si>
-    <t>[0.046738676726818085, 0.3960159420967102, 0.5572453737258911]</t>
-  </si>
-  <si>
-    <t>[0.14079459011554718, 0.06946339458227158, 0.7897419333457947]</t>
-  </si>
-  <si>
-    <t>[0.03439716994762421, 0.19914491474628448, 0.7664579153060913]</t>
-  </si>
-  <si>
-    <t>[0.039912741631269455, 0.2192183881998062, 0.740868866443634]</t>
-  </si>
-  <si>
-    <t>[0.05181712657213211, 0.21924905478954315, 0.7289338707923889]</t>
-  </si>
-  <si>
-    <t>[0.030094491317868233, 0.3209322690963745, 0.6489731669425964]</t>
-  </si>
-  <si>
-    <t>[0.046384312212467194, 0.19357477128505707, 0.7600409388542175]</t>
-  </si>
-  <si>
-    <t>[0.031581077724695206, 0.4379933476448059, 0.5304255485534668]</t>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>[0.023664673790335655, 0.5869062542915344, 0.3894290626049042]</t>
+  </si>
+  <si>
+    <t>[0.018958132714033127, 0.6975951194763184, 0.283446729183197]</t>
+  </si>
+  <si>
+    <t>[0.022850017994642258, 0.5522276759147644, 0.424922376871109]</t>
+  </si>
+  <si>
+    <t>[0.028828667476773262, 0.5783408284187317, 0.39283040165901184]</t>
+  </si>
+  <si>
+    <t>[0.047338567674160004, 0.16193243861198425, 0.7907289862632751]</t>
+  </si>
+  <si>
+    <t>[0.043490584939718246, 0.3030831217765808, 0.6534262895584106]</t>
+  </si>
+  <si>
+    <t>[0.023351900279521942, 0.640821635723114, 0.33582642674446106]</t>
+  </si>
+  <si>
+    <t>[0.04109235107898712, 0.18179000914096832, 0.7771176099777222]</t>
+  </si>
+  <si>
+    <t>[0.05165330320596695, 0.4577498435974121, 0.49059686064720154]</t>
+  </si>
+  <si>
+    <t>[0.27456679940223694, 0.06733351200819016, 0.6580997109413147]</t>
+  </si>
+  <si>
+    <t>[0.05784957483410835, 0.38155806064605713, 0.5605924129486084]</t>
+  </si>
+  <si>
+    <t>[0.035867199301719666, 0.19559229910373688, 0.7685405015945435]</t>
+  </si>
+  <si>
+    <t>[0.04679860174655914, 0.3614276647567749, 0.5917737483978271]</t>
+  </si>
+  <si>
+    <t>[0.033064328134059906, 0.3057314157485962, 0.6612042784690857]</t>
+  </si>
+  <si>
+    <t>[0.06621981412172318, 0.14787302911281586, 0.7859071493148804]</t>
+  </si>
+  <si>
+    <t>[0.02632092870771885, 0.5538980960845947, 0.41978102922439575]</t>
+  </si>
+  <si>
+    <t>[0.02755475975573063, 0.38636109232902527, 0.5860841870307922]</t>
+  </si>
+  <si>
+    <t>[0.019618554040789604, 0.5825704336166382, 0.3978109657764435]</t>
+  </si>
+  <si>
+    <t>[0.041990261524915695, 0.23877866566181183, 0.7192310690879822]</t>
+  </si>
+  <si>
+    <t>[0.05463523790240288, 0.23469245433807373, 0.7106723785400391]</t>
   </si>
 </sst>
 </file>
@@ -693,13 +738,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,16 +763,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>56</v>
@@ -736,15 +784,18 @@
         <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -756,18 +807,21 @@
         <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>58</v>
@@ -776,18 +830,21 @@
         <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>59</v>
@@ -796,18 +853,21 @@
         <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>60</v>
@@ -816,75 +876,87 @@
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
@@ -893,38 +965,44 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -933,138 +1011,159 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>54</v>
@@ -1073,50 +1172,59 @@
         <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/server/Final_Prepped_Data.xlsx
+++ b/server/Final_Prepped_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
   <si>
     <t>Heading</t>
   </si>
@@ -28,7 +28,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>HindiBody</t>
+    <t>VideoText</t>
   </si>
   <si>
     <t>Cat</t>
@@ -37,337 +37,376 @@
     <t>Sentiment</t>
   </si>
   <si>
-    <t>Israel Palestine Conflict in Gaza: गाजा पट्टी पर रॉकेट्स की बौछार, हमास के 17 सैन्य ठिकानों पर अटैक... पढ़ें- कितना घातक है इजरायल का 'Iron Swords'</t>
-  </si>
-  <si>
-    <t>मजहब और जमीन की जंग से सना इतिहास, पढ़ें- इजरायल-फिलिस्तीन की अदावत की पूरी कहानी</t>
-  </si>
-  <si>
-    <t>Earthquake in Afghanistan: भूकंप के तेज झटकों से दहला अफगानिस्तान, 15 लोगों की मौत, कई घायल</t>
-  </si>
-  <si>
-    <t>हमास ने 20 मिनट में दागे 5 हजार रॉकेट, 35 को किया किडनैप... अब इजरायल का 'Iron Swords' से ताबड़तोड़ पलटवार</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India vs Afghanistan Asian Games 2023 Gold Medal: एश‍ियाड में भारत ने झटका क्रिकेट का गोल्ड मेडल, अधूरे मैच में कैसे टीम इंडिया बनी 'चैम्प‍ियन'?  </t>
-  </si>
-  <si>
-    <t>सावधान! एयरपोर्ट पर इस बात का ध्यान जरूर रखें, वरना 'कंगाल' हो जाएंगे</t>
-  </si>
-  <si>
-    <t>'दुश्मन ऐसी कीमत चुकाएगा...', हमास के खिलाफ नेतन्याहू ने किया युद्ध का ऐलान, गाजा को बमों से पाट दिया</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sikkim Flash Floods Proof : सिक्किम में कैसे आई प्रलय... दो Photos से जानिए पूरी कहानी </t>
-  </si>
-  <si>
-    <t>21 कांग्रेस तो 60 सीट BJP की 'फिक्स', 119 सीटों से तय होता है राजस्थान में किसकी बनेगी सरकार!</t>
-  </si>
-  <si>
-    <t>Millets से बने प्रोडक्ट्स पर GST में कटौती... 18 से घटाकर 5% करने का फैसला, घटेंगे दाम!</t>
-  </si>
-  <si>
-    <t>सुषमा ग्रुप ने बढ़ती कमर्शियल रियल एस्टेट मांग पर कड़ी पकड़ बनाई</t>
-  </si>
-  <si>
-    <t>एक जज-दूसरा क्रिमिनल... दो Ex Classmate की मुलाकात और हिल गया इंटरनेट!</t>
-  </si>
-  <si>
-    <t>देवरिया में प्रेम यादव का घर गिराए जाने की तैयारी? अखिलेश बोले- कोई भी ऐसा काम ना करें, जिससे माहौल बिगड़े</t>
-  </si>
-  <si>
-    <t>जो सुन नहीं सकते, उनके लिए साइन-लैंग्वेज में आएगी रवि तेजा की फिल्म... 'द कश्मीर फाइल्स' ने भी किया था ऐसा</t>
-  </si>
-  <si>
-    <t>बिग बॉस 17 में होगी एडल्ट कंटेंट स्टार शिल्पा सेठी की एंट्री, शो से पूरा होगा ख्वाब?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अयलान: निक्कर पहने, रेडियो सुनते एलियन की मजेदार कहानी, टीजर से ही शानदार दिख रही है शिवा कार्तिकेयन की फिल्म </t>
-  </si>
-  <si>
-    <t xml:space="preserve">पहले ही दिन फेल हुआ अक्षय का 'मिशन रानीगंज', खिलाड़ी कुमार को मिली पिछले 10 साल की सबसे छोटी ओपनिंग! </t>
-  </si>
-  <si>
-    <t>UP: आवेदन की माला पहन 'तहसील दिवस' में पहुंचा युवक, बोला- मेरी समस्या का नहीं हो रहा समाधान</t>
-  </si>
-  <si>
-    <t>UP: हर बुधवार महिलाओं के बीच पहुंचेंगी ‘शक्ति दीदी’, जानिए इस अभियान का उद्देश्य</t>
-  </si>
-  <si>
-    <t>देवरिया हत्याकांड: प्रेम चंद की जमीनों का तहसीलदार करेंगे मुआयना, कोर्ट में हुई सुनवाई</t>
-  </si>
-  <si>
-    <t>everything normal israel till saturday morning weekend lazy morning people slowly get ready start day smell gunpowder permeate atmosphere frightening sound siren start hear street fact palestine terrorist organization hamas fire thousand rocket israel minute israeli people die attack israel declare war hamas attack prime minister benjamin netanyahu declare war say country would exact unprecedented price enemy israel launch operation iron sword enemy time order give school holiday israel tomorrow ie sunday let tell school holiday israel sunday netanyahu say war not operation morning hamas launch deadly attack israel citizen enemy pay price war win say call chief security system order destroy hamas basis also order mobilize artillery large scale give befit reply hamas attack enemy pay unprecedented price allround attack gaza strip israel defense force idf say launch operation iron sword response attack hamas rocket fire gaza strip air land sea israeli air force say official twitter account dozen air force fighter plane attack military complex headquarters terrorist organization hamas throughout gaza strip idf spokesman rear admiral daniel hagari tell press conference rocket fire israel since israeli soldier fight intruder least seven place hamas claim thousand rocket fire gaza israel hand senior commander hamas islamic group control gaza strip claim thousand rocket fire gaza israel fire hama also claim fire rocket towards israel early morning name operation alaqsa flood also say hamass action aggression alaqsa mosque rocke directly southern gederot area</t>
-  </si>
-  <si>
-    <t>palestine israel face face saturday morning palestinian terrorist fire thousand rocket israel scene devastation around rocket attack attack israeli army say attack gaza strip hamas terrorist group launch war israel announcement siren ring jerusalem army say terrorist infiltrate many area israel israel also advise citizen stay indoor although dispute israel palestine go decade war israel palestine fight aggressively side missile fire one side side respond fire many time missile israel jewish country whereas palestine muslim majority country hamas rule war go since establishment israel palestine many muslim country refuse recognize israel jewish state time israel palestine consider jerusalem capital fight occupation gaza jerusalem go two country century although sword hostility draw rise islam real conflict begin ottoman empire come end jerusalem special faction end first world war ottoman empire defeat time historian say first world war entire picture middle east change war feeling nationalism start grow among people world war entire area come control britain jews demand independent country strong demand also raise place build jews jerusalem jews could call home jerusalem holy city israelis palestinians jerusalem also controversial issue israeliarab tension city hold important place islam judaism christianity three religion link prophet ibrahim history consider jerusalem holy place reason name city remain heart muslims jews christians century land divide jews arab second world war united nations bring resolution separate country</t>
-  </si>
-  <si>
-    <t>three strong earthquake occur one afghanistan saturday cause devastation least people lose life people injure relief work administration people take debris take hospital first earthquake occur pm whose intensity minute later earth shake earthquake magnitude pm powerful earthquake measure richter scale record epicenter earthquake report kilometer northwest herat city major urban center western afghanistan afghan official say many building damage tremor leave people trap debris rescue operation launch rescue injure take hospital least people die period figure may increase</t>
-  </si>
-  <si>
-    <t>israel launch operation iron sword response rocket fire terrorist organization hamas many israeli fighter plane bomb hamas position gaza strip israeli air force launch dozen fighter plane simultaneously target hamas several place gaza strip early israel declare state war palestinian terrorist fire rocket several residential area israel announce accord news agency ap israel rescue service say least israeli citizen die attack hama time israeli prime minister benjamin netanyahu release video say country not fight war win say war win enemy hamas pay price would never even think talk medium israeli army spokesperson say combine ground attack carry paraglider sea land mean right fight place around gaza strip force still ground fighting order eliminate terrorist israeli pm announce operation iron sword israeli prime minister benjamin netanyahu say not minor operation hamas attack order terrorist eliminate teach terrorist enemy lesson never expect watch war not operation round morning hamas launch deadly attack israel civilian enemy pay pricewe war win israel prime minister benjamin netanyahu video courtesy israel prime minister pictwittercomnlwqhbehamas make big mistake israeli defense minister rocket attack security cabinet meeting hold israeli military headquarters telaviv meeting israeli defense minister yoav galant say hamas make big mistake attack israel say war start palestinian terrorist group hamas israel win accord report israeli citizen police attack palestinian terrorist police station southern city sderot</t>
-  </si>
-  <si>
-    <t>india vs afghanistan asian games gold medal match update indias men cricket team create history hangzhou asian games team india win gold medal asian game early women cricket team also win gold medal asian game cricket gold medal match india afghanistan cancel due rain since team india play captaincy rituraj gaikwad top rank team hence india give gold medal whereas afghanistan satisfied silver medal asian game today bangladesh win bronze medal cricket defeat pakistan early india win toss match captain rituraj gaikwad decide field first afghanistan bad start match stop due rain afghanistan make score post share rinku rinkukumar afghanistans start bad afghanistan start bad shivam dubey give first blow afghanistan shivam first dismiss zubaid akbari afghanistan score would reach run arshdeep singh dismiss mohammad shahzad shahzad catch wicketkeeper jitesh sharma afghanistan suffer third blow run noor ali zadran run score afghanistan seem trouble click bangladesh stun pakistan hit four last ball win bronze medal shahidullah kamal not afsar zazai try handle afghanistan batsman make mistake ball ravi bishnoi bring th innings bowl time run add afghanistan account afghanistans fifth wicket fall form karim janat bowl shahbaz ahmed click coverage asian game finally afghan captain gulbadin naib not take afghan innings along shahidullah rain come second ball due match could not go ahead due nonstop rain final later cancel india get gold medal due well seeding whereas afghanistan satisfied silver medal</t>
-  </si>
-  <si>
-    <t>come safety passenger airport metro consider safe tight security system consider difficult criminal commit crime airport first identity checking entry point boarding intensive search every passenger luggage see every passenger feels relieve luggage safe sir think like make poor cost lakh rupee may lose valuable forever not believe know incident happen delhi airport th september paramjeet kaur resident tarn taran punjab come delhi melbourne journey world good singapore airline pleasant excited soon land delhi soil take domestic flight go amritsar reach boarding flight luggage find overweight open bag investigation paramjeet wheel chair due disability therefore investigation supervision assistant clearance give arrange luggage allow leave take flight reach home amritsar soon open bag passenger shock paramjeet kaur happy meet family bring valuable family open bag give stuff valuable present bag like gift jewelery purse miss chaos family good worth lakh rupee miss paramjeet family lodge complaint regard indira gandhi airport police station register case police start investigate matter seriously cctv footage scrutinize time suspicious activity see list loader present duty time make everyone interrogate one one meanwhile loader reveal whole truth big incident come light accuse loader tell companion use fool passenger take good bag use take valuable local market sell even paramjeet many passenger way police take seven</t>
-  </si>
-  <si>
-    <t>israel launch fighter jet battlefield teach palestine lesson israeli army start operation iron sword hamas gaza strip start air strike gaza dozen israeli air force fighter terrorist organization attack position hama many place gaza strip area fill bomb meanwhile israeli prime minister netanyahu give big statement clearly say enter war not operation hamas carry deadly attack israel citizen first order clear settlement infiltrate terrorist apart ask collect weapon large scale enemy pay price would never think let tell saturday morning palestinian arm group hamas launch series rocket attack gaza strip attack carry israel hamas claim responsibility attack call military action israel hamas fire rocket gaza strip minute not infiltrate israel capture military vehicle apart five israeli soldier kidnap people die injure attack response israel also take charge attack not normal israel win statement israels defense minister come palestinian attack say hamas make huge mistake start war israel morning time incident israeli ambassador india gilon also tweet say palestinian terrorist launch twopronged attack attack side land sky say jewish holiday joint attack israel gaza rocket ground infiltration hamas terrorist situation not normal israel win hamas fire rocket without warning let tell israel declare state war attack palestinian target area air raid siren sound throughout israel include jerusalem saturday palestine attack gaza area control mohammad deif senior hamas military commander announce beginning operation take last stand palestinians</t>
-  </si>
-  <si>
-    <t>evidence impending doomsday find sikkim wall mouth south lhonak lake break altitude foot wall call moraine wall break due excess water lake shore two satellite photo confirm photo take maxar early isro also release satellite photo first let understand happen two combo photo look left right see frozen ice water south lhonak lake thickness width moraine deposit mouth also visible picture right moraine scatter look break water level also low disaster happen lake fact threat glacial lake outburst flood glof south lhonak lake long time scientist confirm many year study increase size lake even two year ago three scientist iit roorkee iisc bengaluru express fear breakage government administration not pay attention understand picture lake break picture give february year low part lhonak glacier visible left side lake moraine visible around lake mean thick wall mud stone low part high mountain thin layer ice visible water also crack place moraine break also visible fine water not reach moraine photo give take two day breaking lake mean th october amount ice glacier also visible left water level lake also appear low thin sheet ice break moraine break near arrow right due continuous heavy rain night october water level lake keep increase moraine break due pressure water snow mud flow reach chungthang dam kilometer away dam could not tolerate much water break disaster around south lhonak lake south lhonak lake proglacial lake lake form water release melting glacier moraine break meter high mean foot high imagine much water would fill lake foot high natural wall break</t>
-  </si>
-  <si>
-    <t>amidst electoral battle rajasthan party include bjp congress bsp put strength real tussle bjp congress reach top power rajasthan remain seat seat state always hold bjp congress win seat seat state party play every trick politic win party come power win seat bjp remain control seat look assembly election bjp win pali time whereas win time udaipur ladpura ramganj mandi sojat jhalrapatan khanpur bhilwara beawar phulera sanganer revdar rajsamand nagaur also bjp win time kota south bundi sursagar bhinmal ajmer north ajmer south malviya nagar ratangarh vidyadhar nagar bikaner east siwana alwar city asind bjp win time seat congress win similarly talk congress congress win sardarpura seat jodhpur time whereas congress win bari seat thrice congress win thrice jhunjhunu bagidaura sapotra barmer gudhamalani fatehpur also congress win seat include deeg kumar sanchaur badi sadri chittorgarh kotputli sardarshahar</t>
-  </si>
-  <si>
-    <t>gst council meeting hold chairmanship union finance minister nirmala sitharaman sushma swaraj bhawan new delhi saturday nd meeting gst council government take big decision tax rate product make millet reduce accord report percent gst applicable product instead percent</t>
-  </si>
-  <si>
-    <t>punjab indian commercial real estate sector experience significant growth beyond metropolitan area tier tier city emerge hub commercial growth due increase infrastructure development well connectivity government focus infrastructure development create employment opportunity rise digitalization ecommerce need commercial space increase tier city local company retail also benefit change give major boost commercial real estate sector well road train new airport increase connectivity revolutionize office infrastructure development tier city apart demand office space increase retail consumption tier city rise income work home trend high income increase purchasing power resident lead national international retail brand take advantage target tier city make retail space area ripe growth tricity region include outskirt chandigarh punjab north india include mohali panchkula progress see easy access major highway commercial hub tricity attract sharp growth rental rate residential real estate return increase residential population increase infrastructure development naturally drive demand commercial development</t>
-  </si>
-  <si>
-    <t>life long world round must hear thing many time since childhood big life meet many people contact remain throughout life contact remain limited childhood hazy memory definitely remain alive mind especially people era grow without social medium internet may many friend school lunch play game go home school friend still today probably not childhood glimpse definitely remember school dress tiffin box school door meet friend year later recognize think sure remember name know name school town something similar happen two people go talk today whole world become emotional one time hear story many year memory become fresh mind people let start story beginning two character first arthur booth second mindy glaser like teenager arthur dream make successful career good mathematic science always tell family friend want become neurosurgeon grow mindy glazer also study nautilus middle school miami beach miami locate state florida usa also dream initially want become veterinarian think become lawyer go law school become top lawyer world see meeting follow different path life respective career decade meet mindy recognize arthur soon see say person use play football actually meeting take place court room mindy judge arthur stand front criminal whole world see video court room man face charge court start cry recognize judge middle school pictwittercomckjtmwharthur addict gambling drug carry many robbery incident also escape police listen</t>
-  </si>
-  <si>
-    <t>case deoria murder case heat amidst attack opposition yogi government start take action matter sp president akhilesh yadavs statement come demolition notice paste house premchandra yadav family post write twitter akhilesh advise yogi government take precaution gesture appeal take step towards maintain peace let tell deoria incident preparation run bulldozer prem yadavs house notice paste outside prem yadavs house administration illegal construction mention write notice government land encroach upon illegally construct occupy appear tehsildar court october answer show notice otherwise tehsil administration issue unilateral order encroached land part house demolish within stipulated period keep environment stress free sp president akhilesh yadav tweet action administration akhilesh write injustice party deoria incident also crime responsibility government administration keep environment stress free not anything spoil atmosphere end effort peace not murder retaliation murder incident opportunity power take political advantage dispute go two side regard land let tell revenue team eviction notice paste house five accuse include former district panchayat member prem chand yadav two day ago accountant file case tehsildar court section uttar pradesh revenue code action take noteworthy land dispute go satya prakash dubey resident ledha tola fatehpur village premchand yadav resident abhaypur tola satya prakashs young brother gyan prakash deede share land prem chand clash two side regard issue every day injustice party deoria incident also crime responsibility government administration keep environment stressfree not anything spoil environment end effort peace not murder retaliation murder thing</t>
-  </si>
-  <si>
-    <t>effort reach film many audience possible lead beginning pan india formula south film industry bollywood film release simultaneously many language many film also make maker go release simultaneously ten language film prepare audience speak different language would great cinema start reach differently able people different physical ability well telugu star ravi tejas pan india film tiger nageswara rao release month ready happen information relate film come light maker praise film ravi teja release hindi language include original telugu version besides also release sign language even people not hear able watch film tiger nageswara rao go first indian film release theater sign language however even many film take initiative original release also release indian sign language sign language india develop not hear impair people many people associate education also use sign language kashmir file last year blockbuster hit kashmir file release ott indian sign language first commercial bollywood film make attempt mark occasion special screening kashmir file also organize people could not hear participate director vivek agnihotri wife film actress pallavi joshi actor darshan kumar also present screening ranveer singh film release theater india signing hand ish organization work deaf community join hand maker release film sign language effort also support star ranveer singh ranveer also support petition include sign language list official language india</t>
-  </si>
-  <si>
-    <t>bigg boss fan eagerly wait new season show every year fan hold heart ready bigg boss many big name come forward far show among television actress youtuber adult content creator shilpa sethi also go enter bigg boss shilpa sethi enter bigg boss house salman khan ready create stir bigg boss old style new attitude many big wellknown face see show season adult content creator shilpa sethis name also add list sunny leone pamela anderson shilpa one strong adult content star show</t>
-  </si>
-  <si>
-    <t>hrithik roshan koi mil gaya still favorite film fan alien story film memorable character emotional moment magical bonding hrithiks character still make people emotional film come tamil industry alien come earth name film tamil industrys popular star shiva karthikeyan lead role ayalan tamil word ayalan mean alien teaser ayalan update come film tell go exciting project watch teaser ayalan start feel like watch film quickly glimpse film get teaser fantastic new alien fun powerful friendship human friend worth see visual film also powerful ayalan interesting science fiction story teaser film start special power source power source look like dinosaur egg earth teaser sharad kelkars character see advanced robot sequence appear sharad play negative role film perhaps character want carry evil intention help advanced technology lot teaser ayalan increase excitement solid sciencefiction film alien civilization space ship kind advanced technology people super power see teaser meanwhile film alien ayalan see spaceship watch alien scene see vfx film excellent visual ayalan create world audience feel like getting lose story alien seem live creature change expression face look amazing look teaser seem experiment scientist make different technology power source signal go space due planet aylan destroy people come earth teaser seem aylan people capture scientist see film shiva karthikeyans character manage free aylan bring along aylans mission return planet call companion help alien not want harm human way rather</t>
-  </si>
-  <si>
-    <t>akshay kumar one top star bollywood not good time box office last year three akshay film fail make solid earning year akshay start not good film selfie emraan hashmi sell cheaply box office august akshay omg prove big hit seem perhaps everything would fine think akshay new film mission raniganj release theatre happen film show everything not well akshay yet akshay wait little long see success box office mission raniganj get cold start first day future theater look weak mission raniganj fail solid opening akshay film big film reach theater friday report say release around screen atmosphere regard film cold booking even weak akshay big flop selfie recent time due seem akshay film might die first day trade report say something similar happen akshay mission raniganj box office film collect range rs crore first day shocking akshay film bring big net collection box office bollywood get lackluster start</t>
-  </si>
-  <si>
-    <t>surprising incident happen jhansi district tehsil day organize tehsildar officer employee present listen problem public solve meanwhile young man reach garland application letter around neck ask young man say application letter give responsible officer employee past matter relate land problem not solve tehsildar confront person arrive tehsil day also assure solve problem soon possible actually matter mauranipur area district young man name kailash resident silgua village tehsil come occasion tehsil day reach tehsil office see people include officer employee surprised watch video</t>
-  </si>
-  <si>
-    <t>every wednesday uttar pradesh shakti didi reach among woman create awareness woman policeman reach public place among woman make aware scheme also tell law relate woman home department prepare plan mission shakti work coordination department actually shardiya navratri government go take initiative make half population aware selfreliant shakti didi go start especially woman mission shakti campaign every week wednesday team two woman policeman reach woman public place village city woman police personnel call shakti didi encourage take benefit scheme work shakti didi make woman aware present many scheme central state government woman orient situation woman give information scheme also encourage take advantage scheme special thing campaign campaign make successful coordination different departments bank correspondent sakhi sakhi revenue accountant anm asha worker also present along shakti didi visit gram panchayat nyaya panchayat separate scheme prepare shakti didi abhiyan urban area list scheme prepare tell pradhan mantri matru vandana yojana beti bachao beti padhao pradhan mantri ujjwala yojana pm swanidhi yojana pm samman nidhi yojana one stop center safe city scheme like yojana ayushman yojana safe motherhood assurance suman yojana pradhan mantri free sewing machine yojana mahila shakti kendra yojana bhagya lakshmi yojana mukhyamantri abhyudaya yojana mahila ehaat yojana woman get benefit list prepare tell woman campaign run coordination various department actually mission shakti scheme start instruction chief minister yogi adityanath consider success impact among woman plan prepare include shakti didi campaign second phase home department prepare action plan law relate woman child like domestic violence dowry prohibition sexual harassment workplace unethical behavior etc</t>
-  </si>
-  <si>
-    <t>deoria murder case uttar pradesh revenue team paste eviction notice yesterday evening house ram bhawan yadav son dabangg prem chand yadav also th october ie today one appear tehsildar court person advocate answer show notice case today ram bhavan yadavs young daughterinlaw kiran prem yadavs daughter reach court hearing october tehsildar go spot inspect listen party advocate gopinath yadav say notice issue forest department land encroachment boundary wall thatch two notice silent not tell draft number area acre house boundary wall show acre new fallow land draft number area area acre show pucca house boundary wall acre land belong barn district number area hectare land boundary wall would show hectare land forest department land revenue team paste eviction notice house five accuse dabang prem chand yadav son ram deoria murder case revenue team paste eviction notice house five accuse include bhawan yadav write notice encroach government land illegally construct concrete structure october tehsildar court number appear person advocate respond show notice say notice not respond unilateral order would issue tehsil administration encroachment would stop within stipulated period part land house demolish let tell lekhpal file case tehsildar court day ago section uttar pradesh revenue code action take murder land dispute noteworthy resident ledha tola fatehpur village land dispute go satya prakash dubey former district panchayat member samajwadi party premchand yadav resident abhaypur tola satya prakash dubey young brother gyan prakash dubey deede share land premchand yadav dispute continue regard satya prakash dubey complain tehsil police administration premchand yadav government land barn land forest land</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Women's Reservation Bill cleared in key Cabinet meet chaired by PM Modi: Sources</t>
+  </si>
+  <si>
+    <t>'Have to eliminate Sanatana': Udhayanidhi on Tamil Nadu Governor's caste remark</t>
+  </si>
+  <si>
+    <t>Congress leader shot dead in Punjab, Khalistani terrorist takes responsibility</t>
+  </si>
+  <si>
+    <t>IND vs AUS: KL Rahul to captain side in first two ODIs, R Ashwin to play entire series</t>
+  </si>
+  <si>
+    <t>It would be suffocating, to hell with them: Owaisi on joining INDIA bloc</t>
+  </si>
+  <si>
+    <t>No alliance with BJP, matter will be decided during elections: AIADMK leader</t>
+  </si>
+  <si>
+    <t>Sena vs Sena: Supreme Court's 1-week deadline for Maharashtra Speaker</t>
+  </si>
+  <si>
+    <t>Women's reservation bill cleared by Cabinet? All you need to know</t>
+  </si>
+  <si>
+    <t>Welcome Union Cabinet's decision but...: Congress on women's reservation bill</t>
+  </si>
+  <si>
+    <t>'Carry on, bolne do': How Sonia Gandhi guided Adhir Ranjan in Lok Sabha</t>
+  </si>
+  <si>
+    <t>Another student dies by suicide in Kota, 26th case this year</t>
+  </si>
+  <si>
+    <t>Karnataka's Hoysala temples make it to Unesco's World Heritage List</t>
+  </si>
+  <si>
+    <t>DMK MP TR Baalu advises Udhayanidhi to be cautious, says 'Entire country...'</t>
+  </si>
+  <si>
+    <t>Sonia Gandhi shown as goddess in Telangana posters, BJP calls it 'shameful'</t>
+  </si>
+  <si>
+    <t>Telangana minister KTR to move censor board over 'Razakar' movie teaser</t>
+  </si>
+  <si>
+    <t>New Kia Sonet launch in India in first half of 2024</t>
+  </si>
+  <si>
+    <t>‘You can’t be super LoP’: Rajya Sabha Chairman scolds Congress’s Jairam Ramesh</t>
+  </si>
+  <si>
+    <t>Constitution copy, coin for MPs on special session in new Parliament building</t>
+  </si>
+  <si>
+    <t>Thiruvananthapuram Mayor brings her baby to work, sparks debate</t>
+  </si>
+  <si>
+    <t>Is this Covid-19 cure worse than the virus?</t>
+  </si>
+  <si>
+    <t>Delhi Police lady constable Murder case: कांस्टेबल मोना की हत्या के बाद उसके पर‍िजनों को कैसे बरगलाता रहा कात‍िल, सामने आई ऑड‍ियो कॉल्स</t>
+  </si>
+  <si>
+    <t>Firing In AMU: AMU में रातोरात धड़ाधड़ फायरिंग, आपस में भिड़े छात्रों के दो गुट</t>
+  </si>
+  <si>
+    <t>Khalistan Supporter Sukha Duneke Gunned Down In Canada; Wanted In Punjab For Serious Crimes</t>
+  </si>
+  <si>
+    <t>Why AIMIM MPs Asaduddin Owaisi and Imtiaz Jaleel Voted Against Women's Reservation Bill?</t>
+  </si>
+  <si>
+    <t>World Cup 2023: Gautam Gambhir praises Yuvraj Singh</t>
+  </si>
+  <si>
+    <t>India will teach a lesson to Justin Trudeau!</t>
+  </si>
+  <si>
+    <t>propose legislation ensure per cent reservation woman lok sabha state assembly clear union cabinet source tell india today tv monday government yet make official statement believe women reservation bill bring discussion ongoing special session parliamentthe meeting call pm first sitting special parliament session bill guarantee per cent quota woman lok sabha state assembly across political line several leader demand introduction key bill speculation around muchdebate women reservation bill round ever since special parliament session announce meanwhile congress claim bill longstanding demand party congress leader jairam ramesh welcome union cabinet decision also tweet could well discuss allparty meeting special session consensus could build instead operate veil secrecythe cabinet meeting chair pm modi attend union minister rajnath singh amit shah piyush goyal pralhad joshi jaishankar nirmala sitharaman dharmendra pradhan nitin gadkari arjun ram meghwal among</t>
+  </si>
+  <si>
+    <t>tamil nadu youth affairs sport minister udhayanidhi stalin monday respond tamil nadu governor right ravis remark social castebased discrimination state say need eliminate sanatana dharma birth equal event thanjavur sunday right ravi say social discrimination still problem tamil nadu ask udhayanidhi say also say governor say say eliminate sanatana also speak caste discrimination say birth equalwherever caste discrimination wrong raise voice news agency ani quote say sunday tamil nadu governor say exist social discrimination society unacceptable untouchability social discrimination large section brother sister not treat equally painful unacceptable not hindu dharma say hindu dharma talk equality news agency pti quote sayingclaime social discrimination still persist tamil nadu say every day read newspaper get report hear story brother sister schedule caste not allow access temple strange surprised shocked nowhere india bharat young people caste band wristsreacting ravis remark dmk spokesperson saravanan annadurai allege governor indulge false propagandahe not able stomach growth dravidian model governance achieve dravidian ideology propagate sanatan ideology wherever go speak virtue sanatana dharma sanatana dharma responsible caste systemif division society sanatana dharma saida udhayanidhi call elimination sanatana monday reiterate early stance subject spark controversy september udhayanidhi assert sanatana dharma like dengue malaria need eradicate however later clarify not call genocide follow sanatana dharma allege bjp</t>
+  </si>
+  <si>
+    <t>local congress leader shoot dead residence punjab moga district monday accord police unknown assailant barge house local leader identify baljinder singh balli open firethe incident capture cctv instal outside ballis residence dala village balli congress block president ajitwalhour later canadabased khalistani terrorist arsh dalla take responsibility murder detailed facebook post post dalla allege baljinder singh balli ruin future force gangster culture also mention congress leader behind mother police custody motivate seek revengearsh dalla list terrorist want national investigative agency nia operate canada last three four year involve many terrorist killing punjabbaljinder singh balli get haircut house get call unknown person allegedly request sign document assume routine matter balli leave house meet caller two bikeborne assailant fire upon balli flee scene cctv show assailant flee scene immediately attack leave singh critically injure rush nearby hospital succumb injury treatmentlocal authority alert incident police launch investigation</t>
+  </si>
+  <si>
+    <t>india release two set squad series australia kl rahul lead team first two odis r ashwin make return odi side first time since part squad entirety seriesindia use world cup squad final odi rohit sharma return side captain washington sundar pick asia cup final sri lanka follow axar patel injury squad first two match ravindra jadeja deputy rahul first two match like virat kohli hardik pandya rest ishan kishan tremendous form look carry form series aussie recently lose odi series south africa kishan flourish late middleorder play three match australia kuldeep yadav player series asia cup rest first two game squad st two odi kl rahul c wk ravindra jadeja vicecaptain ruturaj gaikwad shubman gill shreyas iyer suryakumar yadav tilak varma ishan kishan wicketkeeper shardul thakur washington sundar r ashwin jasprit bumrah mohd shami mohd siraj prasidh bcci bcci september india high confidence beat sri lanka asia cup final wicket mohammed siraj become player match rip opposition sixwicket haul back spell india bowl host chase target ball sparesquad st two odi kl rahul c wk ravindra jadeja vicecaptain ruturaj gaikwad shubman gill shreyas iyer suryakumar yadav tilak varma ishan kishan wicketkeeper shardul thakur washington sundar r ashwin jasprit bumrah mohd shami mohd siraj prasidh bcci bcci september india high confidence beat sri lanka asia cup final wicket mohammed siraj become player match rip opposition sixwicket haul back spell india bowl host chase target ball sparethe three odi india australia take place september mohali indore rajkot respectivelyindia squad first two odiskl rahul c wk ravindra jadeja vicecaptain ruturaj gaikwad shubman gill shreyas iyer suryakumar yadav tilak varma ishan kishan wicketkeeper shardul thakur washington sundar r ashwin jasprit bumrah mohd shami mohd siraj prasidh krishnasquad rd final odirohit sharma c hardik pandya vicecaptain shubman gill virat kohli shreyas iyer suryakumar yadav kl rahul wicketkeeper ishan kishan wicketkeeper ravindra jadeja shardul thakur axar patel washington sundar kuldeep yadav r ashwin jasprit bumrah mohd shami mohd siraj</t>
+  </si>
+  <si>
+    <t>india majliseittehadul muslimeen aimim chief hyderabad mp asaduddin owaisi monday lash oppositionle india bloc say would suffocate join alliancespeaking public gathering delhi owaisi say not part alliance bluntly remark hell iton not invite join india alliance say not care itwe not india alliance not care would suffocate not stand bjp ideology tell give ticket not get hindu vote owaisi saidi say openly say behind close wall hyderabad mp allegedfurther speech owaisi also train gun former congress president rahul gandhi say muslim league save drown wayanad lose amethi seat lok sabha election rahul gandhi lose amethi win wayanad asaduddin owaisi not contest election not deal bjp win wayanad muslim league muslim league save drown owaisi say owaisis barb rahul gandhi come day latter say opposition leader attack government agency case aimim leader prime minister narendra modi consider ownaddresse rally tukkuguda near ahead telangana assembly polls rahul gandhi say congress not fight bharat rashtra samithi br bjp aimimthere case kcr k chandrashekar rao case aimim opposition attack modi ji never attack people regard cm aimim leader therefore case rahul gandhi say</t>
+  </si>
+  <si>
+    <t>strain aiadmk bjp seem reach flashpoint monday senior leader dravidian party say alliance latter decision tieup would decide election lash tamil nadu bjp chief k annamalai criticism dravidian stalwart cn annadurai senior aiadmk leader jayakumar say party worker would not tolerate insult direct late chief minister far say annamalai make critical remark aiadmk leader include late j jayalalithaa party seek bjp leader restrain annamalai not desire alliance aiadmk although bjp worker want tolerate criticism leader carry bjp not set foot vote bank know know former minister tell reporter lash bjp state unit president not tolerate anymore criticism leader far alliance concern not bjp not aiadmk matter decide election stand said ask personal opinion jayakumar say ever speak capacity talk party decide</t>
+  </si>
+  <si>
+    <t>supreme court monday ask speaker maharashtra assembly set timeline hearing disqualification petition mla include chief minister eknath shinde within week chief justice india dy chandrachud give stern direction speaker rahul narwekar say top court ask decide matter four month disqualification petition file faction shiv sena eknath shinde faction uddhav thackeray camp bench observe total petition file side seek disqualification mlasthe shiv sena break two eknath shinde along several mla stage coup june maha vikas aghadi government lead uddhav thackeray thackeray resign maharashtra cm shinde take spot bjps devendra fadnavis deputy supreme court saidon monday supreme court bench comprise cji dy chandrachud justice jb pardiwala justice manoj misra hear plea file shiv sena ubt mla sunil prabhu seek expedite speaker decision disqualification plea side court say speaker ask may decide matter disqualification plea within reasonable period since not much apart issue notice mla july expect deference dignity direction issue supreme court bench say far say speaker tribunal tenth schedule constitution antidefection law tribunal amenable court jurisdiction sunil prabhus petition allege speaker rahul narwekar deliberately delay adjudication despite verdict supreme court may hand case disqualification speaker may supreme court refuse use special power article request uddhav thackeray camp say extraordinary circumstance instant case warrant exercise jurisdiction court adjudicate disqualification petition</t>
+  </si>
+  <si>
+    <t>propose women reservation bill clear key meeting union cabinet chair prime minister narendra modi source tell india today tv monday propose bill pende nearly year seek reserve onethird seat woman lok sabha state legislative assemblieswomen reservation billthe propose legislation seek per cent reservation woman lok sabha state assembly government yet confirm news give detail propose legislation structure bill last introduce parliament constitution one hundred eighth amendment bill seek reserve onethird seat woman lok sabha state legislative assembly reserve seat woman parliamentarian may allot rotation different constituency state union territorythe system reserve seat woman would cease exist year put place bill statedonethird total number seat reserve schedule caste schedule tribe shall reserve woman group lok sabha state assemblie history women reservation billthe bill first introduce lok sabha st amendment bill september prime minister deve gowdale united front government bill fail get approval house refer joint parliamentary committee submit report lok sabha december however bill lapse dissolution lok sabhain prime minister atal bihari vajpayeeled national democratic alliance nda government reintroduce bill th lok sabha law minister thambidurai introduce rashtriya janata dal rjd mp go well house grab bill tear bit bill fail get support lapse againit reintroduce even though support within congress bjp left party bill fail receive majority votesin prime minister manmohan singhle united progressive alliance upa government table bill rajya sabha pass vote march however bill never take consideration lok sabha lapse dissolution th lok sabhaat time rjd janata dal unite samajwadi party sp vocal opponent demand per cent reservation backward group within per cent quota womencurrent statusthe last concrete development issue rajya sabha pass bill amid ruckus marshal escort mp oppose move however bill lapse could not pass lok sabhaon monday first day parliament special session prime minister narendra modi hold cabinet meeting bill clear accord source several political party demand bill clear include congress bharat rashtra samithi biju janata dal government need twothird support house parliament bill take consideration passingargument billone key argument favour bill affirmative action need better condition woman indian society per stat reveal central government woman make per cent seat lok sabha number fall per cent rajya sabha percentage even low often fall single digit state assembly another key argument women representation need decisionmake process address issue high percentage crime woman low participation woman workforce low nutrition level skewed sex ratioargument billone key argument bill woman not homogeneous community caste group another argument state reserve seat woman would violate constitution guarantee equality make argument state reservation put place woman would not compete meritmany also argue not possible reserve seat rajya sabha due exist system election upper house rajya sabha mp elect single transferable vote mean vote first allocate preferred candidate next preferred candidate onthis system not accommodate principle reserve certain number seat particular group even scs st</t>
+  </si>
+  <si>
+    <t>congress monday welcome report union cabinet clear women reservation bill introduce lok sabha however party maintain would await detail propose billtaking x formerly twitter congress leader jairam ramesh say longstanding demand congress party implement women reservation welcome report decision union cabinet await detail billthe congress leader far say could well discuss allparty meeting parliament special session consensus could build instead operate veil secrecyhe also share detailed post make sunday underline congress support moveemphasising ongoing speculation regard clearance bill bharat rashtra samithi br leader k kavitha say every tv channel say women reservation approve however not officially announce cabinet yetthere could slip lip cup say brs leader add worry government work towards bring consensusthe bill guarantee per cent reservation woman lok sabha state assembly across political line several leader demand introduction key billhowever official announcement regard bill await government skip customary press briefing post cabinet meeting</t>
+  </si>
+  <si>
+    <t>leader opposition lok sabha adhir ranjan chowdhury monday give speech low house special session parliament say apprehension people mind country run oneparty dictatorship adhir ranjan chowdhury address house follow prime minister narendra modis opening remark first day fiveday special sitting notably sonia gandhi seat next actively assist guide deliver speech especially face frequent objection raise member ruling dispensationcarry carry carry true bolne let speak good end chowdhurys speech verbal interjection make sonia gandhi leader opposition speech lok saha minute long speech adhir ranjan chowdhury touch upon various issue include lack inclusivity parliament equal opportunity mp plurality even list achievement previous upa government throughout chowdhurys speech sonia gandhi actively see thump bench ask object speech stay quiet time even prompt senior congress leader say next prompt sonia gandhi speak information technology adhir ranjan chowdhury say information technology revolution bring tenure former prime minister rajiv gandhi also instrumental bring panchayati raj act establish democracy grassrootsspeaking inclusivity adhir ranjan chowdhury end speech quote popular dialogue yesteryears bollywood hit jindagi lambi nahi badi honi chahiye life big instead long</t>
+  </si>
+  <si>
+    <t>student allegedly die suicide rajasthans kota police say monday second case past two week th year coach hub rajasthanas per initial inquiry police say girl minor consume poison reason action yet knownaccorde police student resident uttar pradeshs mau areaadditional superintendent police bhagwat singh hinger say girl consume poison body send postmortemfurther investigation underwaytwo day ago yearold student prepare national eligibility cum entrance test neet die suicide hang rajasthan kotaaround two lakh student flock kota annually hope qualify competitive exam like joint entrance exam jee national eligibilitycumentrance test neeta per information total student die suicide kota eight month yearwith input jay kishan</t>
+  </si>
+  <si>
+    <t>hoysala temple karnataka locate belur halebidu somananthpura region make way unesco world heritage list announcement make unescos official handle x formerly twitter monday temple call sacred ensemble hoysala unescos tentative list since april finalise indias nomination consideration world heritage site january temple build th th century stand symbol creativity skill artist architect hoysala era hoysala empire rule large portion modern day state karnataka th th century capital empire initially locate belur later move halebiduthe hoysala temple basic traditional darvidian morphology show strong influence bhumija mode widely use central india nagara tradition northern western india karnata dravida mode favour kalyani chalukyas architect draw inspiration different type temple architecture result birth completely new hoysala temple formthe official website unesco say shrine temple characterise hyperreal sculpture stone carving cover entire architectural surface circumambulatory platform largescale sculptural gallery multitiered frieze sculpture sala legendprime minister narendra modi react news temple recognise world heritage site say timeless beauty intricate detail hoysala temple testament indias rich cultural heritage exceptional craftsmanship ancestor sunday announce west bengal santiniketan inscribe unesco world heritage list santiniketan landmark site know place rabindranath tagore build visvabharati century ago</t>
+  </si>
+  <si>
+    <t>dravida munnetra kazhagam dmk treasurer mp tr baalu issue cautionary note tamil nadu minister udhayanidhi stalin advise take careful step political career baalus remark come wake controversy stir udhayanidhi early compare sanatana dharma disease like dengue malaria call eradication address event mupperum vizha monday baalu say entire country scared dmk youth wing head wonder nextadvertisementudhayanidhi scared father emphasise udhayanidhi scared father dmk treasurer say speak anything think manage later caution remember duty make sure object hold hand not fall break emphasise udhayanidhi scared father dmk treasurer say speak anything think manage later caution remember duty make sure object hold hand not fall break baalu also point leader opposition india bloc initially react twist report udhayanidhis comment calm show accurate medium report far caution udhayanidhi mindful statement twist jealousydmks tr baalus statement come day party worker organise event celebrate birth anniversary revere figure kalaignar karunanidhi perarignar anna periyarudhayanidhi stalin remarksearlier month udhayanidhi son tamil nadu chief minister mk stalin liken sanatana dharma malaria dengue call eradication dmk minister argue sanatana dharma base caste system discriminationrather oppose sanatana eradicate name sanatana sanskrit social justice equality minister say udhayanidhi even post picture mosquito coil social medium add flame fireeven lead huge political controversy national level udhayanidhi say stand word clarify comment falsely portray call genocide</t>
+  </si>
+  <si>
+    <t>bharatiya janata party bjp slam congress poster portray former party chief sonia gandhi goddess put telangana poster show sonia gandhi dress goddess sport jeweled crown poster also depict map telangana emerge right palm term congress worker move shameful bjp spokesperson shehzad poonawala say grand old party always see parivar big country people poster put congress working committee cwc meeting hold hyderabad conclude sunday meeting hold discuss matter relate upcoming assembly poll state meeting attend senior congress leader include sonia gandhi rahul gandhi priyanka gandhi party chief mallikarjun kharge bjps reactiontake microblogge website x poonawala accuse congress make habit insult bharat say first congress leader like aradhna mishra say bharat mata ki jai party discipline past bd kalla say say sonia mata ki jai not bmkj congress equate sonia gandhi bharat mata like equate indira india utterly shamefulmeanwhile follow cwc meeting sonia gandhi address rally telanganas tukkuguda say dream see partys government telangana work section society along colleague opportunity part birth great state telangana duty elevate state new height say rallywith input apoorva jayachandran</t>
+  </si>
+  <si>
+    <t>teaser release razakar movie periodic drama depict event nizam hyderabad accession indian union ignite storm controversy social medium political landscape teaser claim base true story portray allege atrocity hindu commit razakar pursuit promote islam establish turkistanraising strong objection movie even teaser release telangana minister kt rama rao ktr say intellectually bankrupt joker bjp good instigate communal violence polarisation minister also say would take matter censor board telangana police intellectually bankrupt joker bjp good instigate communal violence polarisation political propaganda telangana take matter censor board also telangana police ensure law order situation telangana not affect ktr write x formerly know twitter ktrs response come reply social medium user urge minister prevent release describe fake propaganda movie maintain peace harmony hyderabad telangana teaser razakar movie back bjp leader gudur narayana reddy unveil sunday evening launch event suspend bjp leader goshamahal mla raja singh praise film draw comparison kashmir file kerala storyan excellent film title razakar soon release focus tragic event hyderabad massacre indias struggle independence specifically target hindus urge people help promote awareness movie nationwide contribute success raja singh tweet hindi even former telangana bjp chief karimnagar mp bandi sanjay kumar share teaser movie x literally get goosebump watch trailer movie razakar current generation know struggle hyderabad liberation let engage history even pseudointellectual try erase wrotewatch razakar teaser razakar meansthe term razakar refer volunteer part private militia lead qasim razvi president majliseittehadul muslimeen found razakar employ strongarm tactic maintain hyderabad independence tumultuous period follow indias independence reportedly enjoy support nizam government influential landlord seek suppress peasant uprising</t>
+  </si>
+  <si>
+    <t>kia india launch new sonet country first half would first major update sub metre compact suv get since initial introduction september kia sonet rival like maruti suzuki brezza tata nexon hyundai venue mahindra xuvwhile sonet volume driver kia along selto wholesale take hit past two monthsfor reference sonet record wholesale unit unit july august respectively much vehicle average monthly volume unit fy unit entire fiscalin face stiff competition compact suvs update kia sonet must enter market soonwe launch new sonet source tell india today add vehicle could possibly enter market first halfthe sonet one featureloade model compact suv segment boasting several segmentfirst segmentb feature offer multiple powertrain optionsdiligently price rs lakh rs exshowroom present sonet doubt one valueformoney model compact suv segmentin avatar expect sonet get even bell whistle price witness movement towards north well</t>
+  </si>
+  <si>
+    <t>rajya sabha chairman jagdeep dhankhar monday pull congress leader jairam ramesh intervention behalf leader opposition mallikarjun kharge not good habit victim habit not super lop not need assistance say dhankhar scold ramesh discussion parliamentary journey year start samvidhan sabha achievement experience memory learningsdhankhar remark come jairam ramesh congress leader ask let kharge speak commentate speech allow speak constantly interrupt say rameshchairman dhankhar go attack congress say party absent opportunity participate problem issue debated discuss deliberate walk house say tell ramesh not super lop chairman raise question congress disrupt parliament proceeding kharge say party follow step late bjp leader arun jaitley sushma swaraj opposition job parliament discuss whenever issue ignore create obstacle interest public system therefore parliamentary obstruction not call undemocratic kharge say quote remark make jaitely upper house proceeding january chairman respond remark say think carefully tell long continue disturb house base past precedent long continue justify disturbancethis kharge remark chairman allow speak participation could take place people not dhankhar say response ramesh urge chair expunge statement dhankar say not stakeholder politic certainly stakeholder upper house house elder conduct manner earn respect othershe also ask mallikarjun kharge put member discipline another opposition member urge chair not cast aspersion partiesin argument support disruption house proceeding kharge say congress attack follow footstep late bjp leader sushma swaraj say not allow parliament function also form democracy wordswith pti input</t>
+  </si>
+  <si>
+    <t>member parliament receive copy constitution india book relate parliament commemorative coin stamp opening day new parliament building tuesday giftbag contain present mp new parliament complex inaugurate prime minister narendra modi may day special parliament session take place new buildinga look gift mp commemorative coin gift bag contain copy constitution indiawhile rajya sabha meet pm upper house chamber new parliament build lok sabha meet pm low house chamber newly construct complexon monday mps hold discussion house parliamentary journey year start samvidhan sabha achievement experience memory learning</t>
+  </si>
+  <si>
+    <t>thiruvananthapuram mayor arya rajendran gain national attention young mayor country spark debate photograph work office onemonthold baby go viral social mediathe image mayor arya rajendran review file carry infant garner mixed reaction public commend trailblaze example woman effortlessly manage professional personal responsibility emphasise potential achieve perfect worklife balance many see action testament idea motherhood need not hinder woman career ambitionsbeside plaudit photo also draw criticism online trolling critic question authenticity image deem mere photo opportunity comment highlight privilege woman highranke position enjoy contrast challenge face daily wage laborer lack privilegesthe photograph spark important discussion regard need childcare facility include creche center within workplace simultaneously previous government directive discourage children presence government office resurface topic debatearya rajendran secure position young mayor country assume office age married cpim mla sachin dev young mla current kerala assembly couple welcome baby girl august far stoke discussion among netizen challenge opportunity face woman public office juggle motherhood</t>
+  </si>
+  <si>
+    <t>molnupiravir antiviral drug use treat covid subject extensive research debate due unique mechanism action drug work induce mutation sarscov virus lead viruss destruction however approach raise concern potential creation new treatmentresistant strain virusa team researcher include harvard professor mathematics biology martin nowak investigate concern study publish plos biology suggest molnupiravir marginally evolutionarily safe mean use correctly drug reduce viruss ability create surviving mutant team use math answer question whether molnupiravir could lead harmful mutation virus cause covidthe researcher develop mathematical rule describe increase decrease viral load infection compare total amount original mutant virus produce patient infection finding suggest patient receive molnupiravir produce mutant time patient not receive drug process know lethal mutagenesis occur virus reach error threshold point mutation make survival impossible researcher propose drug cause lethal mutagenesis pursue far evolutionary safety carefully evaluate drug work induce mutation sarscov virus photo gettymolnupiravir belong class drug call nucleoside analog also include drug use treat hiv researcher suggest drug even well ability cause lethal mutagenesis might evolutionarily safe molnupiravir however study also indicate molnupiravir may effective patient difficulty clear virus healthy patient clear virus quickly total number mutant remain low regardless whether receive drug</t>
+  </si>
+  <si>
+    <t>delhi police lady constable murder case</t>
+  </si>
+  <si>
+    <t>late night two group student clash aligarh muslim university also fire three people injure firing injure admit medical college police investigate matter watch video</t>
+  </si>
+  <si>
+    <t>sukhdool singh gill also know sukha duneke allege associate bambiha gang meet tragic end winnipeg canada unidentified assailant shoot sukha duneke want punjab charge include extortion attempt murder murder sukha duneke flee canada reportedly run extortion racket notably name recently appear list release national investigation agency nia allege involvement terrorrelate activity bambiha gang sukha duneke link longstanding rivalry lawrence bishnoi goldy brar gang sukha duneke also accuse murder kabaddi player sandeep naggal ambian kill kabaddi match punjab mallian village march investigation reveal duneke allegedly provide hideout killer</t>
+  </si>
+  <si>
+    <t>woman reservation bill aimim chief asaduddin owaisi say muslim obc woman get reservation say lok sabha muslim woman mp say muslim obc woman get reservation</t>
+  </si>
+  <si>
+    <t>team india consider big contender win world cup reason recent form team india statistic special player five indian player fear team around world perform per potential one stop team india win world cup today cricket show gautam gambhir praise yuvraj lot</t>
+  </si>
+  <si>
+    <t>india ask canadian diplomat return october america also intervene say touch india speak indian government urge cooperate canadas investigation big action indian government canadas baseless allegation murder terrorist nijjar canadian diplomat ask return october</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>elections</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/womens-reservation-bill-cleared-in-key-cabinet-meet-chaired-by-pm-modi-2437410-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/udhayanidhi-stalin-sanatana-dharma-remark-tamil-nadu-governor-2437418-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/congress-leader-shot-dead-in-punjab-baljinder-singh-balli-khalistani-terrorist-arsh-dalla-2437449-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/sports/cricket/story/kl-rahul-to-lead-india-squad-for-first-two-odis-against-australia-r-ashwin-gets-nod-2437395-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/asaduddin-owaisi-on-joining-india-bloc-rahul-gandhi-congress-aimim-2437434-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/no-alliance-with-bjp-matter-will-be-decided-during-elections-aiadmk-leader-tamil-nadu-2437235-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/law/story/supreme-court-maharashtra-assembly-speaker-set-deadline-shiv-sena-eknath-shinde-mlas-disqualification-2437286-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/womens-reservation-bill-cleared-history-status-arguments-2437423-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/congress-womens-reservation-bill-parliament-special-session-union-cabinet-meeting-2437417-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/parliament-session-adhir-ranjan-chowdhury-speech-sonia-gandhi-carry-on-lok-sabha-2437403-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/student-die-suicide-kota-rajasthan-2437387-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/karnataka-sacred-ensembles-of-hoysala-temples-unesco-world-heritage-list-2437383-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/india-scared-udhayanidhi-dmk-tr-baalu-sanatana-dharma-remark-2437284-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/elections/telangana-assembly-polls-2023/story/congress-sonia-gandhi-devi-poster-crown-telangana-bjp-calls-shameful-2437315-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/razakar-movie-release-ktr-to-move-censor-board-hits-out-at-jokers-of-bjp-2437356-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/auto/cars/story/new-kia-sonet-launch-in-india-in-first-half-of-2024-2437391-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/rajya-sabha-chairman-scolds-congress-jairam-ramesh-super-lop-house-disruptions-2437264-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/constitution-of-india-booklet-coin-for-mps-on-new-parliament-buildings-opening-2437361-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/india/story/youngest-mayor-arya-rajendrans-viral-photo-sparks-debate-on-work-life-balance-2437192-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.indiatoday.in/science/story/is-this-covid-19-cure-worse-than-the-virus-2437274-2023-09-18</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/india/delhi/video/delhi-police-head-constable-surendra-rana-kept-tricking-constable-mona-family-after-her-murder-audio-calls-revealed-1774425-2023-10-02</t>
+  </si>
+  <si>
+    <t>https://www.aajtak.in/uttar-pradesh/video/uttar-pradesh-news-firing-in-aligarh-muslim-universtiy-at-midnight-3-student-injured-1791270-2023-10-03</t>
+  </si>
+  <si>
+    <t>https://indianexpress.com/videos/news-video/khalistan-supporter-sukha-duneke-gunned-down-in-canada-wanted-in-punjab-for-serious-crimes/</t>
+  </si>
+  <si>
+    <t>https://indianexpress.com/videos/explained-video/why-aimim-mps-asaduddin-owaisi-and-imtiaz-jaleel-voted-against-womens-reservation-bill/</t>
+  </si>
+  <si>
+    <t>https://zeenews.india.com/video/news/world-cup-2023-gautam-gambhir-praises-yuvraj-singh-2670569.html</t>
+  </si>
+  <si>
+    <t>https://zeenews.india.com/video/news/india-will-teach-a-lesson-to-justin-trudeau-2670533.html</t>
+  </si>
+  <si>
+    <t>Surendra Rana murder horoscopeRobin has run away with her. His name was Arvind.hello hello hello brotherBrother, I am Arvind in Gurgaon.tell me the hand and the mind got marriedAnd I am going to Punjab right nowI will come to you near Rohtak in 10-15 days, okayyes brotherWhere is he? I currently live here brother.You trust me for 10-15 days.I had to talk about that, not now.She's not in the mood, she's very dry, okay?10:15 Brother, trust me, I will definitely come home but it's okay.i youHow did you know him? I was his friend and we both got married.ok and now my family is after meThat's why I am going to Punjab, it's okay for nowHanuman is with you in 10-15 days. Don't take tension, you trust me, it's okay.Let's keep this number on, I'll talk if I have to.Brother, I don't have a phone, I have taken this number from someone else.ok i will contact you myselfI have your numbers ok okCompleteI kept misleading you for 2 years and kept listening to the voice of Ajit.The planning itself was how to source such evidence which would show that Mona is alive and finally she was killed.What was the reason for getting caught?Phulpur: Delhi Police case professional killer had planned in 2021Who murdered his colleague female police constable butIf you have seen Drishyam movie then it is exactly on the same lines.He did complete planning and today whatever story line the Crime Branch official tells when youHe spoke in one line, he is alive even after death.And she was talking to her family on the phone, on the second line she told this</t>
+  </si>
+  <si>
+    <t>News from Aligarh where Aligarh Muslim UniversityThe police have been admitted to the medical college.There are two good nights in Aligarh campus and surprisingly there is firing there too.Who reached the campus with weapons and how did this question mark reach there?Having weapons inside the campus is also playing with the lives of other students and the police is now investigating this matter.Milk mixed together late at night is a case of Aligarh Muslim University.</t>
+  </si>
+  <si>
+    <t>Growing tensions between India and Canada over the killing of Khalistan separated Sandeep in Canada in June.extortionRunning and extortion racket is also namedBeing involved in terror related activities in BombayDuring a Kabaddi match in MarchIt was a legend tha he had provided the hide out to the colors at a relative's home in Amritsar Suggested tha in 2017 had applied forNegligent in their duty and did not report all the cases registered againSeven criminal cases tha time the police allegedly mentioned on 5 cases and skipped the two in which he was declared a proclaimed offenderS managed to get an IndianReporting the criminal history of Gill in the police verification report for issue of the passport the letterCriminal case needs to be registered against skill and the police officials</t>
+  </si>
+  <si>
+    <t>690 women women MP 7 elected till the 17 Lok Sabha and out of this 690 on 25 have come at the Muslim community in 576291 99 There Have Been No Muslim Women Go ElectedAnother back in Lok Sabha nowAnd we had also introduced an amendment for Muslim women.If Nishad is a Muslim woman, then there should be a reference to her. What is the purpose of bringing the bill that they should be elected in the Lok Sabha and in the State Assemblies?690 women MPs have been elected so far, out of which 25 are Muslims.And there were four such Lok Sabhas where no Muslim woman MP was alerted, out of 57, out of 62, out of 91, out of 92, so we are saying that nowMuslim women OBC women should get more Muslim women members</t>
+  </si>
+  <si>
+    <t>has appliedIrshad Irshad Team India's World Cup preparations could not be completedTeam India's World Cup preparations could not be completed in full, now Guwahati first.Match abandoned due to rain in Thiruvananthapurambrother this is nothingWe are playing every day, whoever plays with the rain, we have got the money, Asia Cup is done.Is the World Cup going to be held here?How much rain is going to come in front of India because this rain has created a problem.Team before World Cup after Asia Cup and Australia tourHaven't been able to get a chance to practice on the one hand and in a big team continuouslyAnd here in the practice of the Indian team, it has rained heavily.Man wants to start India's abbey because of rainThe second practice match with Netherlands has been canceledThe practice which was also held in Guwahati against England just before the World Cup before the tractor game.Will play World Cup whether it is Pakistan or AustraliaEveryone is playing their practice matches comfortably and now Team India is going straight to Chennai.She will play the first match of the World Cup against Australia in Chennai on 8th October.Indians knewWhere is this rain happening in India?I feel like doing something, do one thing, you will have to play this match, our practice mantraBut here is the problem that Team India faced, the biggest problem of Team India.The World Cup will start in two-three days and the first match after that isWill play on 8th October. Will play on Sunday in Chennai. If that is a big match then it will be played in Chennai.Chennai's Ravichandran Ashwin will play his first World Cup matchSpin bowlers can get advantage considering the pitch of Chennai.In such a situation, the question is being raised that Chennaibut first understand</t>
+  </si>
+  <si>
+    <t>The enmity that Canadian Prime Minister Justin Trudeau has expressed towards IndiaIndia's anger has not subsided yet, now India has taken another diplomatic action against Justin Trudeau.Now more than 41 Canadian politicians have gone back to India. Canada was feeling that itsAfter softening, India's anger will subside but till then Judo has been given a signal in India.won't leave until thenCanadian Prime Minister Justin TrudeauThe mistake of supporting Pakistani terrorists is such a big mistake from India's point of view that India shouldCanada is in no mood to support IndiaAnother diplomatic strike has been done to force the calendar politician in India to return to his country.One two or 10 not book in india 41 of canadaThey have been asked to return to India and have a deadline of 10th October.Canada did not have 62 kingdoms and 66% of themMinistry of External Affairs has given orders to reduce excessive politics, meaning Canada in India after October 10IndiaThe number of Canadian politicians is more than the number of Indian politicians present in Canada and it is necessary to make it work.They have informed tha in Indian Government tha there should be provisionAnd in Ranking Equivalence and in Mutual Diplomatic PresenceTheir Numbers Are Much Very Much Higher Than Ours in CanadaThe details of this are being worked out but as there will be a reductionOn September 21, the Foreign Ministry told Canada that its country's politicalThey are in large numbers and do the same work but not in Canada. When not, then in India, extra politics is seen in the country.The Indian government has issued a notice to Canada on October 10.If they live in India, their diplomatic immunity should be abolished.This means that those 41 people who used to get political exemption will not get it after 10th.India'sbetween india and canada</t>
+  </si>
+  <si>
+    <t>Politics</t>
+  </si>
+  <si>
+    <t>Crime</t>
   </si>
   <si>
     <t>Sports</t>
   </si>
   <si>
-    <t>Crime</t>
+    <t>Judiciary</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>Technology</t>
   </si>
   <si>
     <t>Science</t>
   </si>
   <si>
-    <t>Politics</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Judiciary</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/world/story/shelling-of-rockets-from-air-land-and-sea-in-gaza-strip-iron-swords-attack-military-bases-hamas-israel-action-against-palestine-ntc-1794548-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/world/story/israel-palestine-war-past-stained-war-religion-land-history-enmity-between-two-countries-ntc-1794449-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/world/story/powerful-earthquakes-hit-afghanistan-ntc-1794543-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/world/story/israel-palestine-conflict-israel-launched-operation-iron-swords-israel-fighter-jets-targeting-the-palestinian-militant-tlifwe-1794418-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/sports/cricket/story/india-vs-afghanistan-asian-games-2023-highlights-score-india-won-gold-medal-in-asiad-cricket-afghanistan-won-silver-team-india-won-because-of-this-rule-tspo-1794431-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/crime/big-crime/story/loaders-arrested-by-police-for-stealing-valuables-from-passengers-bags-at-igi-delhi-airport-opnm2-1794531-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/world/story/israel-gaza-conflict-hamas-has-made-a-big-mistake-israel-gave-a-befitting-reply-to-palestine-gaza-on-target-ntc-1794378-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/science/story/sikkim-disaster-photo-proof-know-reason-behind-flash-floods-ssc-1794414-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/elections/rajasthan-assembly-elections-2023/story/whose-government-formed-decided-by-119-seats-rajasthan-assembly-elections-equation-bjp-congress-ntc-1794508-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/business/utility/story/gst-council-meet-update-tax-rate-on-millets-based-products-slashed-to-5-percent-from-18-percent-says-report-tutc-1794416-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/impact-feature/story/sushma-group-tightens-grip-on-rising-commercial-real-estate-demand-1793480-2023-10-06</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/trending/story/former-classmates-meeting-courtroom-viral-video-judge-criminal-life-changed-arthur-booth-case-mindy-glazer-us-tstsh-1794125-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/uttar-pradesh/story/preparation-to-demolish-prem-yadav-house-in-deoria-akhilesh-yadav-said-do-not-do-anything-that-spoils-atmosphere-ntc-1794337-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/entertainment/news/story/ravi-teja-tiger-nageswara-rao-releasing-in-sign-language-the-kashmir-files-other-hindi-films-did-this-too-tmovs-1794269-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/entertainment/television/story/adult-content-star-shilpa-sethi-confirmed-to-enter-bigg-boss-17-salman-khan-tmovb-1794437-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/entertainment/news/story/ayalaan-teaser-an-alien-in-shorts-vest-listening-radio-is-coolest-thing-in-indian-cinema-today-film-looks-immersive-tmovs-1794368-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/entertainment/bollywood-news/story/mission-raniganj-crashes-on-day-1-akshay-kumar-lowest-box-office-opening-in-a-decade-tmovs-1794271-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/uttar-pradesh/story/man-reached-the-officials-wearing-a-garland-of-application-form-in-jhansi-lclg-1794547-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/uttar-pradesh/story/shakti-didi-will-make-women-aware-in-up-female-policemen-will-give-information-schemes-laws-lclcn-1794501-2023-10-07</t>
-  </si>
-  <si>
-    <t>https://www.aajtak.in/uttar-pradesh/story/deoria-murder-case-prem-chand-yadav-land-dispute-lclg-1794490-2023-10-07</t>
-  </si>
-  <si>
-    <t>इजरायल में शनिवार की सुबह 6.25 बजे तक सबकुछ सामान्य था. वीकेंड और अलसाई सुबह होने पर लोग धीरे-धीरे अपने दिन की शुरुआत करने की तैयारी कर रहे थे. तभी फिजाओं में बारूद की गंध घुल गई. फिजाओं में सायरन की डराने वाली आवाजें सुनाई देने लगीं. दरअसल, फिलिस्तीन के आतंकी संगठन हमास ने इजरायल पर महज 20 मिनट में 5 हजार रॉकेट दागे. इस अटैक में इजरायल के 22 लोगों की मौत हो गई. हमास के हमले के बाद इजरायल ने 'युद्ध' की घोषणा कर दी है. प्रधानमंत्री बेंजामिन नेतन्याहू ने "युद्ध" की घोषणा की और कहा कि उनका देश अपने दुश्मन से "अभूतपूर्व कीमत" वसूलेगा. इजरायल ने अपने दुश्मन के खिलाफ 'ऑपरेशन आयरन स्वार्ड्स' लॉन्च किया है. वहीं इजरायल में कल यानी रविवार को स्कूलों की छुट्टी के आदेश दे दिए गए हैं. बता दें कि इजरायल में रविवार को स्कूलों की छुट्टी नहीं होती है.नेतन्याहू ने कहा कि हम युद्ध में हैं, किसी ऑपरेशन में नहीं. आज सुबह हमास ने इज़राइल और उसके नागरिकों पर एक जानलेवा हमला किया. दुश्मन को इसकी कीमत चुकानी पड़ेगी. हम युद्ध में हैं और हम इसे जीतेंगे. उन्होंने कहा कि मैंने अपने सभी सिक्योरिटी सिस्टम के चीफ को बुलाया और हमास के ठिकानों को तबाह करने का आदेश दिया, साथ ही बड़े पैमाने पर आर्टिलरी जुटाने का आदेश दिया है. हम हमास के हमले का करारा जवाब देंगे. दुश्मन को इसकी अभूतपूर्व कीमत चुकानी पड़ेगी.गाजा पट्टी पर चौतरफा हमलाइज़रायल डिफेंस फोर्स (IDF) ने कहा कि हमने हमास के हमले के जवाब में ऑपरेशन 'आयरन स्वॉर्ड्स' शुरू किया है. इसके जरिए हवा, जमीन और समुद्र से गाजा पट्टी में रॉकेटों की बौछार कर रहे हैं. इज़रायली वायु सेना ने आधिकारिक ट्विटर अकाउंट से कहा कि वायु सेना के दर्जनों लड़ाकू विमानों ने पूरे गाजा पट्टी में आतंकवादी संगठन हमास के 17 सैन्य परिसरों और 4 हेडक्वार्टर पर हमला किया है. आईडीएफ के प्रवक्ता रियर एडमिरल डैनियल हगारी ने प्रेस कॉन्फ्रेंस कर कहा कि सुबह 6:30 बजे से इज़राइल में रॉकेट दागे गए हैं. कम से कम सात जगहों पर इजरायली सैनिक घुसपैठियों से लड़ रहे हैं.हमासा का दावा- गाजा से इज़रायल में हजारों रॉकेट दागेउधर, गाजा पट्टी पर नियंत्रण रखने वाले इस्लामिक गुट हमास के एक वरिष्ठ कमांडर ने दावा किया है कि गाजा से इज़रायल में हजारों रॉकेट दागे गए हैं. हमास ने यह भी दावा किया कि उसने सुबह-सुबह इज़राइल की ओर 5,000 रॉकेट दागे थे, जिसे उसने "ऑपरेशन अल-अक्सा फ्लड" नाम दिया है. साथ ही कहा कि हमास की कार्रवाई अल-अक्सा मस्जिद के खिलाफ आक्रामकता के खिलाफ है. दक्षिणी गेडरोट क्षेत्र में सीधे रॉकेट हमले में मारे गए लोगों में 60 साल की एक महिला भी शामिल है.इजरायल के रक्षा मंत्री बोले- हर जगह दुश्मन से लड़ रहेइजरायल के रक्षा मंत्री योव गैलेंट ने कहा कि आईडीएफ के सैनिक हर जगह पर दुश्मन के खिलाफ लड़ रहे हैं. मैं इजराइल के सभी नागरिकों से सुरक्षा निर्देशों का पालन करने का आह्वान करता हूं. वहीं, हारेत्ज़ ऑनलाइन ने हमास की सैन्य शाखा के प्रमुख मोहम्मद डेफ़ के बयान के हवाले से कहा कि हमने दुश्मन को अल-अक्सा मस्जिद के खिलाफ अपनी आक्रामकता जारी नहीं रखने की चेतावनी दी है. उन्होंने कहा कि इज़रायल के ख़िलाफ़ हमास के नए हमलों का यह सिर्फ पहला चरण है. डेफ़ ने यरूशलेम और इज़रायल में नेगेव, गैलील और उत्तरी इज़रायल में अरबों से इस क्रांति में शामिल होने और कब्जाधारियों के पैरों के नीचे की धरती में आग लगाने की अपील की है.</t>
-  </si>
-  <si>
-    <t>फिलिस्तीन और इजरायल एक बार फिर आमने-सामने हैं. शनिवार सुबह फिलिस्तीनी आतंकियों ने इजरायल पर करीब 5 हजार रॉकेट दागे हैं. रॉकेट हमलों के बाद चारों तरफ तबाही का मंजर है. इस हमले के बाद इजरायली सेना ने कहा कि वह गाजा पट्टी में हमला कर रही है, क्योंकि हमास आतंकवादी समूह ने इजरायल के खिलाफ युद्ध छेड़ दिया है. इस घोषणा के बाद येरूशलेम में सायरन बज रहे हैं. सेना का कहना है कि इजरायल के कई क्षेत्रों में आतंकवादियों ने घुसपैठ की है. साथ ही इजरायल ने अपने नागरिकों को घर के अंदर रहने की सलाह दी है. हालांकि इजरायल और फिलिस्तीन के बीच दशकों से विवाद चल रहा है. इज़रायल और फिलीस्तीन के बीच की जंग दोनों ओर से ही आक्रामक अंदाज में लड़ी जाती है. अगर एक तरफ से एक मिसाइल दागी जाती है, तो दूसरी ओर से उससे कई गुना अधिक मिसाइलें दागकर जवाब दिया जाता है.इजरायल एक यहूदी देश है, जबकि फिलिस्तीन मुस्लिम बहुल देश है. इस पर हमास शासन करता है. ये जंग इजरायल की स्थापना के पहले से ही जारी है. फिलिस्तीन और कई मुस्लिम देश इजरायल को यहूदी राज्य के रूप में मानने से इनकार करते हैं. वहीं, इजरायल औऱ फिलिस्तीन दोनों दी देश येरूशलम को अपनी राजधानी मानते हैं. इन दोनों देशों के बीच सदियों से गाजा औऱ येरूशलम पर कब्जे की लड़ाई जारी है. भले ही दुश्मनी की तलवारें इस्लामिक उदय के साथ खिंच गई हों, लेकिन असली विवाद तब शुरू हुआ जब ओटोमन साम्राज्य खत्म हो रहा था.येरूशलम क्यों है दोनों धड़ों के लिए खास?पहला वर्ल्ड वॉर खत्म होने के बाद ओटोमन साम्राज्य की हार हो चुकी थी. वहीं, इतिहासकारों का कहना है कि पहले विश्व युद्ध के बाद मिडिल ईस्ट की पूरी तस्वीर बदल गई. युद्ध के बाद लोगों में राष्ट्रवाद की एक भावना पनपने लगी. विश्व युद्ध के बाद ये पूरा इलाका ब्रिटेन के हिस्से में आ गया, लेकिन जब यहूदियों ने स्वतंत्र देश की मांग की तो ज़ोरों की मांग ये भी उठी कि येरुशलम में यहूदियों के लिए एक जगह का निर्माण किया जाए, जिसे यहूदी सिर्फ अपना ही घर कहें. येरूशलम इजराइलियों और फ़िलिस्तीनियों का पवित्र शहर है. येरूशलम इजरायल-अरब तनाव में सबसे विवादित मुद्दा भी रहा है. ये शहर इस्लाम, यहूदी और ईसाई धर्मों में बेहद अहम स्थान रखता है. पैगंबर इब्राहिम को अपने इतिहास से जोड़ने वाले ये तीनों ही धर्म येरूशलम को अपना पवित्र स्थान मानते हैं. यही वजह है कि सदियों से मुसलमानों, यहूदियों और ईसाइयों के दिल में इस शहर का नाम बसता रहा है.यहूदियों और अरबों के बीच बंटीजमीनदूसरे विश्व युद्ध के बाद संयुक्त राष्ट्र ने एक प्रस्ताव लाकर दोनों ही देशों को अलग किया. जिसके बाद इज़रायल पहली बार दुनिया के वजूद में आया. सन 1947 में संयुक्त राष्ट्र ने एक प्रस्ताव पारित किया, जिसका मूल रूप बंटवारे को लेकर था. ब्रिटिश राज वाले इस इलाके को 2 भागों में बांट दिया गया, इसमें एक अरब इलाका और दूसरा यहूदियों का इलाका माना गया. जहां यहूदियों की संख्या ज्यादा है ,उन्हें इस्राइल दिया जाएगा. वहीं जहां अरब बहुसंख्यक हैं, उन्हें फिलिस्तीन दिया जाएगा. तीसरा था येरूशलम, इसे लेकर काफी मतभेद थे. यहां आधी आबादी यहूदी थी और आधी आबादी मुस्लिम. संयुक्त राष्ट्र संघ ने कहा कि इस क्षेत्र पर अंतरराष्ट्रीय नियंत्रण लागू होगा.कब हुआ इजरायल का जन्म?14 मई 1948 को संयुक्त राष्ट्र और दुनिया की नज़र में पहली बार इज़रायल का जन्म हुआ. इसी दिन इतिहास की पहली अरब और इज़रायली लड़ाई भी शुरू हो गई. ये लड़ाई करीब एक साल बाद 1949 में खत्म हो गई. इसमें इज़रायल की जीत हुई थी और करीब साढ़े सात लाख फिलीस्तीनियों को अपना इलाका छोड़ना पड़ा. अंत में ब्रिटिश राज वाला ये पूरा हिस्सा तीन भागों में बंट गया. जिसे इज़रायल, वेस्ट बैंक और गाज़ा पट्टी का नाम दिया गया.</t>
-  </si>
-  <si>
-    <t>अफगानिस्तान में शनिवार को एक के बाद एक आए तीनभूकंप के तेज झटकों ने तबाही मच दी. इसमें कम से कम 15लोगों की जान चली गई और 40 से अधिक लोग घायल हो गए. प्रशासन द्वारा राहत बचाव कार्य किया जा रहा है और लोगों को मलबे में निकालकर अस्पताल पहुंचाया जा रहा है.पहला भूकंप दोपहर 12:11 बजे आया, जिसकी तीव्रता 6.1 थी. इसके कुछ ही मिनट बाद 12:19 पर 5.6 तीव्रता वाले भूकंप से फिर धरती दहली. और फिर दोपहर 12:42 बजे रिक्टर पैमाने पर 6.2 तीव्रता का शक्तिशाली भूकंप दर्ज किया गया. भूकंपका केंद्र पश्चिमी अफगानिस्तान के एक प्रमुख शहरी केंद्र हेरात शहर से 40 किलोमीटर उत्तर पश्चिम में बताया गया है.अफगान अधिकारियों ने बताया कि भूकंप के झटकों से कई इमारतें क्षतिग्रस्त हो गईं, जिससे लोग मलबे में फंस गए. उन्हें निकालने के लिए रेस्क्यू ऑपरेशन चलाया गया है. घायलों को अस्पताल पहुंचाया गया है. इस दौरान कम से कम 15लोगों की मौत हुई है. आकंड़ बढ़ सकता है.</t>
-  </si>
-  <si>
-    <t>आतंकी संगठन हमास की ओर से दागे गए 5000 रॉकेट के जवाब में इजरायल ने 'ऑपरेशन आयरन स्वार्ड्स' लॉन्च किया है. इजरायल के कई लड़ाकू विमान गाजा पट्टी में हमास के ठिकानों पर बमबारी कर रहे हैं. इजरायली वायु सेना ने गाजा पट्टी में कई स्थानों पर हमास को निशाना बनाते हुए एक साथ दर्जनों लड़ाकू विमान को जंग में उतार दिया है.इससे पहले फिलिस्तीनी आतंकियों द्वारा इजरायल के कई रिहायशी इलाकों पर रॉकेट दागने के बाद इजरायल ने 'युद्ध की स्थिति' की घोषणा की थी. समाचार एजेंसी एपी के मुताबिक, इजराइल रेस्क्यू सर्विस ने बताया है कि हमास के इस हमले में कम से कम 22 इजराइली नागरिकों की मौत हुई है.वहीं, इजरायल के प्रधानमंत्री बेंजामिन नेतन्याहू ने अब एक वीडियो जारी करते हुए कहा है कि उनका देश इस युद्ध को जीतेगा. उन्होंने कहा है कि हम युद्ध में हैं और हम इसे जीतेंगे, हमारे दुश्मन (हमास) को ऐसी कीमत चुकानी पड़ेगी, जिसके बारे में उसने कभी सोचा भी नहीं होगा. "इजरायली सेना के प्रवक्ता ने मीडिया से बात करते हुए कहा है कि यह एक कम्बाइंड ग्राउंड अटैक था, जिसे पैराग्लाइडर, समुद्री और जमीनी माध्यम से किया गया. अभी हम गाजा पट्टी के आसपास कुछ जगहों पर लड़ रहे हैं. हमारी सेनाएं अभी जमीन पर लड़ रही हैं."आतंकियों कासफाया करने का आदेशः इजरायली पीएमऑपरेशन आयरन स्वोर्ड्स की घोषणा करते हुए इजरायल के प्रधानमंत्री बेंजामिन नेतन्याहू ने कहा है, " ये कोई मामूली ऑपरेशन नहीं है. हमास ने हमारे ऊपर हमला किया है और मैंने आदेश दिया है कि आतंकियों का सफाया किया जाए. हम आतंकियों और दुश्मनों को ऐसा सबक सिखाएंगे जिसकी उम्मीद उन्होंने कभी नहीं की होगी.#WATCH हम युद्ध में हैं, किसी ऑपरेशन या राउंड में नहीं। आज सुबह हमास ने इज़राइल और उसके नागरिकों पर एक जानलेवा हमला किया...दुश्मन को इसकी कीमत चुकानी पड़ेगी...हम युद्ध में हैं और हम इसे जीतेंगे: इज़राइल के प्रधानमंत्री बेंजामिन नेतन्याहू(वीडियो सौजन्य: इज़राइल के प्रधानमंत्री… pic.twitter.com/NLw1q7hB5eहमास ने बड़ी गलती की हैः इजरायली रक्षा मंत्रीशनिवार तड़के हमास आतंकी की ओर से रॉकेट हमले के बाद तेल-अवीव स्थित इजरायली सैन्य मुख्यालय में एक सुरक्षा कैबिनेट की बैठक की गई. बैठक के बाद इजरायल के रक्षा मंत्री योव गैलेंट ने कहा है कि हमास ने इजरायल पर हमला कर एक बड़ी गलती की है. उन्होंने कहा कि युद्ध की शुरुआत फिलिस्तीनी आतंकवादी समूह हमास ने की है लेकिन इसे इजरायल जीतेगा.रिपोर्ट के मुताबिक, इजरायली नागिकों और पुलिस ने दक्षिणी शहर सडेरोट के पुलिस स्टेशन में फिलिस्तीनी आतंकियों पर जमकर गोलीबारी की है.हमास का ऑपरेशन 'अल अक्सा स्टॉर्म'इजरायल पर हमले के बाद फिलिस्तीनी आतंकी संगठन हमास के नेता मोहम्मद डेफ ने बयान जारी करते हुए कहा है कि हमास ने इजरायल के खिलाफ एक नया सैन्य अभियान शुरू किया है. इस ऑपरेशन का नाम "ऑपरेशन अल अक्सा स्टॉर्म " रखा गया है.डेफ ने अपने बयान में कहा है, हमने यह फैसला किया है कि अब बहुत हो गया. हम सभी फिलिस्तीनियों से इजरायल का सामना करने का आग्रह करते हैं.इजरायल जीतेगाः नोर गिलोनफिलिस्तानी हमले के बाद भारत में इजरायल के अंबेसडर नोर गिलोन ने ट्वीट करते हुएकहा है, "फिलिस्तीनी आतंकियों ने दोतरफा हमला किया है. जमीन और आसमान... दोनों तरफ से अटैक हुआ है. उन्होंने कहा, यहूदी अवकाश के दौरान इजरायल पर गाजा से संयुक्त हमला हो रहा है. हमास आतंकवादियों की तरफ से रॉकेट और जमीनी घुसपैठ की गई है. स्थिति सामान्य नहीं है, लेकिन इजरायल जीत हासिल करेगा."#Israel is under a combined attack from Gaza during the Jewish holiday.Both by rockets and ground infiltration of Hamas terrorists.The situation is not simple but Israel will prevail.इजरायल पर हमले के बाद हमास के आतंकी ने मनाया जश्न</t>
-  </si>
-  <si>
-    <t>India vs Afghanistan Asian Games 2023 Gold Medal Match Update: भारत की पुरुष क्रिकेट टीम ने हांगझोउ एश‍ियन गेम्स में इत‍िहास रच दिया है. टीम इंडिया ने एश‍ियन गेम्स में गोल्ड मेडल हास‍िल किया है. इससे पहले महिला क्रिकेट टीम ने भी एश‍ियन गेम्स में गोल्ड मेडल जीता था.भारत और अफगान‍िस्तान का क्रिकेट का गोल्ड मेडल मैच बार‍िशकी वजह से रद्द हो गया. चूंकि ऋतुराज गायकवाड़ की कप्तानी में खेली रही टीम इंडिया शीर्ष रैंकिंग वाली टीम थी इसीलिए भारत को गोल्ड मेडल दिया गया. वहीं अफगान‍िस्तान को एश‍ियन गेम्स के स‍िल्वरस‍िल्वर मेडल से संतोष करना पड़ा. आज ही क्रिकेट का ब्रॉन्ज मेडल बांग्लादेश ने पाकिस्तान को हराकर जीता था.इससे पहले भारत ने मैच में टॉस जीता और कप्तान ऋतुराज गायकवाड़ ने पहले फील्ड‍िंग करने का फैसला किया. अफगान‍िस्तान की शुरुआत बेहद खराब रही. वहीं बार‍िश की वजह से जब मैच रुका तो अफगान‍िस्तान ने 112/5 (18.2 ओवर्स) का स्कोर बना लिया था.A post shared by Rinku 🧿🇮🇳 (@rinkukumar12)अफगान‍िस्तान की शुरुआत रही बेहद खराबअफगान‍िस्तान की शुरुआत बेहद खराब रही. अफगान‍िस्तान को पहला झटका श‍िवम दुबे ने द‍िया. श‍िवम ने सबसे पहले जुबैद अकबरी (5) को आउट किया. इसके बाद अफगान‍िस्तान का स्कोर 9 रन पर पहुंचा ही होगा, तभी अर्शदीप स‍िंह ने मोहम्मद शहजाद (4) को चलता कर दिया. शहजाद का कैच विकेटकीपर ज‍ितेश शर्मा ने लपका. अफगान‍िस्तान को 3.2 ओवर्स में 12 रन पर तीसराझटका लगा, जब नूर अली जादरान (1) रन पर आउट हो गए. इस स्कोर पर अफगानिस्तान संकट में घ‍िरती हुई द‍िख रही थी.क्ल‍िक करें: आख‍िरी गेंद पर चौका जड़कर बांग्लादेश ने पाकिस्तान के होश उड़ाए, जीताब्रॉन्ज मेडल फिर शाह‍िदुल्लाह कमल (49 नॉट आउट), अफसर जजई (15 ) ने अफगान‍िस्तान को संभालने की कोश‍िश की, पर पारी का 10वां ओवर लेकर आए रव‍ि बिश्नोई की गेंद पर अफसर गच्चा खा गए और बोल्ड हो गए. उस समय अफगान‍िस्तान के खाते में 49 रन जुड़े थे. फिर अफगान‍िस्तान का पांचवां विकेट करीम जनात (5) के रूप में गिरा. उनको शाहबाज अहमद ने बोल्ड किया.एश‍ियन गेम्स की कवरेज के ल‍िए क्ल‍िक करेंअंत में आकर अफगानी कप्तान गुलबदीन नईब (27 नॉट) ने शाह‍िदुल्लाह संग अफगानी पारी को संभाला, लेकिन 19 ओवर की दूसरी गेंद पर बार‍िश आ गई. इस कारण मैच आगे नहीं हो सका. बार‍िश ना रुकने की वजह से बाद में फाइनल रद्द कर दिया गया और भारत ने बेहतर वरीयता के कारण गोल्ड मेडल मिल गया. वहीं अफगानिस्तान को स‍िल्वर मेडल से संतोष करना पड़ा.</t>
-  </si>
-  <si>
-    <t>यात्रियों की सुरक्षा की जब भी बात आती है, तो एयरपोर्ट और मेट्रो को सबसे सुरक्षित माना जाता है. यहां सिक्योरिटी की इतनी चाकचौबंद व्यवस्था होती है कि किसी अपराधी द्वारा वारदात को अंजाम देना बहुत मुश्किल माना जाता है. एयरपोर्ट पर पहले एंट्री प्वाइंट पर आइडेंटिटी चेकिंग, फिर बोर्डिंग के बाद हर यात्री और उनके सामान की सघन तलाशी होती है. इसे देखकर हर यात्री के मन में यही सुकून होता है कि वो और उनका सामान यहां सबसे ज्यादा सुरक्षित है. लेकिन नहीं जनाब, ऐसा सोचना आपको कंगाल बना सकता है. आपको लाखों रुपए की चपत लगा सकता है. आप अपने कीमती सामानसे हमेशा के लिए हाथ धो सकते हैं. यकीन न हो तो दिल्ली एयरपोर्ट पर हुई इन वारदातों को जान लीजिए.16 सितंबर की बात है. पंजाब के तरन तारन की रहने वाली परमजीत कौर मेलबर्न से दिल्ली आईं. दुनिया कीबेहतरीन सिंगापुर एयरलाइंस में उनका सफर बहुत सुहाना रहा था. दिल्ली की धरती पर लैंड होते ही वो बहुत ज्यादा उत्साहित थीं. अमृतसर जाने के लिए उनको डोमेस्टिक फ्लाइट लेनी थी. वो जब इस फ्लाइट की बोर्डिंग के लिए पहुंची तो उनके समान का वजन अधिक पाया गया. इस वजह से जांच के लिए उनको अपना बैग खोलना पड़ा. परमजीत असमर्थ होने की वजह से व्हील चेयर पर थीं. इसलिए उनके सहायक की निगरानी में जांच होने के बाद क्लियरेंस मिल गई. सामान को व्यवस्थित करने के बाद उन्हें जाने की इजाजत दे दी गई. फ्लाइट लेने के बाद अमृतसर स्थित अपने घर पहुंच गईं.बैग खोलते ही यात्री के होश उड़ गएपरमजीत कौर अपने घरवालों से मिलकर बहुत खुश थीं. वो परिजनों के लिए कीमती सामान लेकर आई थीं. उन्होंने सामान देने के लिए अपना बैग खोला, लेकिन ये क्या? बैग में मौजूद सारे कीमती सामान जैसे कि गिफ्ट्स, जेवर और पर्स सब गायब थे. परिवार में कोहराम मच गया, क्योंकि लाखों रुपए के सामान गायब थे. परमजीत के परिजनों ने इंदिरा गांधी एयरपोर्ट पुलिस स्टेशनमें इस बाबत शिकायत दर्ज कराई. पुलिस ने केस दर्ज करने के बाद इस मामले की गंभीरता से जांच शुरू कर दिया. सीसीटीवी फुटेज खंगाले गए. इस दौरान कुछ संदिग्ध गतिविधियां दिखी तो उस वक्त ड्यूटी पर मौजूद लोडरों की लिस्ट बनाई गई. सबसे बारी-बारी से पूछताछ की गई. इसी दौरान एक लोडर ने सारा सच उगल दिया.ऐसे हुआ इस बड़ीवारदात का खुलासाआरोपी लोडर ने बताया कि वो और उसके साथी कैसे यात्रियों को बेवकूफ बनाकर उनके बैग से सामान निकाल लिया करते थे. उसके बाद कीमती सामानों को स्थानीय बाजारों में ले जाकर बेंच दिया करते थे. परमजीत से पहले भी उन्होंने कई यात्रियों के साथ ऐसा किया था. इस तरह पुलिस ने सात लोडरों को गिरफ्तार कर लिया है. उनकी निशानदेही पर यात्रियों के कीमती सामान बरामद कर लिए गए हैं. इनमें सोने के कई जेवर,आईपैड, महंगी घड़ियां और चश्मे आदि शामिल हैं. डीसीपी एयरपोर्ट देवेश माहला का कहना है कि एयरलाइंस के कुछ अधिकारियों की भूमिका की भी जांच की जा रही है. चोरी की ऐसी घटनाओं पर अंकुश लगाने के लिए संबंधित जरूरी काईवाई के लिए हम सक्रिय हैं.एयपोर्ट पर चोरी की ये कोई पहली वारदात नहीं है, इस तरह की घटनाओं काएक सिलसिलेवार क्रम है. केवल इसी साल ऐसी कई घटनाओं का पर्दाफाश किया जा चुका है. इसके बावजूद इन पर लगाम नहीं लग पा रहा है. इसके पीछे एक बड़ा गिरोह सक्रिय है, जिसके भांडाफोड़ की सख्त जरूरत है. आइए ऐसी कुछ घटनाओं के बारे में जानते हैं...सितंबर, 2023दिल्ली एयरपोर्टदिल्ली के रहने वाले अनिल कपूर इसी साल जून में अपने परिवार के साथ कनाडा जा रहे थे. उनको दिल्ली स्थित इंदिरा गांधी इंटरनेशनल एयरपोर्ट से लुफ्थांसा एयरलाइंस की फ्लाइट लेनी थी. बोर्डिंग के दौरान उनका बैग चेक किया गया, उसके बाद व्हील चेयर लेकर वो फ्लाइट लेने के लिए चले गए. कनाडा पहुंचने के बाद जब उन्होंने अपने बैग की तलाशी ली तो भी हैरान रह गए. उनके बैग से आईफोन 14 प्रो मैक्स (1 लाख 75 हजार रुपए) गायब था. इस फोन को वो अपने बेटे को देने वाले थे. उनकी शिकायत पर एयरपोर्ट थाने की पुलिस ने जांच शुरू की, तो एक के बाद एक कई मामलों का खुलासा हो गया. इस मामले में एक लोडर गिरफ्तार हुआ, जिसने पूरे गैंग का पर्दाफाश करा दिया.इस केस की जांच के दौरान पुलिस ने हाथ में बांधने वाली 13 महंगी घड़ियों के साथ अनिल कपूर का आईफोन भी बरामद कर लिया. हालांकि, इन सबमें चार महीने लग गए. सितंबर में पुलिस इस केस को सॉल्व कर पाई. लेकिन बड़ी सफलता मिली. उस वक्त दिल्ली पुलिस के एक अधिकारी ने बताया था कि एयरपोर्ट से सामान चोरी होने के मामले सामने आने के बाद से शिकंजा कसा जा रहा है. पुलिस ऐसे लोगों की तलाश कर रही है जो एयरपोर्ट से सामान, बैग, मोबाइल, घड़ियों की चोरी करते हैं. इस कड़ी में अब तक 25 आरोपियों को गिरफ्तार किया जा चुका है. ये सभी लोग चोरी की वारदात में किसी न किसी रूप में शामिल थे. इन सबके पास से चोरी किए गए कीमती सामान भी बरामद किए गए हैं.जनवरी, 2023दिल्ली एयरपोर्टइसी साल जनवरी में दिल्ली के आईजीआई एयरपोर्ट और विजिलेंस विभाग के संयुक्त ऑपरेशन में अलग-अलग एयरलाइंस के आठ लोडरों को गिरफ्तार किया गया था. इन सभी के पास से लाखों रुपए की कीमती घड़ियां, सोने-चांदी के जेवर, महंगे मोबाइल, आईपैड बरामद किए गए थे. गिरफ्तार किेए गए आरोपियों की पहचान दीपक पाल, गौतम कुमार, मोहसीन खान, राहुल यादव, यशविंदर, पप्पी कुमार, नीरज कुमार और कमल कुमार के रूप में की गई थी. उस वक्त दिल्ली के एयरपोर्ट के डीसीपी एयरपोर्ट रवि कुमार सिंह ने बताया था कि अलग-अलग शिकायतों के आधार पर पुलिस कार्रवाई से एयरपोर्ट पर हुईं चोरियों के चार बड़े मामले सुलझाए गए. इस दौरान एक बड़े गैंग का पर्दाफाश हुआ है.इस गैंग का सरगना दीपक पाल था. पुलिस द्वारा पूछताछ के दौरान दीपक ने बताया था कि वो ग्राउंड हैंडलिंग असिस्टेंट के तौर पर साल 2018 से जुड़ा हुआ है. उसे 18000 रुपए सैलरी मिलती है. इतने पैसों में उसके परिवार का गुजारा नहीं हो पाता है. यही वजह है कि उसने एक गैंग बनाकर यात्रियों के बैग से चोरी शुरू कर दी. इस वारदात में हर अपराधी की अलग-अलग भूमिका होती थी. ये लोग पहले बैग से सामान चुराते उसके बाद कुछ दिन के लिए एयरपोर्ट के लॉकर में रखते थे. फिर मौका देखकर गैंग का कोई सदस्य अपने अंडरगारमेंट्स में रखकर सामान को एयरपोर्ट से बाहर निकाल देता था. वहां बाजार में इन सामानों के ग्राहक पहले से तय होते थे. इस तरह चोरी को अंजाम दिया जाता था.जुलाई, 2023अमृतसर एयरपोर्टएयपोर्ट के अंदर चोरी की ऐसी वारदातें केवल दिल्ली में ही नहीं होती, बल्कि देश के कई एयरपोर्ट पर इस तरह की घटनाएं सामने आ चुकी हैं. इसी साल जुलाई में पंजाब के अमृतसर में श्री गुरु रामदास जी इंटरनेशनल एयरपोर्ट पर एक बुजुर्ग महिला पहुंची. उनको लंदन जाना था. बोर्डिंग होने के बाद वो सिक्योरिटी जांच के लिए जा रही थी. उसी वक्त एक लोडर उनके पास आ गया. उसने महिला से कहा कि वो इतनी सारी ज्वेलरी पहन फ्लाइट के अंदर नहीं जा सकती हैं. इसके बाद ज्वैलरी उतारकर बैग में रखने की सलाह दे दी. महिला ने उसकी बात मान ली, तो वो उन्हें लेकर टर्मिनल हॉल में गया. वहां सोने की चूड़ियां उतारकर बैग में रखवा दिया. महिला फ्लाइट लेने चली गईं. लेकिन लंदन पहुंचने के बाद जब उन्होंने अपना बैग चेक किया तो चूड़ियां गायब थीं. उनकी बेटी की शिकायत पर पुलिस ने आरोपी गुरप्रीत सिंह गोपी को गिरफ्तार कर लिया था.चोरी की वारदात में लोडर ही शामिल क्यों?एयरपोर्ट पर होने वाली चोरी की अधिकांश वारदातों में लोडर ही शामिल होते हैं. दरअसल, उनके पास ही सामान को फ्लाइट तक ले जाने की जिम्मेदारी होती है. बोर्डिंग के बाद सामान संबंधित फ्लाइट पर लोड होने के लिए भेज दिया जाता है. इस दौरान लोडर गैंग सक्रिय हो जाता है. सामान को ले जाते समय एक ब्लैक स्पॉट पर रोक दिया जाता है. वहां सामान के चारों तरफ गैंग के सदस्य खड़े हो जाते हैं. फिर एक चोर पेन से बैग की चेन खोल लेता है. इसके बाद महज कुछ सेकेंडों में कीमती सामान चुरा लेते हैं. ऐसी चोरियां रोकने के लिए सबसे जरूरी सर्विलांस और हर जगह हर एंगल से सीसीटीवी का होना जरूरी है. लेकिन चोरों का गैंग ऐसे ब्लैक स्पॉट निकालकर चोरी करता है.दिल्ली एयरपोर्ट पर चोरी की ज्यादा वारदात</t>
-  </si>
-  <si>
-    <t>इजरायल ने फिलिस्तीन को सबक सिखाने के लिए अपने फाइटर जेट युद्ध के मैदान में उतार दिए हैं.इजरायली सेना ने गाजा पट्टी में हमासके खिलाफ 'ऑपरेशन आयरन स्वॉर्ड्स' शुरू किया है.गाजा पर हवाई हमले शुरू कर दिए हैं.इजरायली वायुसेना के दर्जनों लड़ाकू विमानगाजा पट्टी में कई जगहोंपर आतंकवादी संगठन हमास के ठिकानों पर हमला कर रहे हैं. इस इलाके को बमों से पाट दिया है.इस बीच,इजरायल के प्रधानमंत्री नेतन्याहू ने बड़ा बयान दिया है. उन्होंने साफ कहा कि हम युद्ध में उतर गए हैं. ये कोई ऑपरेशन नहीं है. हमास ने इजरायल और उसके नागरिकों के खिलाफ जानलेवा हमला किया है. मैंने सबसे पहले घुसपैठ करने वाले आतंकवादियों की बस्तियों को साफ करने का आदेश दिया है. इसके अलावा, बड़े पैमाने पर हथियार जुटाने के लिए कहा है. दुश्मन को ऐसी कीमत चुकानी पड़ेगी, जिसके बारे में उसने कभी नहीं सोचा होगा.बता दें कि शनिवार सुबह फिलिस्तीनी आर्म्स ग्रुप हमास ने गाजा पट्टी से रॉकेट हमलों की झड़ी लगाई. ये हमले इजरायल पर किए गए. हमास ने हमलों की जिम्मेदारी ली और इसे इजरायल के खिलाफ सैन्य कार्रवाई बताया है. हमास ने गाजा पट्टी से करीब 20 मिनट में 5,000 रॉकेट दागे. इतना ही नहीं, इजरायल में घुसपैठ की और कुछ सैन्य वाहनों पर कब्जा कर लिया. इसके अलावा, इजरायल के पांच सैनिकों का अपहरण कर लिया है. हमलों में करीब 5 की मौत हुई है और 100 से ज्यादा घायल हुए हैं. इसके जवाब में इजरायल ने भी मोर्चा संभाल लिया है.'हमला सामान्य नहीं, इजरायल जीतेगा'फिलिस्तानी हमले के बाद इजरायल के रक्षा मंत्री का बयान आया है. उन्होंने कहा, हमास ने आज सुबह इजरायल के खिलाफ युद्ध शुरू करके एक बहुत बड़ी गलती कर दी है. वहीं, इस घटना के बाद भारत में इजरायल के अंबेसडर नोर गिलोन ने भी ट्वीट किया है. उन्होंने कहा, फिलिस्तीनी आतंकियों ने दोतरफा हमला किया है. जमीन और आसमान... दोनों तरफ से अटैक हुआ है. उन्होंने कहा, यहूदी अवकाश के दौरान इजरायल पर गाजा से संयुक्त हमला हो रहा है. हमास आतंकवादियों की तरफ से रॉकेट और जमीनी घुसपैठ की गई है. स्थिति सामान्य नहीं है, लेकिन इजरायल जीत हासिल करेगा.​'हमास ने बिना किसी चेतावनी के रॉकेट दागे'बता दें कि इजरायल ने 'युद्ध की स्थिति' की घोषणा की है और क्षेत्र में फिलिस्तीनी ठिकानों पर हमला किया है. यरुशलम समेत पूरे इजरायल में हवाई हमले के सायरन बजाए गए हैं. शनिवार को फिलिस्तीन ने अपने नियंत्रण वाले इलाका गाजा से हमला कर दिया. हमास के एक वरिष्ठ सैन्य कमांडर मोहम्मद दीफ ने ऑपरेशन की शुरुआत की घोषणा की. उन्होंने फिलिस्तीनियों से आखिरी कब्जे के खिलाफ लड़ने का आग्रह किया. उसके बाद बिना किसी चेतावनी के रॉकेट हमले शुरू कर दिए. यह अटैक तब हुआ, जब इजरायल यहूदी अवकाश मना रहा था. दर्जनों आतंकवादियों ने गाजा पट्टी से सेडरोट के पास इजरायल में घुसपैठ की.​'इजरायल में घुसे हमास के आतंकी'हमास के बंदूकधारियों के सोशल मीडिया पर वीडियो सामने आए हैं. इसमें जब्त किए गए इजरायली सेना के वाहन देखे जा रहे हैं. हमास ग्रुप के आतंकियों को इजरायल में प्रवेश करते देखा जा रहा है. इजरायली सेना ने कहा, बड़ी संख्या में आतंकवादियों ने इजरायली क्षेत्र में घुसपैठ की है. इजरायल हमास को आतंकवादी समूह मानता है. सेडरोट में कई इजरायली नागरिकों की गोली मारकर हत्या की गई है. कुछ गंभीर रूप से घायल हो गए हैं. कई सैनिकों को उनकी बैरक में गोली मार दी गई है.#Israel is under a combined attack from Gaza during the Jewish holiday.Both by rockets and ground infiltration of Hamas terrorists.The situation is not simple but Israel will prevail.​​'इजरायल में खूनखराबा कर रहे फिलिस्तानी आतंकी'फिलिस्तीनी आर्म्स ग्रुप हमास का दावा है कि हमने इजरायल के खिलाफ अपना सैन्य अभियान चलाया है. शनिवार सुबह इजरायल में रॉकेट से हमले किए हैं. इसके अलावा इजरायल के पांच सैनिकों का अपहरण कर लिया है. हमास का कहना है कि गाजा से 20 मिनट में 5,000 से ज्यादा रॉकेट दागे गए हैं. अल जजीरा ने हमास के हवाले से कहा, हमने कब्जे (इजरायल) के सभी अपराधों को खत्म करने का फैसला किया है. बिना जवाबदेही के माहौल खराब करने का उनका समय समाप्त हो गया है. हमास ने इजरायली क्षेत्र में घुसपैठ कर रहे अपने लड़ाकों की कुछ तस्वीरें भी जारी की हैं. इन तस्वीरों में ये लड़ाके हाथों में बंदूक थामे हैं और खुद को कवर कर रखा है. कुछ लड़ाकों टूव्हीलर से हैं और बॉर्डर के आसपास पहुंचते देखे जा रहे हैं.#WATCH | Gaza City: Visuals from Tel Aviv after barrage of rockets launched into Israel(Source: Reuters) pic.twitter.com/2xz81sW3PR​'घरों में घुसकर हमला कर रहे हैं हमास के आतंकवादी'इजरायल के विदेश मंत्रालय ने ट्वीट किया और कहा, आज सुबह हमास के दर्जनों आतंकवादी गाजा से इजराइल में घुस गए. हजारों इजरायली लोग अपने घरों में घुसे हैं. जबकि हमास के आतंकवादी दक्षिणी इलाके में बवाल काट रहे हैं. घरों में घुसपैठ की जा रही है. निर्दोष इजरायली परिवारों की हत्या करने की कोशिश कर रहे हैं. हम जमीनी स्तर पर जानकारी जुटा रहे हैं.​भारत में इजरायल के राजदूत ने बताया घटनाक्रम...</t>
-  </si>
-  <si>
-    <t>Sikkim में प्रलय आने का सबूत मिल गया है. 17,100 फीट की ऊंचाई पर साउथ ल्होनक लेक के मुंहाने की दीवार टूटी. इस दीवार को मोरेन (Moraine) कहते हैं. झील में पानी की मात्रा ज्यादा होने पर दीवार टूट गई. वो भी किनारे से. इस बात को दो सैटेलाइट तस्वीरें पुख्ता करती हैं. इन तस्वीरों को Maxar ने लिया है. इससे पहले ISRO ने भी सैटेलाइट तस्वीरें जारी की थीं.पहले इन दो कॉम्बो तस्वीरों से समझते हैं कि हुआ क्या. अगर बाएं से दाएं देखें... तो आपको साउथ ल्होनक लेक में जमी बर्फ और पानी दिखाई देगा. मुहाने पर जमा मोरेन की मोटाई और चौड़ाई भी ज्यादा दिखेगी. लेकिन दाहिनी तरफ जो तस्वीर हैं, उसमें मोरेन छितराया हुआ. टूटा हुआ दिख रहा है. पानी का लेवल भी कम है.इस झील पर ये आफत आई कैसे. असल में साउथ ल्होनक लेक पर ग्लेशियल लेक आउटबर्स्ट फ्लड यानी GLOF का खतरा काफी पहले से था. साइंटिस्ट इस बात की तस्दीक कई सालों से दे रहे थे. उस झील के बढ़ते आकार की स्टडी कर रहे थे. दो साल पहले भी IIT Roorkee और IISC Bengaluru के तीन वैज्ञानिकों ने इसके टूटने की आशंका जताई थी. लेकिन सरकार या प्रशासन ने इस तरफ ध्यान नहीं दिया.इन तस्वीरों से समझिए कि कहां टूटी लेकयहां ऊपर दी गई तस्वीर इस साल फरवरी की है. जिसमें लेक के बाएं तरफ ल्होनक ग्लेशियर (Lhonak Glacier) का निचला हिस्सा दिख रहा है. झील के चारों तरफ मोरेन दिख रहा है. यानी मिट्टी और पत्थरों की मोटी दीवार. उसके बाद ऊंचा पहाड़ों का निचला हिस्सा है. पानी के ऊपर बर्फ की पतली परत दिख रही है. जिसमें दरारें भी हैं. जिस जगह मोरेन में टूट हुई वो जगह भी ठीक दिख रहा है. पानी मोरेन तक पहुंचा ही नहीं है.यहां ऊपर दी गई फोटो झील के टूटने के दो दिन बाद की है. यानी 6 अक्टूबर 2023 की. बाएं तरफ ग्लेशियर की बर्फ की मात्रा भी ज्यादा दिख रही है. झील में पानी का स्तर भी कम दिख रहा है. बर्फ की पतली चादर टूट चुकी है. दाहिनी तरफ तीर के पास मोरेन टूटा हुआ है. 3-4 अक्टूबर की रात लगातार हुई भयानक बारिश की वजह से झील में पानी का स्तर बढ़ता चला गया. दबाव की वजह से मोरेन टूट गया. पानी, बर्फ और कीचड़ बहकर 62 किलोमीटर दूर चुंगथांग डैम तक पहुंच गया. इतना पानी वह डैम बर्दाश्त नहीं कर पाया. वह भी टूट गया. फिर चारों तरफ प्रलय ही प्रलय.कैसी है ये साउथ ल्होनक झील?साउथ ल्होनक झील एक प्रोग्लेशियल लेक है. यानी ग्लेशियर के पिघलने से निकले पानी से बनी झील. जो मोरेन टूटा है वह करीब 16.3 मीटर ऊंचा था. यानी करीब 54 फीट ऊंचा. अब आप सोचिए कि कितना पानी इस झील में भरा होगा कि 54 फीट ऊंची प्राकृतिक दीवार टूट गई. झील की गहराई 120 मीटर यानी 394 फीट है. यह पिछले चार दशकों से लगातार 0.10 वर्ग किलोमीटर से लेकर 1.37 वर्ग किलोमीटर की दर से बढ़ती जा रही थी. इसी वजह से वैज्ञानिक इसकी स्टडी कर रहे थे. ताकि सही समय पर आपदा की भविष्यवाणी कर सकें.साउथ ल्होनक झील पहले से ही टूटने की कगार पर थी. वैज्ञानिकों ने दो साल पहले यानी साल 2021 में ही इस लेक के टूटने की आशंका जताई थी. यह झील करीब 168 हेक्टेयर इलाके में फैली थी. जिसमें से 100 हेक्टेयर का इलाका टूट कर खत्म हो गया. यानी इतने बड़े इलाके में जमी बर्फ और पानी बहकर नीचे की ओर आया है.12 हजार से ज्यादा ग्लेशियर पिघल रहे हिमालय परपूरे हिमालय पर 12 हजार से ज्यादा छोटे-बड़े ग्लेशियर हैं. जो लगातार जलवायु परिवर्तन और ग्लोबल वॉर्मिंग की वजह से पिघल रहे हैं. इनसे बनने वाली ग्लेशियल लेक के टूटने का खतरा रहता है. 1985 में नेपाल में दिग त्शो झील के टूटने से बड़ी आपदा आई थी. 1994 भूटान में लुग्गे त्सो झील टूटने से भी ऐसी ही आपदा आई थी. 2013 में केदारनाथ हादसे ने 6 हजार से ज्यादा लोगों की जान ले ली थी. यहां भी चोराबारी ग्लेशियर टूटा था. जिससे प्रलय आया था.क्या दिखाया गया था इसरो की तस्वीर में... फिलहाल वैज्ञानिकों का कहना ये है कि अभी एकदम से नेपाल के भूकंप और सिक्किम के GLOG यानी ग्लेशियल लेक आउटबर्स्ट फ्लड को जोड़ा नहीं जा सकता. लेकिन हम इसके संबंधों की जांच कर रहे हैं. क्योंकि सिर्फ बादल फटने से इतनी बड़ी घटना नहीं हो सकती. अगर आप ISRO द्वारा जारी तस्वीरों को देखिए तो आपको पता चलेगा.इसरो ने तीन सैटेलाइट फोटो का कॉम्बो जारी किया है. अगर आप तस्वीर को बाईं तरफ से देखेंगे तो उसमें साफ दिखा रहा है अंतर. पहले हिस्से में दिख रहा है कि 17 सितंबर 2023 को झील करीब 162.7 हेक्टेयर क्षेत्रफल की थी. 28 सितंबर 2023 को बढ़कर 167.4 हेक्टेयर इलाके में फैल गई. 04 अक्टूबर को इसका क्षेत्रफल सिर्फ 60.3% ही बचा.झील का बहुत बड़ा हिस्सा टूटकर खत्म हो चुका है. यह तस्वीरें इसरो के RISAT-1A और यूरोपियन स्पेस एजेंसी (ESA) के सेंटीनल-1ए सैटेलाइट से ली गई हैं. साउथ ल्होनक ग्लेशियल लेक उत्तरी सिक्किम के मंगन जिले के चुंगथांग के ऊपर 17,100 फीट की ऊंचाई पर है. इस झील की गहराई करीब 260 फीट है. यह 1.98 KM लंबी और आधा किलोमीटर चौड़ी है.झील टूटने के बाद क्या हुआ?3-4 अक्टूबर के बीच की रात झील की दीवारें टूटीं. ऊपर जमा पानी तेजी से नीचे बहती तीस्ता नदी में आया. इसकी वजह से मंगल, गैंगटोक, पाकयोंग और नामची जिलों में भयानक तबाही हुई. चुंगथांग एनएचपीसी डैम और ब्रिज बह गए. मिन्शीथांग में दो ब्रिज, जेमा में एक और रिचू में एक ब्रिज बह गया. सिक्किम के राज्य आपदा प्रबंधन अथॉरिटी (SDMA) ने बताया कि पानी का बहाव 15 मीटर प्रति सेकेंड था. यानी 54 किलोमीटर प्रति सेकेंड.अगर 17 हजार फीट की ऊंचाई से पानी इस गति में नीचे आता है तो ये भयानक तबाही के लिए पर्याप्त है. इस फ्लैश फ्लड (Flash Flood) ने कई जगहों सड़कों को खत्म कर दिया. कम्यूनिकेशन लाइंस टूट गईं. क्लाइमेट चेंज के एक्सपर्ट अरुण बी श्रेष्ठ ने कहा कि तीस्ता नदी में आई फ्लैश फ्लड भयानक थी. बंगाल की खाड़ी में लो प्रेशर एरिया बना है. इसलिए ज्यादा बारिश हुई. जिसकी वजह से इतनी बड़ी आपदा आई है. अरुण ने कहा कि पिछले 24 घंटों में 100 मिलिमीटर से ज्यादा पानी बरसा है.साउथ ल्होनक लेक ही मुसीबत नहीं... ?यह झील चुंगथांग के ऊपर 17,100 फीट की ऊंचाई पर है. यह झील ल्होनक ग्लेशियर के पिघलने की वजह से बनी थी. झील का आकार लगातार बढ़ता जा रहा था. इसमें नॉर्थ ल्होनक ग्लेशियर और मुख्य ल्होनक ग्लेशियर पिघलने से पानी आ रहा था. 2021 में साइंस डायरेक्ट में एक स्टडी छपी थी. जिसमें कहा गया था कि अगर GLOF होता है तो ये झील भारी तबाही मचा सकती है. इसकी वजह से जानमाल और पर्यावरण को नुकसान होता है.साल 2013 में उत्तराखंड का चोराबारी ग्लेशियल लेक भी इसी तरह टूटा था. उसके ऊपर भी बादल फटा था. जिसकी वजह से केदारनाथ आपदा आई थी. दस साल बाद फिर वैसी ही घटना हिमालय में देखने को मिली है. इसके अलावा 2014 में झेलम नदी में फ्लैश फ्लड आने की वजह से कश्मीर के कई इलाकों में बाढ़ आ गई थी. 2005 में हिमाचल प्रदेश परेचू नदी में फ्लैश फ्लड से तबाही मची थी.केदारनाथ हादसा साल 2004 में आई सुनामी के बाद सबसे बड़ा हादसा था. वजह थी चोराबारी ग्लेशियर का पिघलना और मंदाकिनी नदी द्वारा अन्य जलस्रोतों को ब्लॉक करना. केदारनाथ आपदा में 6 हजार लोगों के मारे जाने की पुष्टि हुई थी. फरवरी 2021 में चमोली जिले के ऋषि गंगा, धुलिगंगा और अलकनंदा नदियों में भी ऐसा ही फ्लैश फ्लड आया था.संसद की स्टैंडिंग कमेटी ने की थी जांचसंसद की स्टैंडिंग कमेटी जांच-पड़ताल कर रही है कि देश में ग्लेशियरों का प्रबंधन कैसे हो रहा है. अचानक से बाढ़ लाने वाली ग्लेशियल लेक आउटबर्स्टस को लेकर क्या तैयारी है. खासतौर से हिमालय के इलाको में. यह रिपोर्ट 29 मार्च 2023 को लोकसभा में पेश किया गया है.जल संसाधन, नदी विकास और गंगा संरक्षण मंत्रालय ने बताया कि जियोलॉजिकल सर्वे ऑफ इंडिया (GSI) ग्लेशियरों के पिघलने की स्टडी कर रही है. लगातार ग्लेशियरों पर नजर रखी जा रही है. 9 बड़े ग्लेशियरों का अध्ययन हो रहा है. जबकि 76 ग्लेशियरों के बढ़ने या घटने पर भी नजर रखी जा रही है. अलग-अलग इलाकों में ग्लेशियर तेजी से विभिन्न दरों से पिघल रहे या सिकुड़ रहे हैं ग्लेशियर.अभी तो और भी आपदाओं की आशंकासरकार ने माना है कि ग्लेशियरों के पिघलने से नदियों के बहाव में अंतर तो आएगा ही. साथ ही कई तरह की आपदाएं आएंगी. जैसे ग्लेशियल लेक आउटबर्स्ट फ्लड (GLOF), ग्लेशियर एवलांच, हिमस्खलन आदि. जैसे केदारनाथ और चमोली में हुए हादसे थे. इसकी वजह से नदियां और ग्लेशियर अगर हिमालय से खत्म हो गए. तो पहाड़ों पर पेड़ों की नस्लों और फैलाव पर असर पड़ेगा. साथ ही उन पौधों का व्यवहार बदलेगा जो पानी की कमी से जूझ रहे हैं.हिमालय पर कम हो रही सर्दीलगातार हो रहे जलवायु परिवर्तन और बढ़ते तापमान की वजह से हिमालय पर Cold Days कैसे घटते जा रहे हैं. रिपोर्ट में बताया गया है कि हिमालय का तापमान लगातार बढ़ता जा रहा है. कोल्ड डेज़ और कोल्ड नाइट्स की गणना के लिए जम्मू और कश्मीर और हिमाचल प्रदेश में 16 स्टेशन हैं. लगातार गर्म दिन बढ़ रहे हैं. जबकि ठंडे दिन कम होते जा रहे हैं. पिछले 30 वर्षों में ठंडे दिनों में 2% से 6% की कमी आई है.</t>
-  </si>
-  <si>
-    <t>राजस्थान में चुनावी घमासान के बीच भाजपा, कांग्रेस और बसपा सहित सभी पार्टियां अपनी पूरी ताकत झोंक रही हैं, लेकिन राजस्थान की सत्ता के शीर्ष तक पहुंचने के लिए भाजपा और कांग्रेस की असल खींचतान 119 सीटों पर रहती है. प्रदेश में 60 सीट ऐसी हैं जिन पर हमेशा भाजपा का कब्जा रहता है तो 21 सीटों पर कांग्रेस जीतती आई है. लेकिन प्रदेश की 119 सीटें ऐसी हैं जिनको जीतने के लिए दोनों ही पार्टियां राजनीति का हर दांव-पेच खेलती हैं. इन सीटों पर जीतने हासिल करने के बाद ही पार्टी सत्ता में पहुंचती है.भाजपा का इन सीट पर रहता है कब्जाअगर विधानसभा चुनाव पर नजर डालें तो भाजपा को 5 बार पाली में जीत मिली है. जबकि 4 बार उदयपुर, लाडपुरा, रामगंज मंडी, सोजत, झालरापाटन, खानपुर, भीलवाड़ा, ब्यावर, फुलेरा, सांगानेर, रेवदर, राजसमंद, नागौर में जीत दर्ज की. साथ ही कोटा साउथ, बूंदी, सूरसागर, भीनमाल, अजमेर नॉर्थ, अजमेर साउथ, मालवीय नगर, रतनगढ़, विद्याधर नगर, बीकानेर ईस्ट, सिवाना, अलवर सिटी, आसींद में 3 बार बीजेपी ने जीत दर्ज कराई. जबकि 33 सीटों पर 2 बार भाजपा को जीत मिली है.कांग्रेस को इन पर मिलती रही है जीतइसी तरह कांग्रेस की बात करें तो 5 बार जोधपुर की सरदारपुरा सीट से कांग्रेस को जीत मिली. जबकि बाड़ी सीट पर 3 बार कांग्रेस जीती. 3 बार झुंझुनू में बागीदौरा, सपोटरा, बाड़मेर, गुढ़ामालानी, फतेहपुर में कांग्रेस ने जीत दर्ज कराई. साथ ही डीग कुमेर, सांचौर, बड़ी सादड़ी, चित्तौड़गढ़, कोटपूतली, सरदारशहर सहित 13 सीटों पर कांग्रेस को जीत मिली है.</t>
-  </si>
-  <si>
-    <t>शनिवार को नई दिल्ली के सुषमा स्वराज भवन में केंद्रीय वित्त मंत्री निर्मला सीतारमण (Nirmala Sitharaman) की अध्यक्षता में जीएसटी परिषद की बैठक (GST Counsil Meeting) हो रही है. ये जीएसटी काउंसिल की 52वीं बैठक है. सरकार ने इसमें एक बड़ा फैसला लिया है, जिसके तहत मिलेट्स से बने प्रोडक्ट्स पर लगने वाले टैक्स की दर में कटौती की गई है. रिपोर्ट के मुताबिक, इन उत्पादों पर अब 18 फीसदी की जगह 5 फीसदी जीएसटी लागू होगा.</t>
-  </si>
-  <si>
-    <t>पंजाब. भारतीय कमर्शियल रियल एस्टेट क्षेत्र मेट्रोपोलिटन एरिया से अलग महत्वपूर्ण वृद्धि का अनुभव कर रहा है. टियर 2 और टियर 3 शहर इंफ्रास्ट्रक्चर डेवलपमेंट में वृद्धि और बेहतर कनेक्टिविटी के कारण कमर्शियल विकास के केंद्र के रूप में उभरे हैं. इंफ्रास्ट्रक्चर डेवलपमेंटके विकास पर सरकार के फोकस से रोजगार के अवसर पैदा हुए हैं. डिजिटलीकरण और ई-कॉमर्स के बढ़ने के साथ-साथ टियर 2 और 3 शहरों में कमर्शियल स्पेसेस की आवश्यकता बढ़ गई है. स्थानीय कंपनियों और रिटेल को भी इस परिवर्तन से लाभ हुआ है, जिससे कमर्शियल रियल एस्टेट क्षेत्र को काफी बढ़ावा मिला है.बेहतर सड़कें, ट्रेनें और नए हवाई अड्डों ने कनेक्टिविटी को बढ़ाया है. इससे टियर 2 शहरों में ऑफिस इंफ्रास्ट्रक्चर डेवलपमेंट में क्रांति आई है. ऑफिस स्पेस की मांग के अलावा टियर 2 शहरों में रिटेल कंजप्शन में बढ़ोतरी देखी जा रही है. बढ़ती आय, "वर्क फ्रॉम होम" की प्रवृत्ति और अधिक आय ने निवासियों की खरीदने की क्षमता को बढ़ाया है. लीडिंग राष्ट्रीय और अंतर्राष्ट्रीय रिटेल ब्रांड टियर 2 शहरों को लक्षित करके इसका लाभ उठा रहे हैं, जिससे इन क्षेत्रों में रिटेल स्पेस विकास के लिए अनुकूल बन गए हैं.उत्तर भारत के पंजाब में चंडीगढ़ के बाहरी इलाके जिनमें मोहाली और पंचकूला शामिल हैं, ट्राइसिटी क्षेत्र में प्रगति देखी गई है. प्रमुख राजमार्गों और कमर्शियल हब्स तक आसान पहुंच होने के कारण ट्राइसिटी ने किराये की दरों और रेजिडेंशियल रियल एस्टेट रिटर्न में तेज वृद्धि के कारण आकर्षित किया है. आवासीय आबादी में वृद्धि और इंफ्रास्ट्रक्चर डेवलपमेंट में वृद्धि ने स्वाभाविक रूप से कमर्शियल विकास की मांग को प्रेरित किया है.</t>
-  </si>
-  <si>
-    <t>ज़िंदगी बहुत लंबी है, मगर दुनिया तो गोल है... ये बातें आपने बचपन से अभी तक कई बार सुनी होंगी. इस बड़ी सी ज़िंदगी में हम बहुत से लोगों से मिलते हैं. कुछ के साथ ताउम्र संपर्क बना रहता है, तो कुछ का साथ बचपन तक ही सिमटकर रह जाता है. मगर ज़हन में उसकी धुंधली यादें ज़रूर ज़िंदा रह जाती हैं. खासतौर पर उस ज़माने के लोगों के लिए जो बिना सोशल मीडिया, इंटरनेट के ही बड़े हुए हैं. आपके भी स्कूल के ऐसे कई दोस्त रहे होंगे, जिनके साथ आपने लंच किया, गेम्स खेले, स्कूल के बाद उसके साथ घर तक गए... मगर क्या आज भी वो दोस्त आपके साथ हैं?शायद नहीं. मगर उनकी वो बचपन वाली झलक ज़रूर याद होगी. वो स्कूल ड्रेस, वो टिफिन बॉक्स और वो स्कूल का दरवाज़ा. लेकिन अगर आपकी उसी दोस्त से एक बार फिर मुलाकात हो जाए, 10, 20 या 30 साल बाद, तो क्या आप उसे पहचान पाएंगे? मेरे ख्याल में ज़रूर, अगर आपको उसका नाम याद हो या उसके स्कूल-शहर का नाम पता चल जाए. कुछ ऐसा ही इन दो लोगों के साथ हुआ, जिनके बारे में हम आज बात करने वाले हैं. इनकी कहानी सुनकर पूरी दुनिया एक वक्त पर भावुक हो गई थी. मगर अब फिर कई साल बाद इनकी याद लोगों के ज़हन में ताज़ा हो उठी है.तो कहानी को शुरू से शुरू करते हैं... इसके दो किरदार हैं: पहला- आर्थुर बूथ और दूसरा- माइंडी ग्लेजर. बाकी टीनेजर्स की तरह ही आर्थुर का सपना एक सफल करियर बनाना था. वो गणित और विज्ञान में काफी अच्छे थे. परिवार और दोस्तों से हमेशा कहा करते थे कि मुझे बड़ा होकर न्यूरोसर्जन बनना है. वो मियामी बीच (अमेरिका के फ्लोरिडा राज्य में स्थित मियामी) के जिस नॉटिलस मिडिल स्कूल में पढ़ा करते थे, वहीं पर माइंडी ग्लेजर भी पढ़ती थीं. उनके भी कुछ सपने थे. पहले तो वो पशु चिकित्सक बनना चाहती थीं. लेकिन फिर वकील बनने का सोचा. वो लॉ स्कूल गईं और टॉप की वकील बन गईं.दुनिया ने देखी दोनों की मुलाकातये दोनों ही अपने अपने करियर के लिए ज़िंदगी के दो अलग रास्तों पर चल दिए. फिर दशकों बाद इनकी एक बार फिर मुलाकात हुई. माइंडी ने आर्थुर को देखते ही पहचान लिया. वो बोलीं- तुम तो वही हो जिसके साथ में फुटबॉल खेला करती थी. मगर तुम यहां कैसे? दरअसल ये मुलाकात कोर्ट रूम में हुई थी. जिसमें माइंडी जज थीं और उनके सामने थे अपराधी के रूप में खड़े आर्थुर. कोर्ट रूम का वीडियो पूरी दुनिया ने देखा.Man facing charges in court starts crying when he recognizes the judge from middle school pic.twitter.com/Ckj93TM9WHआर्थुर को जुए और ड्रग्स की लत थी. उन्होंने कई लूट की घटनाओं को अंजाम दिया था. वो पुलिस की गिरफ्त से भी भागे. सुनवाई शुरू होने पर वो ऐसे बर्ताव कर रहे थे, मानो उन्हें अपने किए पर कोई पछतावा ही न हो. मगर जब जज यानी कि माइंडी ने उनसे सवाल पूछा कि क्या आप नॉटिलस मिडिल स्कूल में पढ़ा करते थे. ये सुनकर आर्थुर फूट फूटकर रोने लगे. वो बुरी तरह टूट गए. कोर्ट रूम के इस वीडियो में दुनिया ने देखा कि कैसे स्कूल में पढ़ने वाले उन दोनों बच्चों में से एक ने तो अपना सपना पूरा कर लिया, मगर दूसरा ऐसा नहीं कर पाया.पूर्व क्लासमेट जब आमने सामने थे49 साल के आर्थुर के सामने उनकी पूर्व क्लासमेट माइंडी थीं. ये मुलाकात आर्थुर के स्कूल छोड़ने के बाद पहली बार हो रही थी. उनकी एक लंबी क्रिमिनल हिस्ट्री रही है. उन्होंने अपनी कम से कम आधी एडल्ट लाइफ जेल में ही गुज़ारी. वो ड्रग्स और सट्टेबाजी की लत के कारण अपराध की दुनिया में आए. उनका मकसद कम वक्त में ज़्यादा से ज़्यादा पैसा कमाना था. वो 17 साल की उम्र के बाद से ही जेल से अंदर बाहर होते रहे. जिसके कारण वो करियर नहीं बना पाए, जिसकी कभी उम्मीद किया करते थे. उनके परिवार का कहना है कि अगर वो गलत लत में न पड़ते तो जहां पहुंचे, वहां न होते.आर्थुर चोरी और जेल से भागने के आरोप में 43,000 डॉलर के मुचलके के साथ जेल में थे. इसे माइंडी ने सेट किया था. इससे पिछले अपराध में गिरफ्तार होने के बाद वो केवल 7 महीने ही जेल से बाहर रहे थे. यहां हम साल 2015 की बात कर रहे हैं. ये वीडियो तभी का है. इस वक्त से भी 35 साल पहले विलियम जे. ब्रायंट एलीमेंट्री स्कूल में अच्छे अंक लाने के बाद ही आर्थुर नॉटिलस मिडिल स्कूल में दाखिल हो पाए थे. यहीं वो माइंडी से भी मिले थे. ये 1970 के दशक में मियामी के सबसे अच्छे स्कूलों में से एक था. आर्थुर ने उस वक्त खुद से स्पैनिश भाषा सीखी. सीधे हाथ में छह उंगलियों के साथ पैदा हुए थे, तो परिवार को लगा कि जीवन में कुछ अच्छा ही करेंगे.1980 में आर्थुर बूथ ने नॉटिलस छोड़ाये बात 1980 के दशक की है, जब आर्थुर अच्छे अंकों के साथ नॉटिलस छोड़कर चले गए. वो मियामी बीच हाई स्कूल में भर्ती हुए. यहां वो 11वीं तक पढ़े. फिर ड्रॉपआउट हो गए. उस वक्त उन्हें सट्टेबाजी की लत लग चुकी थी. बस यहीं से उनकी ज़िंदगी बर्बाद होना शुरू हो गई. वो घरों और वेयरहाउस में घुसपैठ कर चोरी करने लगे. कोर्ट के रिकॉर्ड बताते हैं कि 18 साल का होने पर वो बड़ी चोरी के आरोप में जेल गए. बाद में ड्रग्स की लत लग गई. परिवार ने उन्हें इस गर्त से निकालने की खूब कोशिशें की, लेकिन वो नाकाम रहे. वो बस ड्रग्स के लिए पैसे चाहते थे, जिसके लिए उसकी तस्करी और चोरी करना ही एक रास्ता था.1988 में 22 साल की उम्र में आर्थुर को चोरी और डकैती करने पर 20 साल की कैद हुई. पैरोल पर बाहर आने से पहले वो 10 साल तक जेल में रहे. एक तरफ आर्थुर इन सबमें पड़ चुके थे. तो दूसरी तरफ माइंडी ने मियामी यूनिवर्सिटी से आर्ट्स में बी.ए. किया. इसके बाद उन्होंने सेंट थॉमस यूनिवर्सिटी स्कूल ऑफ लॉ से कानून की पढ़ाई की और 1991 में टैक्स लॉ में स्पेशलाइजेशन के साथ जे.डी. में ग्रेजुएशन की उपाधि हासिल की. उन्होंने इसके बाद अपनी प्रैक्टिस शुरू कर दी. बाद में लॉ स्कूल से उन्होंने एस्टेट प्लानिंग में मास्टर डिग्री भी प्राप्त की.वहीं दूसरी तरफ आर्थुर 32 साल की उम्र में रिहा हुए. तब ड्रग्स की लत तो जेल में रहने से छूट चुकी थी लेकिन सट्टेबाजी का शौक अब भी था. बाहर आने के एक साल के भीतर ही डकैती के अपराध में फिर जेल गए. बाकी की सजा भी पूरी करनी थी. 1997 में सड़क साफ करने के लिए बाकी कैदियों के साथ मियामी में थे. तब थोड़ी ही सजा बची थी लेकिन फिर भी जेल से भाग गए. दो महीने तक परिवार ने छिपाए रखा लेकिन फिर पकड़े गए. वहीं माइंडी साल 2000 में जज बन चुकी थीं. अब अगले 15 साल तक यानी 2015 तक आर्थुर बूथ जेल से अंदर बाहर होते रहे.माइंडी के शब्दों ने बदली ज़िंदगी</t>
-  </si>
-  <si>
-    <t>यूपी के देवरिया हत्याकांड का मामला गरमा गया है. विपक्ष के हमले के बीच योगी सरकार ने एक्शन लेना शुरू कर दिया है. इस मामले में प्रेमचंद्र यादव और उनके परिजन के घर पर ध्वस्तीकरण का नोटिस चस्पा होने के बाद सपा अध्यक्ष अखिलेश यादव का बयान आया है. अखिलेश ने एक्स पर लिखे पोस्ट में योगी सरकार को इशारों में एहतियात बरतने की सलाह दी है और शांति बनाए रखने की दिशा में कदम उठाने की अपील की.बता दें कि देवरिया कांड में अब प्रेम यादव के घर पर बुल्डोजर चलाए जाने की तैयारी है. प्रशासन की तरफ से प्रेम यादव के घर के बाहर एक नोटिस चस्पा किया गया है, जिसमें अवैध निर्माण का जिक्र किया गया है. नोटिस में लिखा है कि सरकारी जमीनों पर अतिक्रमण कर अवैध तरीके से पक्का निर्माण कर कब्जा किया गया है. 7 अक्टूबर को तहसीलदार की कोर्ट में पेश होकर कारण बताओ नोटिस का जवाब देना होगा. अन्यथा तहसील प्रशासन एकपक्षीय आदेश जारी करेगा और तय अवधि में अतिक्रमित जमीन या मकान के हिस्से को ढहा दिया जाएगा.'वातावरण को तनावमुक्त रखें'प्रशासन की इस कार्रवाई के बाद सपा अध्यक्ष अखिलेश यादव ने ट्वीट किया है. अखिलेश ने लिखा, देवरिया कांड में अगर किसी भी पक्ष के साथ अन्याय हुआ तो ये भी एक अपराध होगा. शासन-प्रशासन का दायित्व है कि वो वातावरण को तनावमुक्त करे और रखे. ऐसा कोई भी काम ना करे, जो माहौल बिगाड़े. शांति की कोशिश का अंत किसी की हत्या या हत्या का प्रतिकार नहीं हो सकता और ना ही ऐसी वारदातें किसी सत्ता के लिए सियासी फायदा उठाने का मौका होनी चाहिए.'जमीन को लेकर दोनों पक्षों में चल रहा था विवाद'बता दें कि राजस्व टीम ने पूर्व जिला पंचायत सदस्य प्रेम चंद यादव समेत पांच आरोपियों के मकान पर बेदखली का नोटिस चस्पा किया है. दो दिन पहले ही लेखपाल ने उत्तर प्रदेश राजस्व संहिता 2006 की धारा 67 के तहत तहसीलदार कोर्ट में 5 के खिलाफ वाद दाखिल किया था, जिसके बाद यह कार्रवाई की गई है. गौरतलब है कि फतेहपुर ग्राम के लेड़हा टोला के रहने वाले सत्य प्रकाश दुबे और अभयपुर टोला के रहने वाले प्रेमचंद यादव के बीच जमीन का विवाद चल रहा था. इसमें सत्य प्रकाश के के छोटे भाई ज्ञान प्रकाश ने अपने हिस्से की जमीन प्रेम चंद को बैनामा कर दी थी. इसी को लेकर आए-दिन दोनों पक्ष में झड़प हो रही थी.देवरिया कांड में अगर किसी भी पक्ष के साथ अन्याय हुआ तो ये भी एक अपराध होगा। शासन-प्रशासन का दायित्व है कि वो वातावरण को तनावमुक्त करे व रखे और ऐसा कोई भी काम न करे जो माहौल बिगाड़े।शांति की कोशिश का अंत किसी की हत्या या हत्या का प्रतिकार नहीं हो सकता और न ही ऐसी वारदातें किसी…'सरकारी जमीन पर कब्जे की शिकायत थी'सत्य प्रकाश की तरफ से तहसील और पुलिस-प्रशासन में शिकायत की गई थी कि प्रेम यादव ने सरकारी जमीन पर मकान खड़ा करवा लिया है. ये जमीन वन विभाग और सरकारी स्कूल की है. पुलिस- प्रशासन में अच्छी पकड़ होने के चलते फर्जी रिपोर्ट लगाकर मामले का निस्तारण किया दिया जाता है.'20 अभियुक्तों को जेल चुकी पुलिस'</t>
-  </si>
-  <si>
-    <t>ज्यादा से ज्यादा दर्शकों तक फिल्म पहुंचाने की कोशिश ने पैन इंडिया के फ़ॉर्मूले की शुरुआत की. साउथ की फिल्म इंडस्ट्रीज से लेकर बॉलीवुड की फिल्में भी अब एक साथ कई भाषाओं में रिलीज होने लगी हैं. कई ऐसी भी फिल्में बन रही हैं जिन्हें मेकर्स एक साथ दस भाषाओं में रिलीज करने वाले हैं. अलग-अलग भाषा बोलने वाले दर्शकों के लिए तो फिल्में तैयार हो ही रही हैं लेकिन डिफरेंटली एबल्ड या भिन्न शारीरिक क्षमताओं वालों तक भी सिनेमा पहुंचने लगे तो कितना बेहतरीन होगा!तेलुगू स्टार रवि तेजा की पैन इंडिया फिल्म 'टाइगर नागेश्वर राव' इसी महीने रिलीज होने को तैयार है. इस फिल्म से जुड़ीएक ऐसी जानकारी सामने आई है जिसके लिए मेकर्स की तारीफ की जानी चाहिए. रवि तेजा की ये फिल्म ऑरिजिनल तेलुगू वर्जन समेत हिंदी और अन्य भाषाओं में तो रिलीज होगी ही. साथ ही, इसे साइन लैंग्वेज में भी रिलीज किया जाएगा. इससे वो लोग भी फिल्म देख पाएंगे, जो सुन नहीं सकते.'टाइगर नागेश्वर राव' पहली भारतीय फिल्म बनने जा रही है जो थिएटर्स में साइन लैंग्वेज में रिलीज होगी. हालांकि इससे पहले भी कई फिल्में इस तरह की पहल करती रही हैं और इन्हें ऑरिजिनल रिलीज के बाद भारतीय साइन लैंग्वेज में भी रिलीज किया गया. भारत की ये साइन लैंग्वेज 1986 में डेवलप की गई थी. सिर्फ सुन पाने में अक्षम लोग ही नहीं, एजुकेशन से जुड़े बहुत लोग भी ये साइन लैंग्वेज यूज करते हैं.द कश्मीर फाइल्सपिछले साल की धमाकेदार हिट 'द कश्मीर फाइल्स' ओटीटी पर भारतीय साइन लैंग्वेज के साथ रिलीज हुई थी. ये पहली कमर्शियल बॉलीवुड फिल्म थी जिसने इस तरह की कोशिश की थी. इस मौके को यादगार बनाने के लिए 'द कश्मीर फाइल्स'की एक स्पेशल स्क्रीनिंग भी रखी गई थी जिसमें 500 ऐसे लोगों ने हिस्सा लिया था जो सुन नहीं सकते. इस स्क्रीनिंग में डायरेक्टर विवेक अग्निहोत्री, उनकी पत्नी और फिल्म की एक्ट्रेस पल्लवी जोशी और एक्टर दर्शन कुमार भी मौजूद थे.83रणवीर सिंह की फिल्म '83', 2021 में थिएटर्स में रिलीज हुई थी. डेफ कम्यूनिटी के लिए काम करने वाली एक संस्था इंडिया साइनिंग हैंड्स (ISH) ने इस फिल्म को साइन लैंग्वेज में रिलीज करने के लिए 83 के मेकर्स से हाथ मिलाया था. उनकी इस कोशिश को '83' के स्टार रणवीर सिंह ने भी सपोर्ट किया था. रणवीर ने साल 2020 में साइन लैंग्वेज को भारत की ऑफिशियल भाषाओं की लिस्ट में जगह देने के लिए डाली गई एक पिटीशन को भी सपोर्ट किया था.</t>
-  </si>
-  <si>
-    <t>बिग बॉस फैंस को हर साल शो के नए सीजन का बेसब्री से इंतजार रहता है. अब फैंस दिल थाम कर 'बिग बॉस 17' के लिए तैयार बैठे हैं. शो के लिए अब तक कई बड़े-बड़े नाम सामने आ चुके हैं. टेलीविजन एक्ट्रेसेस और यूट्यूबर्स के बीच बिग बॉस में एडल्ट कंटेंट क्रिएटर शिल्पा सेठी की भी एंट्री होने वाली है.बिग बॉस हाउस में आएंगी शिल्पा सेठीसलमान खान एक बार फिर पुराने स्टाइल और नए तेवर के साथ बिग बॉस 17 में धमाल मचाने को तैयार हैं. इस सीजन शो में कई बड़े और जाने-माने चेहरे दिखेंगे. इस लिस्ट में एडल्ट कंटेंट क्रिएटर शिल्पा सेठी का नाम भी जुड़ गया है. सनी लियोनी और पामेला एंडरसन के बाद शिल्पा शो की सबसे स्ट्रांग एडल्ट कंटेंट स्टार्स में से एक हैं.</t>
-  </si>
-  <si>
-    <t>ऋतिक रोशन की 'कोई मिल गया' आज भी फैन्स की फेवरेटफिल्म है. इस फिल्म की कहानी में आया एलियन अपने आप में एक यादगार किरदार था. ऋतिक के कैरेक्टर के साथ जादू की बॉन्डिंग वाले इमोशनल मोमेंट आज भी लोगों को इमोशनल कर देते हैं. अब तमिल इंडस्ट्री से एक फिल्म आ रही है जिसमें एलियन धरती पर आएगा. तमिल इंडस्ट्री के पॉपुलर स्टार शिवा कार्तिकेयन के लीड रोल वाली इस फिल्म का नाम है 'अयलान'. तमिल के शब्द अयलान का मतलब होता है एलियन.'अयलान' का टीजर आ गया है. फिल्म के बारे में आ रहीं अपडेट्स ही बता रही थीं कि ये एक बहुत एक्साइटिंग प्रोजेक्ट होने वाला है. और 'अयलान' का टीजर देखने के बाद ही आपका मन जल्दी से फिल्म देख डालने का करने लगेगा. टीजर से फिल्म की जो झलक मिल रही है वो शानदार है. ये नया एलियन जितना मजेदार है, उतना पावरफुल भी. और अपने इंसानी दोस्तों के साथ इसकी दोस्ती देखने लायक है. फिल्म के विजुअल्स भी बहुत दमदार हैं.मजेदार साइंस फिक्शन कहानी है 'अयलान'फिल्म का टीजर एक खास पावर सोर्स से शुरू होता है. डायनासोर के अंडों जैसा लगने वाला ये पावर सोर्स धरती पर ही है. टीजर में आगे शरद केलकर का किरदार एक एडवांस रोबोट के साथ दिखता है. ये सीक्वेंस ऐसा नजर आता है कि शरद फिल्म में नेगेटिव रोल कर रहे हैं. शायद उनका किरदार एडवांस तकनीक की मदद से अपने गलत इरादों को अंजाम देना चाहता है. 'अयलान' के टीजर में बहुत कुछ है जो एक सॉलिड साइंस-फिक्शन फिल्म के लिए एक्साइटमेंट बढ़ाता है.एलियन सभ्यता, स्पेस शिप, तमाम तरह की एडवांस टेक्नोलॉजी और सुपर पावर वाले लोग इस टीजर में नजर आते हैं. और इसी बीच एक स्पेसशिप से फिल्म का एलियन 'अयलान' नजर आता है. एलियन वाले सीन्स देखकर ही नजर आता है कि फिल्म का VFX बहुत बेहतरीन है. 'अयलान' के विजुअल्स एक ऐसा संसार तैयार कर रहे हैं, जिसमें दर्शकों को खो जाने का मन करेगा. कहानी में एलियन एकदम लाइव जीव लगता है और उसके चेहरे के बदलने एक्सप्रेशन बहुत कमाल लगते हैं.टीजर देखकर ऐसा लगता है कि पावर सोर्स से अलग-अलग टेक्नोलॉजी बना रहे साइंटिस्ट के एक्स्परिमेंट में कोई सिग्नल स्पेस में चला जाता है, जिससे अयलान के ग्रह के लोग धरती पर आते हैं. टीजर सेऐसा लगता है कि अयलान और उसके लोगों को, फिल्म में नजर आ रहे वैज्ञानिकों ने कब्जे में कर लिया है, लेकिन शिवा कार्तिकेयन का किरदार अयलान को छुड़ाने में कामयाब हो जाता है और अपने साथ ले आता है. अब अयलान का मिशन अपने ग्रह पर लौटना या अपने साथियों को मदद के लिए बुलाना है. लेकिन ये एलियन किसी भी तरह से मानवों को नुकसान नहीं पहुंचाना चाहता, बल्कि उनका अच्छा दोस्त बन जाता है.</t>
-  </si>
-  <si>
-    <t>बॉलीवुड के टॉप स्टार्स में से एक, अक्षय कुमार का समय बॉक्स ऑफिस पर बहुत अच्छा नहीं चल रहा. पिछले साल अक्षय की तीन फिल्में लाइन से सॉलिड कमाई करने में चूक गईं. इस साल भी अक्षय की शुरुआत अच्छी नहीं रही और इमरान हाशमी के साथ उनकी फिल्म 'सेल्फी' बहुत सस्ते में बॉक्स ऑफिस से निपट गई.अगस्त में अक्षय की 'OMG 2' तगड़ी हिट साबित हुई तो लगा कि शायद उनके लिए अब सबकुछ ठीक होने लगा है. लेकिन अब अक्षय की नई फिल्म 'मिशन रानीगंज' थिएटर्स में रिलीज हो चुकी है. और इस फिल्म के साथ जो हो रहा है वो बताता है कि अभी अक्षय के लिए सबकुछ ठीक नहीं हुआ है. अभी अक्षय को बॉक्स ऑफिस पर कामयाबी देखने के लिए थोड़ा और लंबा इन्तजार करना पड़ेगा. 'मिशन रानीगंज' को पहले ही दिन से ऐसी ठंडी शुरुआत मिली है कि थिएटर्स में इसका भविष्य कमजोर नजर आने लगा है.सॉलिड ओपनिंग में फेल 'मिशन रानीगंज'अक्षय की फिल्म शुक्रवार को थिएटर्स में पहुंचने वाली सबसे बड़ी फिल्म थी. रिपोर्ट्स बताती हैं कि इसे करीब 2500 स्क्रीन पर रिलीज किया गया है. लेकिन इस फिल्म को लेकर माहौल इतना ठंडा था कि इसकी बुकिंग, पिछले कुछ समय में अक्षय की सबसे बड़ी फ्लॉप 'सेल्फी' से भी कमजोर रही. इसी से लगने लगा था किअक्षय की फिल्म पहले दिन ही दम न तोड़ दे.ट्रेड रिपोर्ट्स बता रही हैं कि बॉक्स ऑफिस पर अक्षय की 'मिशन रानीगंज' के साथ ऐसा ही कुछ हुआ है. फिल्म ने पहले दिन 2 से 2.5 करोड़ रुपये की रेंज में कलेक्शन किया है. 2019 में बॉलीवुड के लिए बॉक्स ऑफिस पर सबसे बड़ा नेट कलेक्शन लेकर आने वाले अक्षय की फिल्म को इतनी फीकी शुरुआत मिलना शॉकिंग है.</t>
-  </si>
-  <si>
-    <t>यूपी के झांसी जिले में हैरान करने वाली घटना हुआ है. यहां पर तहसील दिवस का आयोजन किया गया था. इसमें जनता की तहसील से जुड़े कार्यों की परेशानियों सुनने और उन्हें दूर करने के लिए तहसीलदार सहित अन्य अधिकारी-कर्मचारी मौजूद थे. इसी दौरान एक युवक वहां पहुंचा और वह गले में प्रार्थन पत्रों की माला पहले हुए थे.पूछने पर युवक का कहना था कि यह वह प्रार्थना पत्र हैं जिन्हें वे जिम्मेदार अधिकारी-कर्मचारियों की बीते समय में अपनी जमीन से जुड़े मामले में दे चुका है, लेकिन उसकी परेशानी का समाधान नहीं हुआ है. तहसील दिवस पर पहुंचे व्यक्ति से तहसीलदार ने खुद मुकालात की और उसके परेशानी को जल्द से जल्द दूर करने का आश्वासन भी दिया है.दरअसल, मामला जिले के मऊरानीपुर क्षेत्र का है.तहसील के सिलगुआ गांव का रहने वालीकैलाश नाम का युवक तहसील दिवस के मौके पर तहसील कार्यालय पहुंचा था. उसे देख कर अधिकारी-कर्मचारी सहित अन्य लोग हैरान रहे गए.देखें वीडियो...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">उत्तर प्रदेश में हर बुधवार महिलाओं के बीच ‘शक्ति दीदी’ पहुंचेंगी और जागरूक करेंगी. इसके तहत महिला पुलिसकर्मी सार्वजनिक स्थानों और महिलाओं के बीच पहुंचकर योजनाओं के लिए उनको जागरूक करेंगी. महिलाओं से संबंधित कानूनों के बारे में भी बताएंगी. 'मिशन शक्ति' के तहत यूपी के गृह विभाग ने योजना तैयार की है. इसमें दूसरे विभाग के समन्वय से काम होगा.दरअसल, शारदीय नवरात्र पर यूपी सरकार आधी आबादी को जागरूक और आत्मनिर्भर करने के लिए एक पहल करने जा रही है. महिलाओं के लिए ख़ास तौर पर मिशन शक्ति अभियान के तहत 'शक्ति दीदी' की शुरुआत होने वाली है. हर सप्ताह बुधवार के दिन दो महिला पुलिसकर्मी की टीम गांव और शहरों में सार्वजनिक स्थानों पर महिलाओं के बीच पहुंचेगी. इन महिला पुलिस कर्मियों को शक्ति दीदी कहाजाएगा.योजनाओं का लाभ लेने के लिएकिया जाएगाप्रोत्साहित'शक्ति दीदी' का काम महिलाओं को जागरूक करना होगा. वर्तमान में केंद्र और राज्य सरकार की कई योजनाएं ऐसी हैं, जो महिला प्रधान हैं. ऐसे में महिलाओं को इन योजनाओं के बारे में जानकारी दी जाएगी. उन्हें योजनाओं का लाभ लेने के लिए प्रोत्साहित भी किया जाएगा.खास बात यह है कि इस अभियान के दौरान अलग-अलग विभागों के समन्वय से अभियान को सफल बनाया जाएगा. ग्राम पंचायत और न्याय पंचायतों में भ्रमण के दौरान शक्ति दीदी के साथ बैंक कॉरेस्पॉन्डेट सखी (BC Sakhi) राजस्व लेखपाल, एएनएम और आशा वर्कर भी मौजूद रहेंगी. शहरी क्षेत्रों में शक्ति दीदी अभियान के लिए अलग से योजना तैयार की गई है.योजनाओं की सूची तैयार कर बताया जाएगाप्रधानमंत्री मातृ वंदना योजना, बेटी बचाओ बेटी पढ़ाओ, प्रधानमंत्री उज्ज्वला योजना, पीएम स्वनिधि योजना, पीएम सम्मान निधि योजना, वन स्टाप सेंटर सेफ सिटी योजना, आयुष्मान योजना, सुरक्षित मातृत्व आश्वासन सुमन योजना, प्रधानमंत्री फ्री सिलाई मशीन योजना, महिला शक्ति केंद्र योजना, यूपी भाग्य लक्ष्मी योजना, मुख्यमंत्री अभ्युदय योजना और महिला ई-हाट योजना जैसी योजनाएं हैं. इनका लाभ महिलाओं को मिल रहा है. इनकी सूची तैयार करके महिलाओं को बताया जाएगा.विभिन्न विभागों के समन्वय से चलेगा अभियानदरअसल, यूपी के मुख्यमंत्री योगी आदित्यनाथ के निर्देश पर 'मिशन शक्ति' योजना की शुरुआत की गई थी. इसकी सफलता और महिलाओं में इसके प्रभाव को देखते हुए इसके दूसरे चरण के लिए 'शक्ति दीदी' अभियान को शामिल करने की योजना तैयार की गई है. गृह विभाग ने इसके लिए कार्ययोजना बनाई है. इसके तहत महिलाओं और बच्चों से संबंधित कानूनों जैसे घरेलू हिंसा, दहेज निषेध, कार्यस्थल पर लैंगिक उत्पीड़न, अनैतिक व्यापार निवारण, पॉक्सो, बाल विवाह निषेध, बाल श्रम की जानकारी भी महिलाओं को दी जाएगी. </t>
-  </si>
-  <si>
-    <t>उत्तर प्रदेश के देवरिया हत्याकांड में दबंग प्रेम चंद यादव पुत्र राम भवन यादव के मकान पर राजस्व टीम ने कल शाम बेदखली का नोटिस चस्पा किया था. साथ ही7 अक्टूबर यानि की आज तहसीलदार की कोर्ट संख्या 2 में स्वयं या अधिवक्ता के माध्यम से प्रस्तुत होकर कारण बताओ नोटिस का जवाब देना था. इस मामले में आज रामभवन यादव की छोटी बहू किरण और प्रेम यादव की बेटी कोर्ट पहुंचे.सुनवाई के बाद अब 9 अक्टूबर को तहसीलदार मौके पर जाकर निरीक्षण करेंगे और पक्ष सुनेंगे.अधिवक्ता गोपीनाथ यादव नेकहा किबताया एक नोटिस जारी किया,जिसमें वन विभाग की जमीन पर बाउंड्री वॉल और छप्पर से अतिक्रमण किया गया है, जबकि दो नोटिस साइलेंट थे. जिसे बताया नहीं गया था.अराजी संख्या 2726 में रकबा 20 एयर में 6 एयर पर मकान और बाउंडरी वाल दिखाया गया है जो नवीन परती की भूमि है.अराजी संख्या 2725 अराजी रकबा 45 एयर इसमे 20 एयर पर पक्की मकान और बाउंडरी वाल दिखाया गया यह भूमि खलिहान की है.अराजी संख्या 2742 रकबा 0.583 हेक्टेयर जमीन में 0.06 हेक्टेयर भूमि पर बाउंडरी वाल और छप्पर दिखाया गया है जो वन विभाग की भूमि हैपांच आरोपियों के मकान पर राजस्व टीम ने बेदखली का नोटिस चस्पा देवरिया हत्याकांड में दबंग प्रेम चंद यादव पुत्र राम भवन यादव समेत पांच आरोपियों के मकान पर राजस्व टीम ने बेदखली का नोटिस चस्पा कर दिया है. नोटिस में लिखा गया है कि इन्होंने सरकारी जमीनों पर अतिक्रमण कर अवैध तरीके से पक्का निर्माण कर कब्जा किया है. इसमें 7 अक्टूबर को तहसीलदार की कोर्ट संख्या 2 में स्वयं या अधिवक्ता के माध्यम से प्रस्तुत होकर कारण बताओ नोटिस का जवाब देना था.कहा गया था कि नोटिस का जवाब नहीं देने पर तहसील प्रशासन द्वारा एकपक्षीय आदेश जारी कर दिया जाएगा और तय अवधि में अतिक्रमण जमीन या मकान के हिस्से को ढहा दिया जाएगा. आपको बता दें कि लेखपाल ने 2 दिन पूर्व उत्तर प्रदेश राजस्व संहिता 2006 की धारा 67 के तहत तहसीलदार कोर्ट में 5 के खिलाफ वाद दाखिल किया था, जिसके बाद यह कार्रवाई की गईजमीन विवाद में 6 की हत्यागौरतलब है कि फतेहपुर ग्राम के लेड़हा टोला के रहने वाले सत्य प्रकाश दुबे और अभयपुर टोला के रहने वाले समाजवादी पार्टी के पूर्व जिला पंचायत सदस्य प्रेमचंद यादव के बीच जमीन का विवाद चल रहा था. इसमें सत्य प्रकाश के दुबे के छोटे भाई ज्ञान प्रकाश दुबे ने अपने हिस्से की जमीन प्रेमचंद यादव को बैनामा कर दिया थी,इसी को लेकर आए दिन विवाद चलता था.सत्य प्रकाश दुबे द्वारा तहसील व पुलिस प्रशासन में यह शिकायत की गई थी कि प्रेमचंद यादव ने सरकारी जमीन खलिहान की जमीन वन विभाग की जमीन और सरकारी स्कूल की जमीन पर कब्जा कर मकान बनवाया है, लेकिन प्रेमचंद यादव की पुलिस व प्रशासन में अच्छी पकड़ होने के चलते फर्जी रिपोर्ट लगाकर मामले का निस्तारण किया दिया जाता था.2 अक्टूबर को रुद्रपुर कोतवाली के फतेहपुर गांव में जमीनी विवाद में पहले प्रेम चंद यादव की हत्या की गई. उसके प्रतिशोध में सत्य प्रकाश दुबे समेत उनके परिवार के 5 सदस्यों की निर्मम हत्या की गई थी. इसमें सत्य प्रकाश की बड़ी बेटी शोभिता की तहरीर पर पुलिस ने 27 नामजद और 50 अज्ञात के विरुद्ध केस दर्ज करते हुए कुल 20 अभियुक्तो को जेल भेज दिया है.</t>
-  </si>
-  <si>
     <t>International</t>
   </si>
   <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>[0.023664673790335655, 0.5869062542915344, 0.3894290626049042]</t>
-  </si>
-  <si>
-    <t>[0.018958132714033127, 0.6975951194763184, 0.283446729183197]</t>
-  </si>
-  <si>
-    <t>[0.022850017994642258, 0.5522276759147644, 0.424922376871109]</t>
-  </si>
-  <si>
-    <t>[0.028828667476773262, 0.5783408284187317, 0.39283040165901184]</t>
-  </si>
-  <si>
-    <t>[0.047338567674160004, 0.16193243861198425, 0.7907289862632751]</t>
-  </si>
-  <si>
-    <t>[0.043490584939718246, 0.3030831217765808, 0.6534262895584106]</t>
-  </si>
-  <si>
-    <t>[0.023351900279521942, 0.640821635723114, 0.33582642674446106]</t>
-  </si>
-  <si>
-    <t>[0.04109235107898712, 0.18179000914096832, 0.7771176099777222]</t>
-  </si>
-  <si>
-    <t>[0.05165330320596695, 0.4577498435974121, 0.49059686064720154]</t>
-  </si>
-  <si>
-    <t>[0.27456679940223694, 0.06733351200819016, 0.6580997109413147]</t>
-  </si>
-  <si>
-    <t>[0.05784957483410835, 0.38155806064605713, 0.5605924129486084]</t>
-  </si>
-  <si>
-    <t>[0.035867199301719666, 0.19559229910373688, 0.7685405015945435]</t>
-  </si>
-  <si>
-    <t>[0.04679860174655914, 0.3614276647567749, 0.5917737483978271]</t>
-  </si>
-  <si>
-    <t>[0.033064328134059906, 0.3057314157485962, 0.6612042784690857]</t>
-  </si>
-  <si>
-    <t>[0.06621981412172318, 0.14787302911281586, 0.7859071493148804]</t>
-  </si>
-  <si>
-    <t>[0.02632092870771885, 0.5538980960845947, 0.41978102922439575]</t>
-  </si>
-  <si>
-    <t>[0.02755475975573063, 0.38636109232902527, 0.5860841870307922]</t>
-  </si>
-  <si>
-    <t>[0.019618554040789604, 0.5825704336166382, 0.3978109657764435]</t>
-  </si>
-  <si>
-    <t>[0.041990261524915695, 0.23877866566181183, 0.7192310690879822]</t>
-  </si>
-  <si>
-    <t>[0.05463523790240288, 0.23469245433807373, 0.7106723785400391]</t>
+    <t>[0.1376546323299408, 0.1027262732386589, 0.7596191763877869]</t>
+  </si>
+  <si>
+    <t>[0.04124028608202934, 0.40151292085647583, 0.5572468042373657]</t>
+  </si>
+  <si>
+    <t>[0.10941077023744583, 0.1655218005180359, 0.7250674366950989]</t>
+  </si>
+  <si>
+    <t>[0.08000293374061584, 0.1779858022928238, 0.7420112490653992]</t>
+  </si>
+  <si>
+    <t>[0.10338839143514633, 0.3028891980648041, 0.593722403049469]</t>
+  </si>
+  <si>
+    <t>[0.0859128087759018, 0.12073731422424316, 0.7933498620986938]</t>
+  </si>
+  <si>
+    <t>[0.02934599295258522, 0.5369570851325989, 0.4336968660354614]</t>
+  </si>
+  <si>
+    <t>[0.04898820072412491, 0.3236561417579651, 0.6273556351661682]</t>
+  </si>
+  <si>
+    <t>[0.06662314385175705, 0.2989164888858795, 0.6344602704048157]</t>
+  </si>
+  <si>
+    <t>[0.3630487322807312, 0.035865668207407, 0.6010856032371521]</t>
+  </si>
+  <si>
+    <t>[0.0583500899374485, 0.21063271164894104, 0.7310171723365784]</t>
+  </si>
+  <si>
+    <t>[0.16013966500759125, 0.08679008483886719, 0.7530702948570251]</t>
+  </si>
+  <si>
+    <t>[0.06751169264316559, 0.17324356734752655, 0.7592447996139526]</t>
+  </si>
+  <si>
+    <t>[0.11920846253633499, 0.19383063912391663, 0.6869608759880066]</t>
+  </si>
+  <si>
+    <t>[0.02105344645678997, 0.5400921106338501, 0.438854455947876]</t>
+  </si>
+  <si>
+    <t>[0.036992426961660385, 0.31804198026657104, 0.644965648651123]</t>
+  </si>
+  <si>
+    <t>[0.08505087345838547, 0.20256900787353516, 0.712380051612854]</t>
+  </si>
+  <si>
+    <t>[0.28694072365760803, 0.03797123581171036, 0.675088107585907]</t>
+  </si>
+  <si>
+    <t>[0.04956474527716637, 0.31198057532310486, 0.6384546160697937]</t>
+  </si>
+  <si>
+    <t>[0.03896082192659378, 0.1711225062608719, 0.7899166345596313]</t>
+  </si>
+  <si>
+    <t>[0.09622388333082199, 0.014396474696695805, 0.8893796801567078]</t>
+  </si>
+  <si>
+    <t>[0.06592573970556259, 0.04199953004717827, 0.8920747637748718]</t>
+  </si>
+  <si>
+    <t>[0.03789779916405678, 0.331007719039917, 0.6310945749282837]</t>
+  </si>
+  <si>
+    <t>[0.03224977105855942, 0.25607725977897644, 0.7116730213165283]</t>
+  </si>
+  <si>
+    <t>[0.2755924165248871, 0.11219523847103119, 0.6122123003005981]</t>
+  </si>
+  <si>
+    <t>[0.03634852543473244, 0.3548692464828491, 0.6087822318077087]</t>
   </si>
 </sst>
 </file>
@@ -738,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,22 +811,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -795,22 +831,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -818,22 +851,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -841,22 +871,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -864,22 +891,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -887,22 +911,19 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -910,22 +931,19 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -933,22 +951,19 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -956,22 +971,19 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -979,22 +991,19 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1002,22 +1011,19 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1025,22 +1031,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1048,22 +1051,19 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1071,22 +1071,19 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1094,22 +1091,19 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1117,22 +1111,19 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1140,22 +1131,19 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1163,22 +1151,19 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1186,22 +1171,19 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
         <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1209,22 +1191,139 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
         <v>95</v>
       </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" t="s">
-        <v>117</v>
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1249,6 +1348,12 @@
     <hyperlink ref="D19" r:id="rId18"/>
     <hyperlink ref="D20" r:id="rId19"/>
     <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
